--- a/Wknd_Sched_Builder/SampPoll.xlsx
+++ b/Wknd_Sched_Builder/SampPoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA212CA-A71C-4FB8-9C31-F7F835CC97CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9232D467-6019-4078-9B46-1C3845FA2474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32040" yWindow="285" windowWidth="23790" windowHeight="14085" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="23790" windowHeight="14085" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,6 +690,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,37 +711,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,22 +756,16 @@
     <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -774,1240 +774,6 @@
     <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="378">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -7185,6 +5951,1240 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{1F610676-1E13-4C9A-B29E-876D780F113A}"/>
@@ -7201,7 +7201,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABFB3837-C726-420C-8F94-FE940D46FBFA}" name="tbl_RockFT" displayName="tbl_RockFT" ref="B4:R5" totalsRowShown="0" headerRowDxfId="377" dataDxfId="376" tableBorderDxfId="375">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABFB3837-C726-420C-8F94-FE940D46FBFA}" name="tbl_RockFT" displayName="tbl_RockFT" ref="B4:R5" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198" tableBorderDxfId="197">
   <autoFilter ref="B4:R5" xr:uid="{ABFB3837-C726-420C-8F94-FE940D46FBFA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7222,30 +7222,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{6CD7B415-E5ED-4E6C-B090-A5839DD91D84}" name="Emp. #" dataDxfId="374"/>
-    <tableColumn id="2" xr3:uid="{12A18604-7F60-410E-86CA-F38E9FB0FDF4}" name="Last Name" dataDxfId="373"/>
-    <tableColumn id="3" xr3:uid="{3832ADBC-21E6-47CD-B161-39493B97EEF4}" name="First Name" dataDxfId="372"/>
-    <tableColumn id="4" xr3:uid="{37B6F3EB-F20F-4183-AF82-EDF3EBAD1BE4}" name="Hrs" dataDxfId="371"/>
-    <tableColumn id="5" xr3:uid="{C67A354A-C21E-422C-91E7-E1F4CD23C8F3}" name="C" dataDxfId="370"/>
-    <tableColumn id="6" xr3:uid="{68186161-303F-42E1-9A49-0CBBD6537C26}" name="A" dataDxfId="369"/>
-    <tableColumn id="7" xr3:uid="{72E070CB-4A33-49C7-95B3-AEB18BC8B69E}" name="B" dataDxfId="368"/>
-    <tableColumn id="8" xr3:uid="{438D696D-B4AA-4A4D-AF57-6C3BB4213393}" name="C " dataDxfId="367"/>
-    <tableColumn id="9" xr3:uid="{16D6112A-2983-4920-8FAE-13F672850898}" name="A " dataDxfId="366"/>
-    <tableColumn id="10" xr3:uid="{5A8EA4BE-F765-430A-974B-08B54C7561CE}" name="B " dataDxfId="365"/>
-    <tableColumn id="11" xr3:uid="{058CB17D-88F4-4E38-A318-F4AC584699C3}" name=" C" dataDxfId="364"/>
-    <tableColumn id="12" xr3:uid="{9FDE944B-7D90-47E0-A420-833A1D9ECF66}" name=" A" dataDxfId="363"/>
-    <tableColumn id="13" xr3:uid="{975E48BB-0632-49F3-BEF2-CDD175A63819}" name=" B/4 Early" dataDxfId="362"/>
-    <tableColumn id="14" xr3:uid="{69394732-5B0E-4451-8D1E-8B4488AEE4F0}" name=" C " dataDxfId="361"/>
-    <tableColumn id="15" xr3:uid="{95644352-69BC-451A-A3DC-10E2174E93D6}" name=" A " dataDxfId="360"/>
-    <tableColumn id="16" xr3:uid="{C79103E4-1F25-42C8-A346-C68E20DCBDD1}" name="4 Early" dataDxfId="359"/>
-    <tableColumn id="17" xr3:uid="{2ADB77ED-11BB-4715-8478-7B1232A28141}" name="Comments" dataDxfId="358"/>
+    <tableColumn id="1" xr3:uid="{6CD7B415-E5ED-4E6C-B090-A5839DD91D84}" name="Emp. #" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{12A18604-7F60-410E-86CA-F38E9FB0FDF4}" name="Last Name" dataDxfId="195"/>
+    <tableColumn id="3" xr3:uid="{3832ADBC-21E6-47CD-B161-39493B97EEF4}" name="First Name" dataDxfId="194"/>
+    <tableColumn id="4" xr3:uid="{37B6F3EB-F20F-4183-AF82-EDF3EBAD1BE4}" name="Hrs" dataDxfId="193"/>
+    <tableColumn id="5" xr3:uid="{C67A354A-C21E-422C-91E7-E1F4CD23C8F3}" name="C" dataDxfId="192"/>
+    <tableColumn id="6" xr3:uid="{68186161-303F-42E1-9A49-0CBBD6537C26}" name="A" dataDxfId="191"/>
+    <tableColumn id="7" xr3:uid="{72E070CB-4A33-49C7-95B3-AEB18BC8B69E}" name="B" dataDxfId="190"/>
+    <tableColumn id="8" xr3:uid="{438D696D-B4AA-4A4D-AF57-6C3BB4213393}" name="C " dataDxfId="189"/>
+    <tableColumn id="9" xr3:uid="{16D6112A-2983-4920-8FAE-13F672850898}" name="A " dataDxfId="188"/>
+    <tableColumn id="10" xr3:uid="{5A8EA4BE-F765-430A-974B-08B54C7561CE}" name="B " dataDxfId="187"/>
+    <tableColumn id="11" xr3:uid="{058CB17D-88F4-4E38-A318-F4AC584699C3}" name=" C" dataDxfId="186"/>
+    <tableColumn id="12" xr3:uid="{9FDE944B-7D90-47E0-A420-833A1D9ECF66}" name=" A" dataDxfId="185"/>
+    <tableColumn id="13" xr3:uid="{975E48BB-0632-49F3-BEF2-CDD175A63819}" name=" B/4 Early" dataDxfId="184"/>
+    <tableColumn id="14" xr3:uid="{69394732-5B0E-4451-8D1E-8B4488AEE4F0}" name=" C " dataDxfId="183"/>
+    <tableColumn id="15" xr3:uid="{95644352-69BC-451A-A3DC-10E2174E93D6}" name=" A " dataDxfId="182"/>
+    <tableColumn id="16" xr3:uid="{C79103E4-1F25-42C8-A346-C68E20DCBDD1}" name="4 Early" dataDxfId="181"/>
+    <tableColumn id="17" xr3:uid="{2ADB77ED-11BB-4715-8478-7B1232A28141}" name="Comments" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6C6A2921-2C9D-490F-9C91-6E44BC06C760}" name="tbl_SilverTemp" displayName="tbl_SilverTemp" ref="U143:AK144" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196" tableBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6C6A2921-2C9D-490F-9C91-6E44BC06C760}" name="tbl_SilverTemp" displayName="tbl_SilverTemp" ref="U143:AK144" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="U143:AK144" xr:uid="{6C6A2921-2C9D-490F-9C91-6E44BC06C760}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7266,30 +7266,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{58A69053-849D-4B76-8169-468B780D49D7}" name="Emp. #" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{0334440E-0F51-46E1-8032-AF86BC2C658B}" name="Last Name" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{70C5F8A6-25FA-4B4D-B158-97BF3364D540}" name="First Name" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{B1D077BE-7563-4C49-A7E5-372416FC4EFC}" name="Hrs" dataDxfId="191" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{5AAAC164-60CE-43AE-884A-9C36BC76D6C0}" name="C" dataDxfId="190"/>
-    <tableColumn id="6" xr3:uid="{C0A52D83-F08C-426A-84B7-6B8D3CD315BE}" name="A" dataDxfId="189"/>
-    <tableColumn id="7" xr3:uid="{4AAD3925-F54D-4B05-8F91-2EF1834D0D4C}" name="B" dataDxfId="188"/>
-    <tableColumn id="8" xr3:uid="{35D8085F-DF9C-422D-9FE7-4D5C1B23A09A}" name="C " dataDxfId="187"/>
-    <tableColumn id="9" xr3:uid="{7B97514C-47A0-4C6B-86FE-54CBBAE0E314}" name="A " dataDxfId="186"/>
-    <tableColumn id="10" xr3:uid="{FA5FCBFA-EE3A-4AB9-BB2A-F9DD5EB32038}" name="B " dataDxfId="185"/>
-    <tableColumn id="11" xr3:uid="{E06008FB-C36F-47AB-AFC1-DD3FC68873C7}" name=" C" dataDxfId="184"/>
-    <tableColumn id="12" xr3:uid="{1D8865E7-C972-4932-8064-445D9419A278}" name=" A" dataDxfId="183"/>
-    <tableColumn id="13" xr3:uid="{7AC6FF33-CD57-4087-B04A-9811C7D2D8E0}" name=" B" dataDxfId="182"/>
-    <tableColumn id="14" xr3:uid="{8FF81BF1-8D86-4B2F-895F-684C41060857}" name=" C " dataDxfId="181"/>
-    <tableColumn id="15" xr3:uid="{1F8E648E-CA4D-4369-8A4B-063D9B3C5542}" name=" A " dataDxfId="180"/>
-    <tableColumn id="16" xr3:uid="{91401288-2CFD-4477-8038-364A2D015935}" name=" B " dataDxfId="179"/>
-    <tableColumn id="17" xr3:uid="{5F71391A-CF5C-456B-AC53-EE6E735095E9}" name="Comments" dataDxfId="178"/>
+    <tableColumn id="1" xr3:uid="{58A69053-849D-4B76-8169-468B780D49D7}" name="Emp. #" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{0334440E-0F51-46E1-8032-AF86BC2C658B}" name="Last Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{70C5F8A6-25FA-4B4D-B158-97BF3364D540}" name="First Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{B1D077BE-7563-4C49-A7E5-372416FC4EFC}" name="Hrs" dataDxfId="13" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{5AAAC164-60CE-43AE-884A-9C36BC76D6C0}" name="C" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C0A52D83-F08C-426A-84B7-6B8D3CD315BE}" name="A" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{4AAD3925-F54D-4B05-8F91-2EF1834D0D4C}" name="B" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{35D8085F-DF9C-422D-9FE7-4D5C1B23A09A}" name="C " dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{7B97514C-47A0-4C6B-86FE-54CBBAE0E314}" name="A " dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{FA5FCBFA-EE3A-4AB9-BB2A-F9DD5EB32038}" name="B " dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{E06008FB-C36F-47AB-AFC1-DD3FC68873C7}" name=" C" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{1D8865E7-C972-4932-8064-445D9419A278}" name=" A" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{7AC6FF33-CD57-4087-B04A-9811C7D2D8E0}" name=" B" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{8FF81BF1-8D86-4B2F-895F-684C41060857}" name=" C " dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{1F8E648E-CA4D-4369-8A4B-063D9B3C5542}" name=" A " dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{91401288-2CFD-4477-8038-364A2D015935}" name=" B " dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{5F71391A-CF5C-456B-AC53-EE6E735095E9}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34CA4B13-5710-434C-A936-580F8B4FE989}" name="tbl_RockTemp" displayName="tbl_RockTemp" ref="U4:AK5" totalsRowShown="0" headerRowDxfId="357" dataDxfId="356" tableBorderDxfId="355">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34CA4B13-5710-434C-A936-580F8B4FE989}" name="tbl_RockTemp" displayName="tbl_RockTemp" ref="U4:AK5" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178" tableBorderDxfId="177">
   <autoFilter ref="U4:AK5" xr:uid="{34CA4B13-5710-434C-A936-580F8B4FE989}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7310,30 +7310,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{EF594F3B-C751-4D06-AB8D-D5093DF12B30}" name="Emp. #" dataDxfId="354"/>
-    <tableColumn id="2" xr3:uid="{B578227A-85A6-409D-8C41-0D40E1D1FE0B}" name="Last Name" dataDxfId="353"/>
-    <tableColumn id="3" xr3:uid="{47515138-35FF-4BC4-AD02-A645ECA96596}" name="First Name" dataDxfId="352"/>
-    <tableColumn id="4" xr3:uid="{D7F1594D-ABA8-4705-86B7-9EC12A5F82E5}" name="Hrs" dataDxfId="351" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{58C48143-0C5F-41BB-BEC5-2CB3A6312C5E}" name="C" dataDxfId="350"/>
-    <tableColumn id="6" xr3:uid="{C02C073F-6495-4EF4-B452-C311E8AD58FB}" name="A" dataDxfId="349"/>
-    <tableColumn id="7" xr3:uid="{475E0C74-19EF-4EFF-B8AA-D245702F3E2A}" name="B" dataDxfId="348"/>
-    <tableColumn id="8" xr3:uid="{F768CC9C-573E-4CB1-A1B3-C552B4E5E898}" name="C " dataDxfId="347"/>
-    <tableColumn id="9" xr3:uid="{C4FBEC0A-791F-430E-9E12-CC1A73EE9D1F}" name="A " dataDxfId="346"/>
-    <tableColumn id="10" xr3:uid="{434BE5F5-30A6-4E8D-BEB2-BE61926D1C83}" name="B " dataDxfId="345"/>
-    <tableColumn id="11" xr3:uid="{70EB3B72-268A-4364-A2B1-3C984835E11A}" name=" C" dataDxfId="344"/>
-    <tableColumn id="12" xr3:uid="{BC354176-757C-4A95-815A-91002056DE25}" name=" A" dataDxfId="343"/>
-    <tableColumn id="13" xr3:uid="{7049DAC0-ACC8-4B03-A312-1F9ED2645F33}" name=" B/4 Early" dataDxfId="342"/>
-    <tableColumn id="14" xr3:uid="{FA12F6B0-3D31-4E6F-8F80-4963B659D76D}" name=" C " dataDxfId="341"/>
-    <tableColumn id="15" xr3:uid="{4145FBAE-F6C8-4E40-BD98-24E73B386356}" name=" A " dataDxfId="340"/>
-    <tableColumn id="16" xr3:uid="{02645E26-E649-4026-ADA4-FAD5AD26DAB8}" name="4 Early" dataDxfId="339"/>
-    <tableColumn id="17" xr3:uid="{20BDD8B8-290D-4E65-9C88-BCB4EEAEEB52}" name="Comments" dataDxfId="338"/>
+    <tableColumn id="1" xr3:uid="{EF594F3B-C751-4D06-AB8D-D5093DF12B30}" name="Emp. #" dataDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{B578227A-85A6-409D-8C41-0D40E1D1FE0B}" name="Last Name" dataDxfId="175"/>
+    <tableColumn id="3" xr3:uid="{47515138-35FF-4BC4-AD02-A645ECA96596}" name="First Name" dataDxfId="174"/>
+    <tableColumn id="4" xr3:uid="{D7F1594D-ABA8-4705-86B7-9EC12A5F82E5}" name="Hrs" dataDxfId="173" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{58C48143-0C5F-41BB-BEC5-2CB3A6312C5E}" name="C" dataDxfId="172"/>
+    <tableColumn id="6" xr3:uid="{C02C073F-6495-4EF4-B452-C311E8AD58FB}" name="A" dataDxfId="171"/>
+    <tableColumn id="7" xr3:uid="{475E0C74-19EF-4EFF-B8AA-D245702F3E2A}" name="B" dataDxfId="170"/>
+    <tableColumn id="8" xr3:uid="{F768CC9C-573E-4CB1-A1B3-C552B4E5E898}" name="C " dataDxfId="169"/>
+    <tableColumn id="9" xr3:uid="{C4FBEC0A-791F-430E-9E12-CC1A73EE9D1F}" name="A " dataDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{434BE5F5-30A6-4E8D-BEB2-BE61926D1C83}" name="B " dataDxfId="167"/>
+    <tableColumn id="11" xr3:uid="{70EB3B72-268A-4364-A2B1-3C984835E11A}" name=" C" dataDxfId="166"/>
+    <tableColumn id="12" xr3:uid="{BC354176-757C-4A95-815A-91002056DE25}" name=" A" dataDxfId="165"/>
+    <tableColumn id="13" xr3:uid="{7049DAC0-ACC8-4B03-A312-1F9ED2645F33}" name=" B/4 Early" dataDxfId="164"/>
+    <tableColumn id="14" xr3:uid="{FA12F6B0-3D31-4E6F-8F80-4963B659D76D}" name=" C " dataDxfId="163"/>
+    <tableColumn id="15" xr3:uid="{4145FBAE-F6C8-4E40-BD98-24E73B386356}" name=" A " dataDxfId="162"/>
+    <tableColumn id="16" xr3:uid="{02645E26-E649-4026-ADA4-FAD5AD26DAB8}" name="4 Early" dataDxfId="161"/>
+    <tableColumn id="17" xr3:uid="{20BDD8B8-290D-4E65-9C88-BCB4EEAEEB52}" name="Comments" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{855AAF10-F86F-4DF0-9653-14D5539789AD}" name="tbl_BlueFT" displayName="tbl_BlueFT" ref="B45:R46" totalsRowShown="0" headerRowDxfId="337" dataDxfId="336" tableBorderDxfId="335">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{855AAF10-F86F-4DF0-9653-14D5539789AD}" name="tbl_BlueFT" displayName="tbl_BlueFT" ref="B45:R46" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158" tableBorderDxfId="157">
   <autoFilter ref="B45:R46" xr:uid="{855AAF10-F86F-4DF0-9653-14D5539789AD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7354,30 +7354,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{42DF942B-D308-4888-BC68-D255F1A967B3}" name="Emp. #" dataDxfId="334"/>
-    <tableColumn id="2" xr3:uid="{73C950D0-B6B8-45B4-A5B9-E6B3060AE8A9}" name="Last Name" dataDxfId="333"/>
-    <tableColumn id="3" xr3:uid="{8E73AEC3-5F64-4268-99A1-3442616B7FFA}" name="First Name" dataDxfId="332"/>
-    <tableColumn id="4" xr3:uid="{267C561E-25C3-4260-B27D-AE659F1A6B79}" name="Hrs" dataDxfId="331"/>
-    <tableColumn id="5" xr3:uid="{373238AE-10A4-4716-86A8-3877F86CB2AB}" name="C" dataDxfId="330"/>
-    <tableColumn id="6" xr3:uid="{E53E1A12-3004-45E0-A297-F6C44D94F700}" name="A" dataDxfId="329"/>
-    <tableColumn id="7" xr3:uid="{8B91086A-EB49-44DD-87A6-DE15A2A2A35C}" name="B" dataDxfId="328"/>
-    <tableColumn id="8" xr3:uid="{505D7916-0603-4857-9D54-9D4C6AE6CFC5}" name="C " dataDxfId="327"/>
-    <tableColumn id="9" xr3:uid="{AB7575FC-6ACF-4FD3-9F43-80E20F90C3AF}" name="A " dataDxfId="326"/>
-    <tableColumn id="10" xr3:uid="{8ED4755D-6A25-4418-A439-92A019730917}" name="B " dataDxfId="325"/>
-    <tableColumn id="11" xr3:uid="{FEBD4A1F-BE30-408E-8325-9BED02E4203C}" name=" C" dataDxfId="324"/>
-    <tableColumn id="12" xr3:uid="{4C3ED8E3-30EE-4143-B5BE-337D479ED371}" name=" A" dataDxfId="323"/>
-    <tableColumn id="13" xr3:uid="{403A0684-F612-41EF-9496-C86634122410}" name=" B" dataDxfId="322"/>
-    <tableColumn id="14" xr3:uid="{991F6355-1E72-4FBD-A2F8-4DEDAF1D54D4}" name=" C " dataDxfId="321"/>
-    <tableColumn id="15" xr3:uid="{9CE23959-7817-4DA9-844C-B1A2C48B9730}" name=" A " dataDxfId="320"/>
-    <tableColumn id="16" xr3:uid="{ACFF0EC9-E7B2-4B1E-9E25-C7E8ED9F314A}" name=" B " dataDxfId="319"/>
-    <tableColumn id="17" xr3:uid="{7AA37D92-EAEC-4C2A-9D3C-B34941230B1D}" name="Comments" dataDxfId="318"/>
+    <tableColumn id="1" xr3:uid="{42DF942B-D308-4888-BC68-D255F1A967B3}" name="Emp. #" dataDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{73C950D0-B6B8-45B4-A5B9-E6B3060AE8A9}" name="Last Name" dataDxfId="155"/>
+    <tableColumn id="3" xr3:uid="{8E73AEC3-5F64-4268-99A1-3442616B7FFA}" name="First Name" dataDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{267C561E-25C3-4260-B27D-AE659F1A6B79}" name="Hrs" dataDxfId="153"/>
+    <tableColumn id="5" xr3:uid="{373238AE-10A4-4716-86A8-3877F86CB2AB}" name="C" dataDxfId="152"/>
+    <tableColumn id="6" xr3:uid="{E53E1A12-3004-45E0-A297-F6C44D94F700}" name="A" dataDxfId="151"/>
+    <tableColumn id="7" xr3:uid="{8B91086A-EB49-44DD-87A6-DE15A2A2A35C}" name="B" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{505D7916-0603-4857-9D54-9D4C6AE6CFC5}" name="C " dataDxfId="149"/>
+    <tableColumn id="9" xr3:uid="{AB7575FC-6ACF-4FD3-9F43-80E20F90C3AF}" name="A " dataDxfId="148"/>
+    <tableColumn id="10" xr3:uid="{8ED4755D-6A25-4418-A439-92A019730917}" name="B " dataDxfId="147"/>
+    <tableColumn id="11" xr3:uid="{FEBD4A1F-BE30-408E-8325-9BED02E4203C}" name=" C" dataDxfId="146"/>
+    <tableColumn id="12" xr3:uid="{4C3ED8E3-30EE-4143-B5BE-337D479ED371}" name=" A" dataDxfId="145"/>
+    <tableColumn id="13" xr3:uid="{403A0684-F612-41EF-9496-C86634122410}" name=" B" dataDxfId="144"/>
+    <tableColumn id="14" xr3:uid="{991F6355-1E72-4FBD-A2F8-4DEDAF1D54D4}" name=" C " dataDxfId="143"/>
+    <tableColumn id="15" xr3:uid="{9CE23959-7817-4DA9-844C-B1A2C48B9730}" name=" A " dataDxfId="142"/>
+    <tableColumn id="16" xr3:uid="{ACFF0EC9-E7B2-4B1E-9E25-C7E8ED9F314A}" name=" B " dataDxfId="141"/>
+    <tableColumn id="17" xr3:uid="{7AA37D92-EAEC-4C2A-9D3C-B34941230B1D}" name="Comments" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9CB18D8C-E490-404D-A4D1-E77749322C63}" name="tbl_BlueTemp" displayName="tbl_BlueTemp" ref="U45:AK46" totalsRowShown="0" headerRowDxfId="317" dataDxfId="316" tableBorderDxfId="315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9CB18D8C-E490-404D-A4D1-E77749322C63}" name="tbl_BlueTemp" displayName="tbl_BlueTemp" ref="U45:AK46" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138" tableBorderDxfId="137">
   <autoFilter ref="U45:AK46" xr:uid="{9CB18D8C-E490-404D-A4D1-E77749322C63}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7398,30 +7398,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{65C1AE02-EB1C-4A46-AAD6-735B1F1DFEB6}" name="Emp. #" dataDxfId="314"/>
-    <tableColumn id="2" xr3:uid="{EA5BFDDD-E431-4DD6-8B35-57D00B4B5B27}" name="Last Name" dataDxfId="313"/>
-    <tableColumn id="3" xr3:uid="{82CAAE25-6670-4875-B429-A13747B32783}" name="First Name" dataDxfId="312"/>
-    <tableColumn id="4" xr3:uid="{93F9F5B5-A1F8-49A8-8625-62B2A59422FF}" name="Hrs" dataDxfId="311" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{F2E4C4F8-F318-4756-B2C9-7F4ECBDE943E}" name="C" dataDxfId="310"/>
-    <tableColumn id="6" xr3:uid="{A2F072B4-EA9C-4428-AAD7-D3B2177CD957}" name="A" dataDxfId="309"/>
-    <tableColumn id="7" xr3:uid="{9A1A8C1F-126B-42D9-AC5C-0132664E824D}" name="B" dataDxfId="308"/>
-    <tableColumn id="8" xr3:uid="{0F7366C6-8078-4650-91B2-52B5F9D62A2E}" name="C " dataDxfId="307"/>
-    <tableColumn id="9" xr3:uid="{EEFCB1F2-CC8C-4C12-94B7-ADBEC7ABE6E8}" name="A " dataDxfId="306"/>
-    <tableColumn id="10" xr3:uid="{5A993BEC-A6C1-402E-98D5-B2B1735C6B5A}" name="B " dataDxfId="305"/>
-    <tableColumn id="11" xr3:uid="{AB9DE278-C6C2-45BD-85D2-C310FA568A79}" name=" C" dataDxfId="304"/>
-    <tableColumn id="12" xr3:uid="{AEC118C3-1947-4CC0-85C4-9E055D26B8B8}" name=" A" dataDxfId="303"/>
-    <tableColumn id="13" xr3:uid="{CEAE7B1D-0979-4057-905D-1B6A219EF625}" name=" B" dataDxfId="302"/>
-    <tableColumn id="14" xr3:uid="{57A7AC1A-27BF-4504-B3EA-742CD7A13F43}" name=" C " dataDxfId="301"/>
-    <tableColumn id="15" xr3:uid="{B43B1CAB-E957-4961-814B-872870B4B2E0}" name=" A " dataDxfId="300"/>
-    <tableColumn id="16" xr3:uid="{D86F7A13-5CBD-4785-9F0D-3B2AF4A48B0A}" name=" B " dataDxfId="299"/>
-    <tableColumn id="17" xr3:uid="{4DE83067-C07B-4684-9E46-D9119B03170B}" name="Comments" dataDxfId="298"/>
+    <tableColumn id="1" xr3:uid="{65C1AE02-EB1C-4A46-AAD6-735B1F1DFEB6}" name="Emp. #" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{EA5BFDDD-E431-4DD6-8B35-57D00B4B5B27}" name="Last Name" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{82CAAE25-6670-4875-B429-A13747B32783}" name="First Name" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{93F9F5B5-A1F8-49A8-8625-62B2A59422FF}" name="Hrs" dataDxfId="133" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{F2E4C4F8-F318-4756-B2C9-7F4ECBDE943E}" name="C" dataDxfId="132"/>
+    <tableColumn id="6" xr3:uid="{A2F072B4-EA9C-4428-AAD7-D3B2177CD957}" name="A" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{9A1A8C1F-126B-42D9-AC5C-0132664E824D}" name="B" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{0F7366C6-8078-4650-91B2-52B5F9D62A2E}" name="C " dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{EEFCB1F2-CC8C-4C12-94B7-ADBEC7ABE6E8}" name="A " dataDxfId="128"/>
+    <tableColumn id="10" xr3:uid="{5A993BEC-A6C1-402E-98D5-B2B1735C6B5A}" name="B " dataDxfId="127"/>
+    <tableColumn id="11" xr3:uid="{AB9DE278-C6C2-45BD-85D2-C310FA568A79}" name=" C" dataDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{AEC118C3-1947-4CC0-85C4-9E055D26B8B8}" name=" A" dataDxfId="125"/>
+    <tableColumn id="13" xr3:uid="{CEAE7B1D-0979-4057-905D-1B6A219EF625}" name=" B" dataDxfId="124"/>
+    <tableColumn id="14" xr3:uid="{57A7AC1A-27BF-4504-B3EA-742CD7A13F43}" name=" C " dataDxfId="123"/>
+    <tableColumn id="15" xr3:uid="{B43B1CAB-E957-4961-814B-872870B4B2E0}" name=" A " dataDxfId="122"/>
+    <tableColumn id="16" xr3:uid="{D86F7A13-5CBD-4785-9F0D-3B2AF4A48B0A}" name=" B " dataDxfId="121"/>
+    <tableColumn id="17" xr3:uid="{4DE83067-C07B-4684-9E46-D9119B03170B}" name="Comments" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{59B303D6-AE3E-41B9-A2F6-0947E8A84DB4}" name="tbl_BudFT" displayName="tbl_BudFT" ref="B75:R76" totalsRowShown="0" headerRowDxfId="297" dataDxfId="296" tableBorderDxfId="295">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{59B303D6-AE3E-41B9-A2F6-0947E8A84DB4}" name="tbl_BudFT" displayName="tbl_BudFT" ref="B75:R76" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118" tableBorderDxfId="117">
   <autoFilter ref="B75:R76" xr:uid="{59B303D6-AE3E-41B9-A2F6-0947E8A84DB4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7442,30 +7442,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{E1AE13D6-EB4E-41A1-87E6-FBFED0B36A13}" name="Emp. #" dataDxfId="294"/>
-    <tableColumn id="2" xr3:uid="{A8ED62A3-C018-4A32-9643-53CC187C0DC8}" name="Last Name" dataDxfId="293"/>
-    <tableColumn id="3" xr3:uid="{94E2325F-66C3-4AB5-BD18-CF424CCE3D3D}" name="First Name" dataDxfId="292"/>
-    <tableColumn id="4" xr3:uid="{8E4C4CEE-7F8F-4A0D-9842-4F12B9A8D955}" name="Hrs" dataDxfId="291"/>
-    <tableColumn id="5" xr3:uid="{F59D6779-BBA1-470B-9A14-A1A5B3A89AE0}" name="C" dataDxfId="290"/>
-    <tableColumn id="6" xr3:uid="{109F1540-8013-47F0-A3EE-9FDE18304F6E}" name="A" dataDxfId="289"/>
-    <tableColumn id="7" xr3:uid="{E36FF675-9CB2-4479-B032-AAF7342CBA0D}" name="B" dataDxfId="288"/>
-    <tableColumn id="8" xr3:uid="{6CD31AEA-8EA4-43BB-99E3-E4CCC35D7041}" name="C " dataDxfId="287"/>
-    <tableColumn id="9" xr3:uid="{E2D30CE3-67E5-43FA-8B02-9F3815B9FA38}" name="A " dataDxfId="286"/>
-    <tableColumn id="10" xr3:uid="{A8F9910C-7BEF-4444-B026-74385DDA4652}" name="B " dataDxfId="285"/>
-    <tableColumn id="11" xr3:uid="{1B0832DF-497D-4A2C-B81E-2AC25EA81F0E}" name=" C" dataDxfId="284"/>
-    <tableColumn id="12" xr3:uid="{74A5C628-493A-4FF1-8512-8DC313FB4953}" name=" A" dataDxfId="283"/>
-    <tableColumn id="13" xr3:uid="{C939FFA2-B6AC-4CA1-873F-C7925C94A81D}" name=" B" dataDxfId="282"/>
-    <tableColumn id="14" xr3:uid="{BB0F3454-6B8B-4A39-9172-82A23281A0F9}" name=" C " dataDxfId="281"/>
-    <tableColumn id="15" xr3:uid="{2F9D98CE-715E-4FB1-A633-E66E98953F87}" name=" A " dataDxfId="280"/>
-    <tableColumn id="16" xr3:uid="{7EA126CD-9056-4B75-A828-39C1F1044A83}" name=" B " dataDxfId="279"/>
-    <tableColumn id="17" xr3:uid="{CE29F5AE-913C-4795-A79B-758A36A09202}" name="Comments" dataDxfId="278"/>
+    <tableColumn id="1" xr3:uid="{E1AE13D6-EB4E-41A1-87E6-FBFED0B36A13}" name="Emp. #" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{A8ED62A3-C018-4A32-9643-53CC187C0DC8}" name="Last Name" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{94E2325F-66C3-4AB5-BD18-CF424CCE3D3D}" name="First Name" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{8E4C4CEE-7F8F-4A0D-9842-4F12B9A8D955}" name="Hrs" dataDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{F59D6779-BBA1-470B-9A14-A1A5B3A89AE0}" name="C" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{109F1540-8013-47F0-A3EE-9FDE18304F6E}" name="A" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{E36FF675-9CB2-4479-B032-AAF7342CBA0D}" name="B" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{6CD31AEA-8EA4-43BB-99E3-E4CCC35D7041}" name="C " dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{E2D30CE3-67E5-43FA-8B02-9F3815B9FA38}" name="A " dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{A8F9910C-7BEF-4444-B026-74385DDA4652}" name="B " dataDxfId="107"/>
+    <tableColumn id="11" xr3:uid="{1B0832DF-497D-4A2C-B81E-2AC25EA81F0E}" name=" C" dataDxfId="106"/>
+    <tableColumn id="12" xr3:uid="{74A5C628-493A-4FF1-8512-8DC313FB4953}" name=" A" dataDxfId="105"/>
+    <tableColumn id="13" xr3:uid="{C939FFA2-B6AC-4CA1-873F-C7925C94A81D}" name=" B" dataDxfId="104"/>
+    <tableColumn id="14" xr3:uid="{BB0F3454-6B8B-4A39-9172-82A23281A0F9}" name=" C " dataDxfId="103"/>
+    <tableColumn id="15" xr3:uid="{2F9D98CE-715E-4FB1-A633-E66E98953F87}" name=" A " dataDxfId="102"/>
+    <tableColumn id="16" xr3:uid="{7EA126CD-9056-4B75-A828-39C1F1044A83}" name=" B " dataDxfId="101"/>
+    <tableColumn id="17" xr3:uid="{CE29F5AE-913C-4795-A79B-758A36A09202}" name="Comments" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32C4AE23-4C4F-4655-8992-84F9DA73AF67}" name="tbl_BudTemp" displayName="tbl_BudTemp" ref="U74:AK75" totalsRowShown="0" headerRowDxfId="277" dataDxfId="276" tableBorderDxfId="275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32C4AE23-4C4F-4655-8992-84F9DA73AF67}" name="tbl_BudTemp" displayName="tbl_BudTemp" ref="U74:AK75" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
   <autoFilter ref="U74:AK75" xr:uid="{32C4AE23-4C4F-4655-8992-84F9DA73AF67}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7486,30 +7486,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{18CE3911-7762-4053-913D-27A9A42A7783}" name="Emp. #" dataDxfId="274"/>
-    <tableColumn id="2" xr3:uid="{526C0BA9-8430-429B-91AA-609FC668FBAA}" name="Last Name" dataDxfId="273"/>
-    <tableColumn id="3" xr3:uid="{1EE58AE6-9671-4F10-8385-39AE02DF9094}" name="First Name" dataDxfId="272"/>
-    <tableColumn id="4" xr3:uid="{EE29DF75-35CA-4B55-AF8D-AD3FF7EB5B57}" name="Hrs" dataDxfId="271" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{9996A9FC-DF5D-4C94-A50A-D35AF2F28F9A}" name="C" dataDxfId="270"/>
-    <tableColumn id="6" xr3:uid="{918CCBC8-2747-40F8-AF5D-12BD525F5AA1}" name="A" dataDxfId="269"/>
-    <tableColumn id="7" xr3:uid="{7F2E64B3-39F0-4C6A-AD69-9626B6E09814}" name="B" dataDxfId="268"/>
-    <tableColumn id="8" xr3:uid="{75E8265A-8A4F-4096-AD2A-CFC2F07F1FEA}" name="C " dataDxfId="267"/>
-    <tableColumn id="9" xr3:uid="{02F8972F-4F13-4B14-B519-15E57F6A46E5}" name="A " dataDxfId="266"/>
-    <tableColumn id="10" xr3:uid="{B0F119F6-EC49-41D0-8B3F-90E2CD3D8069}" name="B " dataDxfId="265"/>
-    <tableColumn id="11" xr3:uid="{6EB57BD3-11D7-418B-8E00-ECA31ECB6035}" name=" C" dataDxfId="264"/>
-    <tableColumn id="12" xr3:uid="{FA5DAAA6-911C-4678-9CF1-638EC068A4BA}" name=" A" dataDxfId="263"/>
-    <tableColumn id="13" xr3:uid="{90CD333F-12DD-46FE-86B0-89F50380D5F3}" name=" B" dataDxfId="262"/>
-    <tableColumn id="14" xr3:uid="{3B7478FE-3E3D-49E8-BE08-9E57E7137C12}" name=" C " dataDxfId="261"/>
-    <tableColumn id="15" xr3:uid="{070E639A-D940-487F-BABA-D6C3734910E0}" name=" A " dataDxfId="260"/>
-    <tableColumn id="16" xr3:uid="{D6D564CD-5835-4323-BEFC-9760E2F908A3}" name=" B " dataDxfId="259"/>
-    <tableColumn id="17" xr3:uid="{2E73F0FA-B7A3-42BA-B425-E776902905D0}" name="Comments" dataDxfId="258"/>
+    <tableColumn id="1" xr3:uid="{18CE3911-7762-4053-913D-27A9A42A7783}" name="Emp. #" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{526C0BA9-8430-429B-91AA-609FC668FBAA}" name="Last Name" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{1EE58AE6-9671-4F10-8385-39AE02DF9094}" name="First Name" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{EE29DF75-35CA-4B55-AF8D-AD3FF7EB5B57}" name="Hrs" dataDxfId="93" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{9996A9FC-DF5D-4C94-A50A-D35AF2F28F9A}" name="C" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{918CCBC8-2747-40F8-AF5D-12BD525F5AA1}" name="A" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{7F2E64B3-39F0-4C6A-AD69-9626B6E09814}" name="B" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{75E8265A-8A4F-4096-AD2A-CFC2F07F1FEA}" name="C " dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{02F8972F-4F13-4B14-B519-15E57F6A46E5}" name="A " dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{B0F119F6-EC49-41D0-8B3F-90E2CD3D8069}" name="B " dataDxfId="87"/>
+    <tableColumn id="11" xr3:uid="{6EB57BD3-11D7-418B-8E00-ECA31ECB6035}" name=" C" dataDxfId="86"/>
+    <tableColumn id="12" xr3:uid="{FA5DAAA6-911C-4678-9CF1-638EC068A4BA}" name=" A" dataDxfId="85"/>
+    <tableColumn id="13" xr3:uid="{90CD333F-12DD-46FE-86B0-89F50380D5F3}" name=" B" dataDxfId="84"/>
+    <tableColumn id="14" xr3:uid="{3B7478FE-3E3D-49E8-BE08-9E57E7137C12}" name=" C " dataDxfId="83"/>
+    <tableColumn id="15" xr3:uid="{070E639A-D940-487F-BABA-D6C3734910E0}" name=" A " dataDxfId="82"/>
+    <tableColumn id="16" xr3:uid="{D6D564CD-5835-4323-BEFC-9760E2F908A3}" name=" B " dataDxfId="81"/>
+    <tableColumn id="17" xr3:uid="{2E73F0FA-B7A3-42BA-B425-E776902905D0}" name="Comments" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D1D2A73B-AC9E-4888-8707-660F4F9718AC}" name="tbl_GoldFT" displayName="tbl_GoldFT" ref="B114:R115" totalsRowShown="0" headerRowDxfId="257" dataDxfId="256" tableBorderDxfId="255">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D1D2A73B-AC9E-4888-8707-660F4F9718AC}" name="tbl_GoldFT" displayName="tbl_GoldFT" ref="B114:R115" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
   <autoFilter ref="B114:R115" xr:uid="{D1D2A73B-AC9E-4888-8707-660F4F9718AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7530,30 +7530,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{04B484C4-9B89-4F42-A816-1B0F47391B66}" name="Emp. #" dataDxfId="254"/>
-    <tableColumn id="2" xr3:uid="{6FC3C5F4-5912-4068-8F75-9D72B9AD07A9}" name="Last Name" dataDxfId="253"/>
-    <tableColumn id="3" xr3:uid="{651311EF-8B6E-4D6B-AF8E-E7783B6A5FBC}" name="First Name" dataDxfId="252"/>
-    <tableColumn id="4" xr3:uid="{3658BF5F-89D5-4010-B9EA-5678E27A1D8B}" name="Hrs" dataDxfId="251"/>
-    <tableColumn id="5" xr3:uid="{F34B89DE-E944-4B85-9B99-CFF10BC3F4DC}" name="C" dataDxfId="250"/>
-    <tableColumn id="6" xr3:uid="{984B7D34-C272-4121-A1C9-041C56E5041B}" name="A" dataDxfId="249"/>
-    <tableColumn id="7" xr3:uid="{EB1BE861-6F20-43F4-AD8C-97076EE9E7CA}" name="B" dataDxfId="248"/>
-    <tableColumn id="8" xr3:uid="{93CB3C7F-A9CB-4DF9-9236-4FEA67660489}" name="C " dataDxfId="247"/>
-    <tableColumn id="9" xr3:uid="{834491C4-2CB8-4DC5-8FA7-29F9E854B153}" name="A " dataDxfId="246"/>
-    <tableColumn id="10" xr3:uid="{40079ECC-C4D9-472B-A7ED-AAB6B56EA72D}" name="B " dataDxfId="245"/>
-    <tableColumn id="11" xr3:uid="{5CD35213-7DF4-4D12-BB7F-6F5799BB7D83}" name=" C" dataDxfId="244"/>
-    <tableColumn id="12" xr3:uid="{91449070-E5EB-4699-8696-9A3D9A5C1E42}" name=" A" dataDxfId="243"/>
-    <tableColumn id="13" xr3:uid="{F386D2B2-B836-4D19-852E-E770FD6810EA}" name=" B" dataDxfId="242"/>
-    <tableColumn id="14" xr3:uid="{3F61054F-6A44-43A6-AFFE-7069D1B08E62}" name=" C " dataDxfId="241"/>
-    <tableColumn id="15" xr3:uid="{196D398A-113B-445F-93BA-D818B990C7A9}" name=" A " dataDxfId="240"/>
-    <tableColumn id="16" xr3:uid="{A4D8B1A2-3C70-4C18-97E8-6A0AA98BDA1E}" name=" B " dataDxfId="239"/>
-    <tableColumn id="17" xr3:uid="{9BE49CA5-C18E-4998-9230-65543029E381}" name="Comments" dataDxfId="238"/>
+    <tableColumn id="1" xr3:uid="{04B484C4-9B89-4F42-A816-1B0F47391B66}" name="Emp. #" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{6FC3C5F4-5912-4068-8F75-9D72B9AD07A9}" name="Last Name" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{651311EF-8B6E-4D6B-AF8E-E7783B6A5FBC}" name="First Name" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{3658BF5F-89D5-4010-B9EA-5678E27A1D8B}" name="Hrs" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{F34B89DE-E944-4B85-9B99-CFF10BC3F4DC}" name="C" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{984B7D34-C272-4121-A1C9-041C56E5041B}" name="A" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{EB1BE861-6F20-43F4-AD8C-97076EE9E7CA}" name="B" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{93CB3C7F-A9CB-4DF9-9236-4FEA67660489}" name="C " dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{834491C4-2CB8-4DC5-8FA7-29F9E854B153}" name="A " dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{40079ECC-C4D9-472B-A7ED-AAB6B56EA72D}" name="B " dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{5CD35213-7DF4-4D12-BB7F-6F5799BB7D83}" name=" C" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{91449070-E5EB-4699-8696-9A3D9A5C1E42}" name=" A" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{F386D2B2-B836-4D19-852E-E770FD6810EA}" name=" B" dataDxfId="64"/>
+    <tableColumn id="14" xr3:uid="{3F61054F-6A44-43A6-AFFE-7069D1B08E62}" name=" C " dataDxfId="63"/>
+    <tableColumn id="15" xr3:uid="{196D398A-113B-445F-93BA-D818B990C7A9}" name=" A " dataDxfId="62"/>
+    <tableColumn id="16" xr3:uid="{A4D8B1A2-3C70-4C18-97E8-6A0AA98BDA1E}" name=" B " dataDxfId="61"/>
+    <tableColumn id="17" xr3:uid="{9BE49CA5-C18E-4998-9230-65543029E381}" name="Comments" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BE980C15-2457-4E76-BD2B-218EA5A9E9E9}" name="tbl_GoldTemp" displayName="tbl_GoldTemp" ref="U113:AK114" totalsRowShown="0" headerRowDxfId="237" dataDxfId="236" tableBorderDxfId="235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BE980C15-2457-4E76-BD2B-218EA5A9E9E9}" name="tbl_GoldTemp" displayName="tbl_GoldTemp" ref="U113:AK114" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="U113:AK114" xr:uid="{BE980C15-2457-4E76-BD2B-218EA5A9E9E9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7574,30 +7574,30 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{6FE31383-893B-4AAD-9D82-9F8634D1FE27}" name="Emp. #" dataDxfId="234"/>
-    <tableColumn id="2" xr3:uid="{478B4261-9E71-41C7-A689-2C89499806AE}" name="Last Name" dataDxfId="233"/>
-    <tableColumn id="3" xr3:uid="{58979DA3-B531-49D6-BFBF-D0798CDE15D9}" name="First Name" dataDxfId="232"/>
-    <tableColumn id="4" xr3:uid="{EEE733CA-758B-4686-ACA6-F401654082FD}" name="Hrs" dataDxfId="231" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{3D2A1E08-CD3B-43FE-B56A-1AE380C67B07}" name="C" dataDxfId="230"/>
-    <tableColumn id="6" xr3:uid="{C34D17D3-A6D2-4956-9068-DDC5D6354477}" name="A" dataDxfId="229"/>
-    <tableColumn id="7" xr3:uid="{3536811B-A76B-431C-9721-8D9C9E863581}" name="B" dataDxfId="228"/>
-    <tableColumn id="8" xr3:uid="{D65B5F9D-4A6B-456B-927D-154AF3909921}" name="C " dataDxfId="227"/>
-    <tableColumn id="9" xr3:uid="{C57D1184-63D5-408E-AFE2-6E720D3E3010}" name="A " dataDxfId="226"/>
-    <tableColumn id="10" xr3:uid="{79174852-1C97-487E-8B22-C00748FAF616}" name="B " dataDxfId="225"/>
-    <tableColumn id="11" xr3:uid="{3E2287AE-A0FE-469A-B6C0-A4809285FAD8}" name=" C" dataDxfId="224"/>
-    <tableColumn id="12" xr3:uid="{9ECC1D39-AD82-4E13-9600-88C41BDEE387}" name=" A" dataDxfId="223"/>
-    <tableColumn id="13" xr3:uid="{0D4BA03F-C693-4DB4-8B14-D49D29D1D749}" name=" B" dataDxfId="222"/>
-    <tableColumn id="14" xr3:uid="{E05C1962-5885-4B17-87DC-F8A78C0A73F1}" name=" C " dataDxfId="221"/>
-    <tableColumn id="15" xr3:uid="{5EF4AB6E-98A1-4B25-87A0-00C8F50502C2}" name=" A " dataDxfId="220"/>
-    <tableColumn id="16" xr3:uid="{E340C56E-75FE-4CB8-AAFF-E3F050602023}" name=" B " dataDxfId="219"/>
-    <tableColumn id="17" xr3:uid="{983A719F-4F57-45D8-AE0F-A827E93CD468}" name="Comments" dataDxfId="218"/>
+    <tableColumn id="1" xr3:uid="{6FE31383-893B-4AAD-9D82-9F8634D1FE27}" name="Emp. #" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{478B4261-9E71-41C7-A689-2C89499806AE}" name="Last Name" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{58979DA3-B531-49D6-BFBF-D0798CDE15D9}" name="First Name" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{EEE733CA-758B-4686-ACA6-F401654082FD}" name="Hrs" dataDxfId="53" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{3D2A1E08-CD3B-43FE-B56A-1AE380C67B07}" name="C" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{C34D17D3-A6D2-4956-9068-DDC5D6354477}" name="A" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{3536811B-A76B-431C-9721-8D9C9E863581}" name="B" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{D65B5F9D-4A6B-456B-927D-154AF3909921}" name="C " dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{C57D1184-63D5-408E-AFE2-6E720D3E3010}" name="A " dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{79174852-1C97-487E-8B22-C00748FAF616}" name="B " dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{3E2287AE-A0FE-469A-B6C0-A4809285FAD8}" name=" C" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{9ECC1D39-AD82-4E13-9600-88C41BDEE387}" name=" A" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{0D4BA03F-C693-4DB4-8B14-D49D29D1D749}" name=" B" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{E05C1962-5885-4B17-87DC-F8A78C0A73F1}" name=" C " dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{5EF4AB6E-98A1-4B25-87A0-00C8F50502C2}" name=" A " dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{E340C56E-75FE-4CB8-AAFF-E3F050602023}" name=" B " dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{983A719F-4F57-45D8-AE0F-A827E93CD468}" name="Comments" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E7B20655-1679-4A7C-8906-7744AEB58AE5}" name="tbl_SilverFT" displayName="tbl_SilverFT" ref="B144:R145" totalsRowShown="0" headerRowDxfId="217" dataDxfId="216" tableBorderDxfId="215">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E7B20655-1679-4A7C-8906-7744AEB58AE5}" name="tbl_SilverFT" displayName="tbl_SilverFT" ref="B144:R145" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="B144:R145" xr:uid="{E7B20655-1679-4A7C-8906-7744AEB58AE5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7618,23 +7618,23 @@
     <filterColumn colId="16" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{D275571E-68F8-445D-8E5C-C885E0C0289C}" name="Emp. #" dataDxfId="214"/>
-    <tableColumn id="2" xr3:uid="{9A87F7D2-DDCF-4D00-8321-A8D2925F7E6C}" name="Last Name" dataDxfId="213"/>
-    <tableColumn id="3" xr3:uid="{E3638185-2096-4017-8273-5793B13E17B4}" name="First Name" dataDxfId="212"/>
-    <tableColumn id="4" xr3:uid="{58FB22C1-3DE7-4F8D-832B-2B0834199F66}" name="Hrs" dataDxfId="211"/>
-    <tableColumn id="5" xr3:uid="{995E07BE-C52B-4A42-B84B-DFC251DC150C}" name="C" dataDxfId="210"/>
-    <tableColumn id="6" xr3:uid="{64F34067-ED33-4FD1-A094-B028D8ABFDD2}" name="A" dataDxfId="209"/>
-    <tableColumn id="7" xr3:uid="{150E4B02-0B0C-4016-8CD8-EDB1425C7523}" name="B" dataDxfId="208"/>
-    <tableColumn id="8" xr3:uid="{56879F06-15C8-4222-AF93-59D13295F553}" name="C " dataDxfId="207"/>
-    <tableColumn id="9" xr3:uid="{A197DB5B-E6A3-4E5C-8C35-63433F6A9564}" name="A " dataDxfId="206"/>
-    <tableColumn id="10" xr3:uid="{5D459AB1-B4B6-4C9C-A709-A85FDFFB2837}" name="B " dataDxfId="205"/>
-    <tableColumn id="11" xr3:uid="{FC4FA6D1-847F-44EB-A184-3DE7F4CBA717}" name=" C" dataDxfId="204"/>
-    <tableColumn id="12" xr3:uid="{C81BECF6-364A-4611-92A7-3352ECD8D669}" name=" A" dataDxfId="203"/>
-    <tableColumn id="13" xr3:uid="{B97290DF-434E-44B9-ACF0-9D7CB8CCBDE6}" name=" B" dataDxfId="202"/>
-    <tableColumn id="14" xr3:uid="{60CA4B05-7D20-4C35-9169-6DF6199B5000}" name=" C " dataDxfId="201"/>
-    <tableColumn id="15" xr3:uid="{9ED96DB4-4EBC-4895-941C-244A6F8E96AB}" name=" A " dataDxfId="200"/>
-    <tableColumn id="16" xr3:uid="{9A7F5F75-C821-47B6-B201-681410308ECE}" name=" B " dataDxfId="199"/>
-    <tableColumn id="17" xr3:uid="{29E6BCF1-A58F-4DD3-855D-60E815564B5C}" name="Comments" dataDxfId="198"/>
+    <tableColumn id="1" xr3:uid="{D275571E-68F8-445D-8E5C-C885E0C0289C}" name="Emp. #" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{9A87F7D2-DDCF-4D00-8321-A8D2925F7E6C}" name="Last Name" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{E3638185-2096-4017-8273-5793B13E17B4}" name="First Name" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{58FB22C1-3DE7-4F8D-832B-2B0834199F66}" name="Hrs" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{995E07BE-C52B-4A42-B84B-DFC251DC150C}" name="C" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{64F34067-ED33-4FD1-A094-B028D8ABFDD2}" name="A" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{150E4B02-0B0C-4016-8CD8-EDB1425C7523}" name="B" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{56879F06-15C8-4222-AF93-59D13295F553}" name="C " dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{A197DB5B-E6A3-4E5C-8C35-63433F6A9564}" name="A " dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{5D459AB1-B4B6-4C9C-A709-A85FDFFB2837}" name="B " dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{FC4FA6D1-847F-44EB-A184-3DE7F4CBA717}" name=" C" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{C81BECF6-364A-4611-92A7-3352ECD8D669}" name=" A" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{B97290DF-434E-44B9-ACF0-9D7CB8CCBDE6}" name=" B" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{60CA4B05-7D20-4C35-9169-6DF6199B5000}" name=" C " dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{9ED96DB4-4EBC-4895-941C-244A6F8E96AB}" name=" A " dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{9A7F5F75-C821-47B6-B201-681410308ECE}" name=" B " dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{29E6BCF1-A58F-4DD3-855D-60E815564B5C}" name="Comments" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7907,7 +7907,7 @@
   <dimension ref="A1:BH167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7940,12 +7940,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
@@ -8003,28 +8003,28 @@
       <c r="BG1" s="16"/>
     </row>
     <row r="2" spans="1:59" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="81" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="82" t="s">
         <v>19</v>
       </c>
@@ -8037,21 +8037,21 @@
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
-      <c r="Y2" s="79" t="s">
+      <c r="Y2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="80" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81" t="s">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
       <c r="AH2" s="82" t="s">
         <v>19</v>
       </c>
@@ -8089,26 +8089,26 @@
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="83" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="83" t="s">
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="85"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="81"/>
       <c r="R3" s="35"/>
       <c r="S3" s="36"/>
       <c r="T3" s="92" t="s">
@@ -8118,26 +8118,26 @@
       <c r="V3" s="92"/>
       <c r="W3" s="92"/>
       <c r="X3" s="23"/>
-      <c r="Y3" s="83" t="s">
+      <c r="Y3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="83" t="s">
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="83" t="s">
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="83" t="s">
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="85"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="81"/>
       <c r="AK3" s="35"/>
     </row>
     <row r="4" spans="1:59" s="16" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8252,7 +8252,7 @@
       </c>
     </row>
     <row r="5" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="86" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="52"/>
@@ -8273,7 +8273,7 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="70"/>
       <c r="S5" s="10"/>
-      <c r="T5" s="99" t="s">
+      <c r="T5" s="86" t="s">
         <v>2</v>
       </c>
       <c r="U5" s="52"/>
@@ -8295,7 +8295,7 @@
       <c r="AK5" s="72"/>
     </row>
     <row r="6" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -8314,7 +8314,7 @@
       <c r="Q6" s="28"/>
       <c r="R6" s="65"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="100"/>
+      <c r="T6" s="87"/>
       <c r="U6" s="43"/>
       <c r="V6" s="43"/>
       <c r="W6" s="44"/>
@@ -8334,7 +8334,7 @@
       <c r="AK6" s="65"/>
     </row>
     <row r="7" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -8353,7 +8353,7 @@
       <c r="Q7" s="28"/>
       <c r="R7" s="30"/>
       <c r="S7" s="38"/>
-      <c r="T7" s="100"/>
+      <c r="T7" s="87"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
       <c r="W7" s="44"/>
@@ -8373,7 +8373,7 @@
       <c r="AK7" s="30"/>
     </row>
     <row r="8" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -8392,7 +8392,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="65"/>
       <c r="S8" s="38"/>
-      <c r="T8" s="100"/>
+      <c r="T8" s="87"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
       <c r="W8" s="44"/>
@@ -8412,7 +8412,7 @@
       <c r="AK8" s="65"/>
     </row>
     <row r="9" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
@@ -8431,7 +8431,7 @@
       <c r="Q9" s="28"/>
       <c r="R9" s="30"/>
       <c r="S9" s="38"/>
-      <c r="T9" s="100"/>
+      <c r="T9" s="87"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
       <c r="W9" s="44"/>
@@ -8451,7 +8451,7 @@
       <c r="AK9" s="30"/>
     </row>
     <row r="10" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -8470,7 +8470,7 @@
       <c r="Q10" s="28"/>
       <c r="R10" s="30"/>
       <c r="S10" s="38"/>
-      <c r="T10" s="100"/>
+      <c r="T10" s="87"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
       <c r="W10" s="44"/>
@@ -8490,7 +8490,7 @@
       <c r="AK10" s="30"/>
     </row>
     <row r="11" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="47"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
@@ -8509,7 +8509,7 @@
       <c r="Q11" s="28"/>
       <c r="R11" s="30"/>
       <c r="S11" s="38"/>
-      <c r="T11" s="100"/>
+      <c r="T11" s="87"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
       <c r="W11" s="44"/>
@@ -8529,7 +8529,7 @@
       <c r="AK11" s="30"/>
     </row>
     <row r="12" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="46"/>
       <c r="C12" s="43"/>
       <c r="D12" s="44"/>
@@ -8548,7 +8548,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="30"/>
       <c r="S12" s="38"/>
-      <c r="T12" s="100"/>
+      <c r="T12" s="87"/>
       <c r="U12" s="46"/>
       <c r="V12" s="43"/>
       <c r="W12" s="44"/>
@@ -8568,7 +8568,7 @@
       <c r="AK12" s="30"/>
     </row>
     <row r="13" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8587,7 +8587,7 @@
       <c r="Q13" s="28"/>
       <c r="R13" s="30"/>
       <c r="S13" s="38"/>
-      <c r="T13" s="100"/>
+      <c r="T13" s="87"/>
       <c r="U13" s="53"/>
       <c r="V13" s="51"/>
       <c r="W13" s="51"/>
@@ -8607,7 +8607,7 @@
       <c r="AK13" s="30"/>
     </row>
     <row r="14" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="44"/>
@@ -8626,7 +8626,7 @@
       <c r="Q14" s="28"/>
       <c r="R14" s="30"/>
       <c r="S14" s="38"/>
-      <c r="T14" s="100"/>
+      <c r="T14" s="87"/>
       <c r="U14" s="53"/>
       <c r="V14" s="51"/>
       <c r="W14" s="51"/>
@@ -8646,7 +8646,7 @@
       <c r="AK14" s="30"/>
     </row>
     <row r="15" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="100"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="47"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -8665,7 +8665,7 @@
       <c r="Q15" s="28"/>
       <c r="R15" s="30"/>
       <c r="S15" s="38"/>
-      <c r="T15" s="100"/>
+      <c r="T15" s="87"/>
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
       <c r="W15" s="44"/>
@@ -8685,7 +8685,7 @@
       <c r="AK15" s="30"/>
     </row>
     <row r="16" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -8704,7 +8704,7 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="30"/>
       <c r="S16" s="38"/>
-      <c r="T16" s="100"/>
+      <c r="T16" s="87"/>
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
       <c r="W16" s="44"/>
@@ -8724,7 +8724,7 @@
       <c r="AK16" s="30"/>
     </row>
     <row r="17" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="53"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -8743,7 +8743,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="30"/>
       <c r="S17" s="38"/>
-      <c r="T17" s="100"/>
+      <c r="T17" s="87"/>
       <c r="U17" s="53"/>
       <c r="V17" s="51"/>
       <c r="W17" s="51"/>
@@ -8763,7 +8763,7 @@
       <c r="AK17" s="30"/>
     </row>
     <row r="18" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="53"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
@@ -8782,7 +8782,7 @@
       <c r="Q18" s="28"/>
       <c r="R18" s="30"/>
       <c r="S18" s="38"/>
-      <c r="T18" s="100"/>
+      <c r="T18" s="87"/>
       <c r="U18" s="54"/>
       <c r="V18" s="43"/>
       <c r="W18" s="44"/>
@@ -8802,7 +8802,7 @@
       <c r="AK18" s="30"/>
     </row>
     <row r="19" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -8821,7 +8821,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="30"/>
       <c r="S19" s="38"/>
-      <c r="T19" s="100"/>
+      <c r="T19" s="87"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="44"/>
@@ -8841,7 +8841,7 @@
       <c r="AK19" s="30"/>
     </row>
     <row r="20" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="54"/>
       <c r="C20" s="43"/>
       <c r="D20" s="44"/>
@@ -8860,7 +8860,7 @@
       <c r="Q20" s="28"/>
       <c r="R20" s="30"/>
       <c r="S20" s="38"/>
-      <c r="T20" s="100"/>
+      <c r="T20" s="87"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="44"/>
@@ -8880,7 +8880,7 @@
       <c r="AK20" s="30"/>
     </row>
     <row r="21" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="44"/>
@@ -8899,7 +8899,7 @@
       <c r="Q21" s="28"/>
       <c r="R21" s="30"/>
       <c r="S21" s="38"/>
-      <c r="T21" s="100"/>
+      <c r="T21" s="87"/>
       <c r="U21" s="54"/>
       <c r="V21" s="43"/>
       <c r="W21" s="44"/>
@@ -8919,7 +8919,7 @@
       <c r="AK21" s="30"/>
     </row>
     <row r="22" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
@@ -8938,7 +8938,7 @@
       <c r="Q22" s="28"/>
       <c r="R22" s="30"/>
       <c r="S22" s="38"/>
-      <c r="T22" s="100"/>
+      <c r="T22" s="87"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
       <c r="W22" s="44"/>
@@ -8958,7 +8958,7 @@
       <c r="AK22" s="30"/>
     </row>
     <row r="23" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="54"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
@@ -8977,7 +8977,7 @@
       <c r="Q23" s="28"/>
       <c r="R23" s="30"/>
       <c r="S23" s="38"/>
-      <c r="T23" s="100"/>
+      <c r="T23" s="87"/>
       <c r="U23" s="31"/>
       <c r="V23" s="1"/>
       <c r="W23" s="2"/>
@@ -8997,7 +8997,7 @@
       <c r="AK23" s="30"/>
     </row>
     <row r="24" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="100"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -9016,7 +9016,7 @@
       <c r="Q24" s="28"/>
       <c r="R24" s="30"/>
       <c r="S24" s="38"/>
-      <c r="T24" s="100"/>
+      <c r="T24" s="87"/>
       <c r="U24" s="31"/>
       <c r="V24" s="1"/>
       <c r="W24" s="2"/>
@@ -9036,7 +9036,7 @@
       <c r="AK24" s="30"/>
     </row>
     <row r="25" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="100"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
@@ -9055,7 +9055,7 @@
       <c r="Q25" s="28"/>
       <c r="R25" s="30"/>
       <c r="S25" s="38"/>
-      <c r="T25" s="100"/>
+      <c r="T25" s="87"/>
       <c r="U25" s="31"/>
       <c r="V25" s="1"/>
       <c r="W25" s="2"/>
@@ -9075,7 +9075,7 @@
       <c r="AK25" s="30"/>
     </row>
     <row r="26" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="100"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -9094,7 +9094,7 @@
       <c r="Q26" s="28"/>
       <c r="R26" s="30"/>
       <c r="S26" s="38"/>
-      <c r="T26" s="100"/>
+      <c r="T26" s="87"/>
       <c r="U26" s="31"/>
       <c r="V26" s="1"/>
       <c r="W26" s="2"/>
@@ -9114,7 +9114,7 @@
       <c r="AK26" s="30"/>
     </row>
     <row r="27" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="100"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -9133,7 +9133,7 @@
       <c r="Q27" s="28"/>
       <c r="R27" s="30"/>
       <c r="S27" s="38"/>
-      <c r="T27" s="100"/>
+      <c r="T27" s="87"/>
       <c r="U27" s="31"/>
       <c r="V27" s="1"/>
       <c r="W27" s="2"/>
@@ -9153,7 +9153,7 @@
       <c r="AK27" s="30"/>
     </row>
     <row r="28" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -9172,7 +9172,7 @@
       <c r="Q28" s="28"/>
       <c r="R28" s="30"/>
       <c r="S28" s="38"/>
-      <c r="T28" s="100"/>
+      <c r="T28" s="87"/>
       <c r="U28" s="31"/>
       <c r="V28" s="1"/>
       <c r="W28" s="2"/>
@@ -9192,7 +9192,7 @@
       <c r="AK28" s="30"/>
     </row>
     <row r="29" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="100"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -9211,7 +9211,7 @@
       <c r="Q29" s="28"/>
       <c r="R29" s="30"/>
       <c r="S29" s="38"/>
-      <c r="T29" s="100"/>
+      <c r="T29" s="87"/>
       <c r="U29" s="31"/>
       <c r="V29" s="1"/>
       <c r="W29" s="2"/>
@@ -9231,7 +9231,7 @@
       <c r="AK29" s="30"/>
     </row>
     <row r="30" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -9250,7 +9250,7 @@
       <c r="Q30" s="28"/>
       <c r="R30" s="30"/>
       <c r="S30" s="38"/>
-      <c r="T30" s="100"/>
+      <c r="T30" s="87"/>
       <c r="U30" s="31"/>
       <c r="V30" s="1"/>
       <c r="W30" s="2"/>
@@ -9270,7 +9270,7 @@
       <c r="AK30" s="30"/>
     </row>
     <row r="31" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -9289,7 +9289,7 @@
       <c r="Q31" s="28"/>
       <c r="R31" s="30"/>
       <c r="S31" s="38"/>
-      <c r="T31" s="100"/>
+      <c r="T31" s="87"/>
       <c r="U31" s="31"/>
       <c r="V31" s="1"/>
       <c r="W31" s="2"/>
@@ -9309,7 +9309,7 @@
       <c r="AK31" s="30"/>
     </row>
     <row r="32" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -9328,7 +9328,7 @@
       <c r="Q32" s="28"/>
       <c r="R32" s="30"/>
       <c r="S32" s="38"/>
-      <c r="T32" s="100"/>
+      <c r="T32" s="87"/>
       <c r="U32" s="31"/>
       <c r="V32" s="1"/>
       <c r="W32" s="2"/>
@@ -9348,7 +9348,7 @@
       <c r="AK32" s="30"/>
     </row>
     <row r="33" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="100"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -9367,7 +9367,7 @@
       <c r="Q33" s="28"/>
       <c r="R33" s="30"/>
       <c r="S33" s="38"/>
-      <c r="T33" s="100"/>
+      <c r="T33" s="87"/>
       <c r="U33" s="31"/>
       <c r="V33" s="1"/>
       <c r="W33" s="2"/>
@@ -9387,7 +9387,7 @@
       <c r="AK33" s="30"/>
     </row>
     <row r="34" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -9406,7 +9406,7 @@
       <c r="Q34" s="28"/>
       <c r="R34" s="30"/>
       <c r="S34" s="38"/>
-      <c r="T34" s="100"/>
+      <c r="T34" s="87"/>
       <c r="U34" s="31"/>
       <c r="V34" s="1"/>
       <c r="W34" s="2"/>
@@ -9426,7 +9426,7 @@
       <c r="AK34" s="30"/>
     </row>
     <row r="35" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="100"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -9445,7 +9445,7 @@
       <c r="Q35" s="28"/>
       <c r="R35" s="30"/>
       <c r="S35" s="38"/>
-      <c r="T35" s="100"/>
+      <c r="T35" s="87"/>
       <c r="U35" s="31"/>
       <c r="V35" s="1"/>
       <c r="W35" s="2"/>
@@ -9465,7 +9465,7 @@
       <c r="AK35" s="30"/>
     </row>
     <row r="36" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -9484,7 +9484,7 @@
       <c r="Q36" s="28"/>
       <c r="R36" s="30"/>
       <c r="S36" s="38"/>
-      <c r="T36" s="100"/>
+      <c r="T36" s="87"/>
       <c r="U36" s="31"/>
       <c r="V36" s="1"/>
       <c r="W36" s="2"/>
@@ -9504,7 +9504,7 @@
       <c r="AK36" s="30"/>
     </row>
     <row r="37" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
@@ -9523,7 +9523,7 @@
       <c r="Q37" s="28"/>
       <c r="R37" s="30"/>
       <c r="S37" s="38"/>
-      <c r="T37" s="100"/>
+      <c r="T37" s="87"/>
       <c r="U37" s="31"/>
       <c r="V37" s="1"/>
       <c r="W37" s="2"/>
@@ -9543,7 +9543,7 @@
       <c r="AK37" s="30"/>
     </row>
     <row r="38" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="100"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="53"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
@@ -9562,7 +9562,7 @@
       <c r="Q38" s="28"/>
       <c r="R38" s="30"/>
       <c r="S38" s="38"/>
-      <c r="T38" s="100"/>
+      <c r="T38" s="87"/>
       <c r="U38" s="31"/>
       <c r="V38" s="1"/>
       <c r="W38" s="2"/>
@@ -9582,7 +9582,7 @@
       <c r="AK38" s="30"/>
     </row>
     <row r="39" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="100"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="53"/>
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
@@ -9601,7 +9601,7 @@
       <c r="Q39" s="28"/>
       <c r="R39" s="30"/>
       <c r="S39" s="38"/>
-      <c r="T39" s="100"/>
+      <c r="T39" s="87"/>
       <c r="U39" s="31"/>
       <c r="V39" s="1"/>
       <c r="W39" s="2"/>
@@ -9621,7 +9621,7 @@
       <c r="AK39" s="30"/>
     </row>
     <row r="40" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="54"/>
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
@@ -9640,7 +9640,7 @@
       <c r="Q40" s="28"/>
       <c r="R40" s="30"/>
       <c r="S40" s="38"/>
-      <c r="T40" s="100"/>
+      <c r="T40" s="87"/>
       <c r="U40" s="31"/>
       <c r="V40" s="1"/>
       <c r="W40" s="2"/>
@@ -9660,7 +9660,7 @@
       <c r="AK40" s="30"/>
     </row>
     <row r="41" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="101"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -9679,7 +9679,7 @@
       <c r="Q41" s="28"/>
       <c r="R41" s="30"/>
       <c r="S41" s="39"/>
-      <c r="T41" s="101"/>
+      <c r="T41" s="88"/>
       <c r="U41" s="31"/>
       <c r="V41" s="1"/>
       <c r="W41" s="2"/>
@@ -9725,21 +9725,21 @@
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="80" t="s">
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="81" t="s">
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
       <c r="O43" s="82" t="s">
         <v>19</v>
       </c>
@@ -9752,21 +9752,21 @@
       <c r="V43" s="22"/>
       <c r="W43" s="22"/>
       <c r="X43" s="22"/>
-      <c r="Y43" s="79" t="s">
+      <c r="Y43" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Z43" s="79"/>
-      <c r="AA43" s="79"/>
-      <c r="AB43" s="80" t="s">
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AC43" s="80"/>
-      <c r="AD43" s="80"/>
-      <c r="AE43" s="81" t="s">
+      <c r="AC43" s="84"/>
+      <c r="AD43" s="84"/>
+      <c r="AE43" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AF43" s="81"/>
-      <c r="AG43" s="81"/>
+      <c r="AF43" s="85"/>
+      <c r="AG43" s="85"/>
       <c r="AH43" s="82" t="s">
         <v>19</v>
       </c>
@@ -9798,49 +9798,49 @@
       <c r="BH43" s="16"/>
     </row>
     <row r="44" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F44" s="83" t="s">
+      <c r="F44" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="84"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="83" t="s">
+      <c r="G44" s="80"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="84"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="83" t="s">
+      <c r="J44" s="80"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="84"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="83" t="s">
+      <c r="M44" s="80"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="85"/>
+      <c r="P44" s="80"/>
+      <c r="Q44" s="81"/>
       <c r="R44" s="35"/>
       <c r="S44" s="36"/>
       <c r="U44" s="18"/>
-      <c r="Y44" s="83" t="s">
+      <c r="Y44" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Z44" s="84"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="83" t="s">
+      <c r="Z44" s="80"/>
+      <c r="AA44" s="81"/>
+      <c r="AB44" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AC44" s="84"/>
-      <c r="AD44" s="85"/>
-      <c r="AE44" s="83" t="s">
+      <c r="AC44" s="80"/>
+      <c r="AD44" s="81"/>
+      <c r="AE44" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AF44" s="84"/>
-      <c r="AG44" s="85"/>
-      <c r="AH44" s="83" t="s">
+      <c r="AF44" s="80"/>
+      <c r="AG44" s="81"/>
+      <c r="AH44" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AI44" s="84"/>
-      <c r="AJ44" s="85"/>
+      <c r="AI44" s="80"/>
+      <c r="AJ44" s="81"/>
       <c r="AK44" s="35"/>
     </row>
     <row r="45" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9955,7 +9955,7 @@
       </c>
     </row>
     <row r="46" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="89" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="46">
@@ -9989,14 +9989,14 @@
         <v>36</v>
       </c>
       <c r="N46" s="56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O46" s="56"/>
       <c r="P46" s="56"/>
       <c r="Q46" s="56"/>
       <c r="R46" s="73"/>
       <c r="S46" s="11"/>
-      <c r="T46" s="95" t="s">
+      <c r="T46" s="97" t="s">
         <v>4</v>
       </c>
       <c r="U46" s="74"/>
@@ -10018,7 +10018,7 @@
       <c r="AK46" s="73"/>
     </row>
     <row r="47" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="103"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
       <c r="D47" s="44"/>
@@ -10037,7 +10037,7 @@
       <c r="Q47" s="28"/>
       <c r="R47" s="30"/>
       <c r="S47" s="40"/>
-      <c r="T47" s="96"/>
+      <c r="T47" s="98"/>
       <c r="U47" s="43"/>
       <c r="V47" s="43"/>
       <c r="W47" s="44"/>
@@ -10057,7 +10057,7 @@
       <c r="AK47" s="30"/>
     </row>
     <row r="48" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="103"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
       <c r="D48" s="44"/>
@@ -10076,7 +10076,7 @@
       <c r="Q48" s="28"/>
       <c r="R48" s="30"/>
       <c r="S48" s="40"/>
-      <c r="T48" s="96"/>
+      <c r="T48" s="98"/>
       <c r="U48" s="43"/>
       <c r="V48" s="43"/>
       <c r="W48" s="44"/>
@@ -10096,7 +10096,7 @@
       <c r="AK48" s="30"/>
     </row>
     <row r="49" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="103"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
       <c r="D49" s="44"/>
@@ -10115,7 +10115,7 @@
       <c r="Q49" s="28"/>
       <c r="R49" s="30"/>
       <c r="S49" s="40"/>
-      <c r="T49" s="96"/>
+      <c r="T49" s="98"/>
       <c r="U49" s="54"/>
       <c r="V49" s="43"/>
       <c r="W49" s="44"/>
@@ -10135,7 +10135,7 @@
       <c r="AK49" s="30"/>
     </row>
     <row r="50" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="103"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="53"/>
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
@@ -10154,7 +10154,7 @@
       <c r="Q50" s="28"/>
       <c r="R50" s="30"/>
       <c r="S50" s="40"/>
-      <c r="T50" s="96"/>
+      <c r="T50" s="98"/>
       <c r="U50" s="53"/>
       <c r="V50" s="51"/>
       <c r="W50" s="51"/>
@@ -10174,7 +10174,7 @@
       <c r="AK50" s="30"/>
     </row>
     <row r="51" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="103"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="46"/>
       <c r="C51" s="43"/>
       <c r="D51" s="44"/>
@@ -10193,7 +10193,7 @@
       <c r="Q51" s="28"/>
       <c r="R51" s="30"/>
       <c r="S51" s="40"/>
-      <c r="T51" s="96"/>
+      <c r="T51" s="98"/>
       <c r="U51" s="53"/>
       <c r="V51" s="51"/>
       <c r="W51" s="51"/>
@@ -10213,7 +10213,7 @@
       <c r="AK51" s="30"/>
     </row>
     <row r="52" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="103"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -10232,7 +10232,7 @@
       <c r="Q52" s="28"/>
       <c r="R52" s="30"/>
       <c r="S52" s="40"/>
-      <c r="T52" s="96"/>
+      <c r="T52" s="98"/>
       <c r="U52" s="46"/>
       <c r="V52" s="46"/>
       <c r="W52" s="46"/>
@@ -10252,7 +10252,7 @@
       <c r="AK52" s="30"/>
     </row>
     <row r="53" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
       <c r="D53" s="43"/>
@@ -10271,7 +10271,7 @@
       <c r="Q53" s="28"/>
       <c r="R53" s="30"/>
       <c r="S53" s="40"/>
-      <c r="T53" s="96"/>
+      <c r="T53" s="98"/>
       <c r="U53" s="43"/>
       <c r="V53" s="43"/>
       <c r="W53" s="44"/>
@@ -10291,7 +10291,7 @@
       <c r="AK53" s="30"/>
     </row>
     <row r="54" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="103"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="54"/>
       <c r="C54" s="43"/>
       <c r="D54" s="44"/>
@@ -10310,7 +10310,7 @@
       <c r="Q54" s="28"/>
       <c r="R54" s="30"/>
       <c r="S54" s="40"/>
-      <c r="T54" s="96"/>
+      <c r="T54" s="98"/>
       <c r="U54" s="43"/>
       <c r="V54" s="43"/>
       <c r="W54" s="44"/>
@@ -10330,7 +10330,7 @@
       <c r="AK54" s="30"/>
     </row>
     <row r="55" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="103"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
       <c r="D55" s="44"/>
@@ -10349,7 +10349,7 @@
       <c r="Q55" s="28"/>
       <c r="R55" s="30"/>
       <c r="S55" s="40"/>
-      <c r="T55" s="96"/>
+      <c r="T55" s="98"/>
       <c r="U55" s="54"/>
       <c r="V55" s="43"/>
       <c r="W55" s="44"/>
@@ -10369,7 +10369,7 @@
       <c r="AK55" s="30"/>
     </row>
     <row r="56" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="103"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="46"/>
       <c r="C56" s="43"/>
       <c r="D56" s="44"/>
@@ -10388,7 +10388,7 @@
       <c r="Q56" s="28"/>
       <c r="R56" s="30"/>
       <c r="S56" s="40"/>
-      <c r="T56" s="96"/>
+      <c r="T56" s="98"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="2"/>
@@ -10408,7 +10408,7 @@
       <c r="AK56" s="30"/>
     </row>
     <row r="57" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="103"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -10427,7 +10427,7 @@
       <c r="Q57" s="28"/>
       <c r="R57" s="30"/>
       <c r="S57" s="40"/>
-      <c r="T57" s="96"/>
+      <c r="T57" s="98"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="2"/>
@@ -10447,7 +10447,7 @@
       <c r="AK57" s="30"/>
     </row>
     <row r="58" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="103"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="53"/>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
@@ -10466,7 +10466,7 @@
       <c r="Q58" s="28"/>
       <c r="R58" s="30"/>
       <c r="S58" s="40"/>
-      <c r="T58" s="96"/>
+      <c r="T58" s="98"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="2"/>
@@ -10486,7 +10486,7 @@
       <c r="AK58" s="30"/>
     </row>
     <row r="59" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="103"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
@@ -10505,7 +10505,7 @@
       <c r="Q59" s="28"/>
       <c r="R59" s="30"/>
       <c r="S59" s="40"/>
-      <c r="T59" s="96"/>
+      <c r="T59" s="98"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="2"/>
@@ -10525,7 +10525,7 @@
       <c r="AK59" s="30"/>
     </row>
     <row r="60" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="103"/>
+      <c r="A60" s="90"/>
       <c r="B60" s="46"/>
       <c r="C60" s="43"/>
       <c r="D60" s="44"/>
@@ -10544,7 +10544,7 @@
       <c r="Q60" s="28"/>
       <c r="R60" s="30"/>
       <c r="S60" s="40"/>
-      <c r="T60" s="96"/>
+      <c r="T60" s="98"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="2"/>
@@ -10564,7 +10564,7 @@
       <c r="AK60" s="30"/>
     </row>
     <row r="61" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="103"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="47"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
@@ -10583,7 +10583,7 @@
       <c r="Q61" s="28"/>
       <c r="R61" s="30"/>
       <c r="S61" s="40"/>
-      <c r="T61" s="96"/>
+      <c r="T61" s="98"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="2"/>
@@ -10601,7 +10601,7 @@
       <c r="AK61" s="30"/>
     </row>
     <row r="62" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="103"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="46"/>
       <c r="C62" s="43"/>
       <c r="D62" s="44"/>
@@ -10620,7 +10620,7 @@
       <c r="Q62" s="28"/>
       <c r="R62" s="30"/>
       <c r="S62" s="40"/>
-      <c r="T62" s="96"/>
+      <c r="T62" s="98"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="2"/>
@@ -10638,7 +10638,7 @@
       <c r="AK62" s="30"/>
     </row>
     <row r="63" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="103"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -10657,7 +10657,7 @@
       <c r="Q63" s="28"/>
       <c r="R63" s="30"/>
       <c r="S63" s="40"/>
-      <c r="T63" s="96"/>
+      <c r="T63" s="98"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="2"/>
@@ -10675,7 +10675,7 @@
       <c r="AK63" s="30"/>
     </row>
     <row r="64" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="103"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="46"/>
       <c r="C64" s="43"/>
       <c r="D64" s="44"/>
@@ -10694,7 +10694,7 @@
       <c r="Q64" s="28"/>
       <c r="R64" s="30"/>
       <c r="S64" s="40"/>
-      <c r="T64" s="96"/>
+      <c r="T64" s="98"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="2"/>
@@ -10712,7 +10712,7 @@
       <c r="AK64" s="30"/>
     </row>
     <row r="65" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="103"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="54"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44"/>
@@ -10731,7 +10731,7 @@
       <c r="Q65" s="28"/>
       <c r="R65" s="30"/>
       <c r="S65" s="40"/>
-      <c r="T65" s="96"/>
+      <c r="T65" s="98"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="2"/>
@@ -10749,7 +10749,7 @@
       <c r="AK65" s="30"/>
     </row>
     <row r="66" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="103"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="53"/>
       <c r="C66" s="48"/>
       <c r="D66" s="48"/>
@@ -10768,7 +10768,7 @@
       <c r="Q66" s="28"/>
       <c r="R66" s="30"/>
       <c r="S66" s="40"/>
-      <c r="T66" s="96"/>
+      <c r="T66" s="98"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="2"/>
@@ -10786,7 +10786,7 @@
       <c r="AK66" s="30"/>
     </row>
     <row r="67" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="103"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
       <c r="D67" s="44"/>
@@ -10805,7 +10805,7 @@
       <c r="Q67" s="28"/>
       <c r="R67" s="30"/>
       <c r="S67" s="40"/>
-      <c r="T67" s="96"/>
+      <c r="T67" s="98"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="2"/>
@@ -10823,7 +10823,7 @@
       <c r="AK67" s="30"/>
     </row>
     <row r="68" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="103"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
@@ -10842,7 +10842,7 @@
       <c r="Q68" s="28"/>
       <c r="R68" s="30"/>
       <c r="S68" s="40"/>
-      <c r="T68" s="96"/>
+      <c r="T68" s="98"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="2"/>
@@ -10860,7 +10860,7 @@
       <c r="AK68" s="30"/>
     </row>
     <row r="69" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="103"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
       <c r="D69" s="44"/>
@@ -10879,7 +10879,7 @@
       <c r="Q69" s="28"/>
       <c r="R69" s="30"/>
       <c r="S69" s="40"/>
-      <c r="T69" s="96"/>
+      <c r="T69" s="98"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="2"/>
@@ -10897,7 +10897,7 @@
       <c r="AK69" s="30"/>
     </row>
     <row r="70" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="104"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -10916,7 +10916,7 @@
       <c r="Q70" s="28"/>
       <c r="R70" s="30"/>
       <c r="S70" s="40"/>
-      <c r="T70" s="97"/>
+      <c r="T70" s="99"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="2"/>
@@ -10980,21 +10980,21 @@
       <c r="V72" s="22"/>
       <c r="W72" s="22"/>
       <c r="X72" s="22"/>
-      <c r="Y72" s="79" t="s">
+      <c r="Y72" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Z72" s="79"/>
-      <c r="AA72" s="79"/>
-      <c r="AB72" s="80" t="s">
+      <c r="Z72" s="83"/>
+      <c r="AA72" s="83"/>
+      <c r="AB72" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AC72" s="80"/>
-      <c r="AD72" s="80"/>
-      <c r="AE72" s="81" t="s">
+      <c r="AC72" s="84"/>
+      <c r="AD72" s="84"/>
+      <c r="AE72" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AF72" s="81"/>
-      <c r="AG72" s="81"/>
+      <c r="AF72" s="85"/>
+      <c r="AG72" s="85"/>
       <c r="AH72" s="82" t="s">
         <v>19</v>
       </c>
@@ -11031,21 +11031,21 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="13"/>
-      <c r="F73" s="79" t="s">
+      <c r="F73" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="80" t="s">
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="80"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="81" t="s">
+      <c r="J73" s="84"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M73" s="81"/>
-      <c r="N73" s="81"/>
+      <c r="M73" s="85"/>
+      <c r="N73" s="85"/>
       <c r="O73" s="82" t="s">
         <v>19</v>
       </c>
@@ -11054,26 +11054,26 @@
       <c r="R73" s="35"/>
       <c r="S73" s="36"/>
       <c r="U73" s="18"/>
-      <c r="Y73" s="83" t="s">
+      <c r="Y73" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Z73" s="84"/>
-      <c r="AA73" s="85"/>
-      <c r="AB73" s="83" t="s">
+      <c r="Z73" s="80"/>
+      <c r="AA73" s="81"/>
+      <c r="AB73" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AC73" s="84"/>
-      <c r="AD73" s="85"/>
-      <c r="AE73" s="83" t="s">
+      <c r="AC73" s="80"/>
+      <c r="AD73" s="81"/>
+      <c r="AE73" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AF73" s="84"/>
-      <c r="AG73" s="85"/>
-      <c r="AH73" s="83" t="s">
+      <c r="AF73" s="80"/>
+      <c r="AG73" s="81"/>
+      <c r="AH73" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AI73" s="84"/>
-      <c r="AJ73" s="85"/>
+      <c r="AI73" s="80"/>
+      <c r="AJ73" s="81"/>
       <c r="AK73" s="35"/>
     </row>
     <row r="74" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11083,26 +11083,26 @@
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
-      <c r="F74" s="83" t="s">
+      <c r="F74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="84"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="83" t="s">
+      <c r="G74" s="80"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J74" s="84"/>
-      <c r="K74" s="85"/>
-      <c r="L74" s="83" t="s">
+      <c r="J74" s="80"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M74" s="84"/>
-      <c r="N74" s="85"/>
-      <c r="O74" s="83" t="s">
+      <c r="M74" s="80"/>
+      <c r="N74" s="81"/>
+      <c r="O74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="85"/>
+      <c r="P74" s="80"/>
+      <c r="Q74" s="81"/>
       <c r="R74" s="35"/>
       <c r="S74" s="37"/>
       <c r="T74" s="17" t="s">
@@ -11161,7 +11161,7 @@
       </c>
     </row>
     <row r="75" spans="1:60" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="93" t="s">
+      <c r="A75" s="95" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="17" t="s">
@@ -11216,7 +11216,7 @@
         <v>20</v>
       </c>
       <c r="S75" s="41"/>
-      <c r="T75" s="93" t="s">
+      <c r="T75" s="95" t="s">
         <v>3</v>
       </c>
       <c r="U75" s="43"/>
@@ -11238,7 +11238,7 @@
       <c r="AK75" s="77"/>
     </row>
     <row r="76" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="94"/>
+      <c r="A76" s="96"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
       <c r="D76" s="44"/>
@@ -11257,7 +11257,7 @@
       <c r="Q76" s="28"/>
       <c r="R76" s="77"/>
       <c r="S76" s="41"/>
-      <c r="T76" s="94"/>
+      <c r="T76" s="96"/>
       <c r="U76" s="43"/>
       <c r="V76" s="43"/>
       <c r="W76" s="44"/>
@@ -11277,7 +11277,7 @@
       <c r="AK76" s="67"/>
     </row>
     <row r="77" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="94"/>
+      <c r="A77" s="96"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
       <c r="D77" s="44"/>
@@ -11296,7 +11296,7 @@
       <c r="Q77" s="28"/>
       <c r="R77" s="67"/>
       <c r="S77" s="41"/>
-      <c r="T77" s="94"/>
+      <c r="T77" s="96"/>
       <c r="U77" s="53"/>
       <c r="V77" s="51"/>
       <c r="W77" s="51"/>
@@ -11316,7 +11316,7 @@
       <c r="AK77" s="67"/>
     </row>
     <row r="78" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="94"/>
+      <c r="A78" s="96"/>
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
       <c r="D78" s="64"/>
@@ -11335,7 +11335,7 @@
       <c r="Q78" s="28"/>
       <c r="R78" s="67"/>
       <c r="S78" s="41"/>
-      <c r="T78" s="94"/>
+      <c r="T78" s="96"/>
       <c r="U78" s="43"/>
       <c r="V78" s="43"/>
       <c r="W78" s="44"/>
@@ -11355,7 +11355,7 @@
       <c r="AK78" s="67"/>
     </row>
     <row r="79" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="94"/>
+      <c r="A79" s="96"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
       <c r="D79" s="43"/>
@@ -11374,7 +11374,7 @@
       <c r="Q79" s="28"/>
       <c r="R79" s="67"/>
       <c r="S79" s="42"/>
-      <c r="T79" s="94"/>
+      <c r="T79" s="96"/>
       <c r="U79" s="43"/>
       <c r="V79" s="43"/>
       <c r="W79" s="44"/>
@@ -11394,7 +11394,7 @@
       <c r="AK79" s="68"/>
     </row>
     <row r="80" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="94"/>
+      <c r="A80" s="96"/>
       <c r="B80" s="46"/>
       <c r="C80" s="43"/>
       <c r="D80" s="44"/>
@@ -11413,7 +11413,7 @@
       <c r="Q80" s="28"/>
       <c r="R80" s="68"/>
       <c r="S80" s="41"/>
-      <c r="T80" s="94"/>
+      <c r="T80" s="96"/>
       <c r="U80" s="53"/>
       <c r="V80" s="51"/>
       <c r="W80" s="51"/>
@@ -11433,7 +11433,7 @@
       <c r="AK80" s="67"/>
     </row>
     <row r="81" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="94"/>
+      <c r="A81" s="96"/>
       <c r="B81" s="53"/>
       <c r="C81" s="51"/>
       <c r="D81" s="51"/>
@@ -11452,7 +11452,7 @@
       <c r="Q81" s="28"/>
       <c r="R81" s="67"/>
       <c r="S81" s="41"/>
-      <c r="T81" s="94"/>
+      <c r="T81" s="96"/>
       <c r="U81" s="43"/>
       <c r="V81" s="43"/>
       <c r="W81" s="44"/>
@@ -11472,7 +11472,7 @@
       <c r="AK81" s="67"/>
     </row>
     <row r="82" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="94"/>
+      <c r="A82" s="96"/>
       <c r="B82" s="53"/>
       <c r="C82" s="48"/>
       <c r="D82" s="48"/>
@@ -11491,7 +11491,7 @@
       <c r="Q82" s="28"/>
       <c r="R82" s="67"/>
       <c r="S82" s="41"/>
-      <c r="T82" s="94"/>
+      <c r="T82" s="96"/>
       <c r="U82" s="43"/>
       <c r="V82" s="43"/>
       <c r="W82" s="44"/>
@@ -11511,7 +11511,7 @@
       <c r="AK82" s="67"/>
     </row>
     <row r="83" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="94"/>
+      <c r="A83" s="96"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
       <c r="D83" s="44"/>
@@ -11530,7 +11530,7 @@
       <c r="Q83" s="28"/>
       <c r="R83" s="67"/>
       <c r="S83" s="41"/>
-      <c r="T83" s="94"/>
+      <c r="T83" s="96"/>
       <c r="U83" s="53"/>
       <c r="V83" s="51"/>
       <c r="W83" s="51"/>
@@ -11550,7 +11550,7 @@
       <c r="AK83" s="67"/>
     </row>
     <row r="84" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="94"/>
+      <c r="A84" s="96"/>
       <c r="B84" s="54"/>
       <c r="C84" s="43"/>
       <c r="D84" s="44"/>
@@ -11569,7 +11569,7 @@
       <c r="Q84" s="28"/>
       <c r="R84" s="67"/>
       <c r="S84" s="41"/>
-      <c r="T84" s="94"/>
+      <c r="T84" s="96"/>
       <c r="U84" s="53"/>
       <c r="V84" s="51"/>
       <c r="W84" s="51"/>
@@ -11589,7 +11589,7 @@
       <c r="AK84" s="67"/>
     </row>
     <row r="85" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="94"/>
+      <c r="A85" s="96"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
       <c r="D85" s="44"/>
@@ -11608,7 +11608,7 @@
       <c r="Q85" s="28"/>
       <c r="R85" s="67"/>
       <c r="S85" s="42"/>
-      <c r="T85" s="94"/>
+      <c r="T85" s="96"/>
       <c r="U85" s="46"/>
       <c r="V85" s="43"/>
       <c r="W85" s="44"/>
@@ -11628,7 +11628,7 @@
       <c r="AK85" s="68"/>
     </row>
     <row r="86" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="94"/>
+      <c r="A86" s="96"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
       <c r="D86" s="43"/>
@@ -11647,7 +11647,7 @@
       <c r="Q86" s="28"/>
       <c r="R86" s="68"/>
       <c r="S86" s="41"/>
-      <c r="T86" s="94"/>
+      <c r="T86" s="96"/>
       <c r="U86" s="43"/>
       <c r="V86" s="43"/>
       <c r="W86" s="44"/>
@@ -11667,7 +11667,7 @@
       <c r="AK86" s="67"/>
     </row>
     <row r="87" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="94"/>
+      <c r="A87" s="96"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
@@ -11686,7 +11686,7 @@
       <c r="Q87" s="28"/>
       <c r="R87" s="67"/>
       <c r="S87" s="41"/>
-      <c r="T87" s="94"/>
+      <c r="T87" s="96"/>
       <c r="U87" s="43"/>
       <c r="V87" s="43"/>
       <c r="W87" s="44"/>
@@ -11706,7 +11706,7 @@
       <c r="AK87" s="67"/>
     </row>
     <row r="88" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="94"/>
+      <c r="A88" s="96"/>
       <c r="B88" s="54"/>
       <c r="C88" s="43"/>
       <c r="D88" s="44"/>
@@ -11725,7 +11725,7 @@
       <c r="Q88" s="28"/>
       <c r="R88" s="67"/>
       <c r="S88" s="41"/>
-      <c r="T88" s="94"/>
+      <c r="T88" s="96"/>
       <c r="U88" s="43"/>
       <c r="V88" s="43"/>
       <c r="W88" s="44"/>
@@ -11745,7 +11745,7 @@
       <c r="AK88" s="67"/>
     </row>
     <row r="89" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="94"/>
+      <c r="A89" s="96"/>
       <c r="B89" s="54"/>
       <c r="C89" s="43"/>
       <c r="D89" s="44"/>
@@ -11764,7 +11764,7 @@
       <c r="Q89" s="28"/>
       <c r="R89" s="67"/>
       <c r="S89" s="41"/>
-      <c r="T89" s="94"/>
+      <c r="T89" s="96"/>
       <c r="U89" s="43"/>
       <c r="V89" s="43"/>
       <c r="W89" s="44"/>
@@ -11784,7 +11784,7 @@
       <c r="AK89" s="67"/>
     </row>
     <row r="90" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="94"/>
+      <c r="A90" s="96"/>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
       <c r="D90" s="44"/>
@@ -11803,7 +11803,7 @@
       <c r="Q90" s="28"/>
       <c r="R90" s="67"/>
       <c r="S90" s="41"/>
-      <c r="T90" s="94"/>
+      <c r="T90" s="96"/>
       <c r="U90" s="43"/>
       <c r="V90" s="43"/>
       <c r="W90" s="44"/>
@@ -11823,7 +11823,7 @@
       <c r="AK90" s="67"/>
     </row>
     <row r="91" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="94"/>
+      <c r="A91" s="96"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
       <c r="D91" s="44"/>
@@ -11842,7 +11842,7 @@
       <c r="Q91" s="28"/>
       <c r="R91" s="67"/>
       <c r="S91" s="41"/>
-      <c r="T91" s="94"/>
+      <c r="T91" s="96"/>
       <c r="U91" s="53"/>
       <c r="V91" s="51"/>
       <c r="W91" s="51"/>
@@ -11862,7 +11862,7 @@
       <c r="AK91" s="67"/>
     </row>
     <row r="92" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="94"/>
+      <c r="A92" s="96"/>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
       <c r="D92" s="44"/>
@@ -11881,7 +11881,7 @@
       <c r="Q92" s="28"/>
       <c r="R92" s="67"/>
       <c r="S92" s="41"/>
-      <c r="T92" s="94"/>
+      <c r="T92" s="96"/>
       <c r="U92" s="43"/>
       <c r="V92" s="43"/>
       <c r="W92" s="44"/>
@@ -11901,7 +11901,7 @@
       <c r="AK92" s="67"/>
     </row>
     <row r="93" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="94"/>
+      <c r="A93" s="96"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="2"/>
@@ -11920,7 +11920,7 @@
       <c r="Q93" s="28"/>
       <c r="R93" s="67"/>
       <c r="S93" s="41"/>
-      <c r="T93" s="94"/>
+      <c r="T93" s="96"/>
       <c r="U93" s="34"/>
       <c r="V93" s="1"/>
       <c r="W93" s="2"/>
@@ -11940,7 +11940,7 @@
       <c r="AK93" s="67"/>
     </row>
     <row r="94" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="94"/>
+      <c r="A94" s="96"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
       <c r="D94" s="43"/>
@@ -11959,7 +11959,7 @@
       <c r="Q94" s="28"/>
       <c r="R94" s="67"/>
       <c r="S94" s="41"/>
-      <c r="T94" s="94"/>
+      <c r="T94" s="96"/>
       <c r="U94" s="34"/>
       <c r="V94" s="1"/>
       <c r="W94" s="2"/>
@@ -11979,7 +11979,7 @@
       <c r="AK94" s="67"/>
     </row>
     <row r="95" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="94"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
       <c r="D95" s="44"/>
@@ -11998,7 +11998,7 @@
       <c r="Q95" s="28"/>
       <c r="R95" s="67"/>
       <c r="S95" s="41"/>
-      <c r="T95" s="94"/>
+      <c r="T95" s="96"/>
       <c r="U95" s="34"/>
       <c r="V95" s="1"/>
       <c r="W95" s="2"/>
@@ -12018,7 +12018,7 @@
       <c r="AK95" s="67"/>
     </row>
     <row r="96" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="94"/>
+      <c r="A96" s="96"/>
       <c r="B96" s="47"/>
       <c r="C96" s="48"/>
       <c r="D96" s="48"/>
@@ -12037,7 +12037,7 @@
       <c r="Q96" s="28"/>
       <c r="R96" s="67"/>
       <c r="S96" s="41"/>
-      <c r="T96" s="94"/>
+      <c r="T96" s="96"/>
       <c r="U96" s="34"/>
       <c r="V96" s="1"/>
       <c r="W96" s="2"/>
@@ -12057,7 +12057,7 @@
       <c r="AK96" s="67"/>
     </row>
     <row r="97" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="94"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
       <c r="D97" s="43"/>
@@ -12076,7 +12076,7 @@
       <c r="Q97" s="28"/>
       <c r="R97" s="67"/>
       <c r="S97" s="41"/>
-      <c r="T97" s="94"/>
+      <c r="T97" s="96"/>
       <c r="U97" s="34"/>
       <c r="V97" s="1"/>
       <c r="W97" s="2"/>
@@ -12096,7 +12096,7 @@
       <c r="AK97" s="67"/>
     </row>
     <row r="98" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="94"/>
+      <c r="A98" s="96"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
       <c r="D98" s="43"/>
@@ -12115,7 +12115,7 @@
       <c r="Q98" s="28"/>
       <c r="R98" s="67"/>
       <c r="S98" s="41"/>
-      <c r="T98" s="94"/>
+      <c r="T98" s="96"/>
       <c r="U98" s="34"/>
       <c r="V98" s="1"/>
       <c r="W98" s="2"/>
@@ -12135,7 +12135,7 @@
       <c r="AK98" s="67"/>
     </row>
     <row r="99" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="94"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
       <c r="D99" s="43"/>
@@ -12154,7 +12154,7 @@
       <c r="Q99" s="28"/>
       <c r="R99" s="67"/>
       <c r="S99" s="41"/>
-      <c r="T99" s="94"/>
+      <c r="T99" s="96"/>
       <c r="U99" s="34"/>
       <c r="V99" s="1"/>
       <c r="W99" s="2"/>
@@ -12174,7 +12174,7 @@
       <c r="AK99" s="67"/>
     </row>
     <row r="100" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="94"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
@@ -12193,7 +12193,7 @@
       <c r="Q100" s="28"/>
       <c r="R100" s="67"/>
       <c r="S100" s="41"/>
-      <c r="T100" s="94"/>
+      <c r="T100" s="96"/>
       <c r="U100" s="34"/>
       <c r="V100" s="1"/>
       <c r="W100" s="2"/>
@@ -12213,7 +12213,7 @@
       <c r="AK100" s="67"/>
     </row>
     <row r="101" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="94"/>
+      <c r="A101" s="96"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
       <c r="D101" s="43"/>
@@ -12232,7 +12232,7 @@
       <c r="Q101" s="28"/>
       <c r="R101" s="67"/>
       <c r="S101" s="41"/>
-      <c r="T101" s="94"/>
+      <c r="T101" s="96"/>
       <c r="U101" s="34"/>
       <c r="V101" s="1"/>
       <c r="W101" s="2"/>
@@ -12252,7 +12252,7 @@
       <c r="AK101" s="67"/>
     </row>
     <row r="102" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="94"/>
+      <c r="A102" s="96"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
@@ -12271,7 +12271,7 @@
       <c r="Q102" s="28"/>
       <c r="R102" s="67"/>
       <c r="S102" s="41"/>
-      <c r="T102" s="94"/>
+      <c r="T102" s="96"/>
       <c r="U102" s="34"/>
       <c r="V102" s="1"/>
       <c r="W102" s="2"/>
@@ -12291,7 +12291,7 @@
       <c r="AK102" s="67"/>
     </row>
     <row r="103" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="94"/>
+      <c r="A103" s="96"/>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="43"/>
@@ -12310,7 +12310,7 @@
       <c r="Q103" s="28"/>
       <c r="R103" s="67"/>
       <c r="S103" s="41"/>
-      <c r="T103" s="94"/>
+      <c r="T103" s="96"/>
       <c r="U103" s="34"/>
       <c r="V103" s="1"/>
       <c r="W103" s="2"/>
@@ -12330,7 +12330,7 @@
       <c r="AK103" s="67"/>
     </row>
     <row r="104" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="94"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -12349,7 +12349,7 @@
       <c r="Q104" s="28"/>
       <c r="R104" s="67"/>
       <c r="S104" s="41"/>
-      <c r="T104" s="94"/>
+      <c r="T104" s="96"/>
       <c r="U104" s="34"/>
       <c r="V104" s="1"/>
       <c r="W104" s="2"/>
@@ -12369,7 +12369,7 @@
       <c r="AK104" s="67"/>
     </row>
     <row r="105" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="94"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="44"/>
@@ -12388,7 +12388,7 @@
       <c r="Q105" s="28"/>
       <c r="R105" s="67"/>
       <c r="S105" s="41"/>
-      <c r="T105" s="94"/>
+      <c r="T105" s="96"/>
       <c r="U105" s="34"/>
       <c r="V105" s="1"/>
       <c r="W105" s="2"/>
@@ -12408,7 +12408,7 @@
       <c r="AK105" s="67"/>
     </row>
     <row r="106" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="94"/>
+      <c r="A106" s="96"/>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="44"/>
@@ -12427,7 +12427,7 @@
       <c r="Q106" s="28"/>
       <c r="R106" s="67"/>
       <c r="S106" s="41"/>
-      <c r="T106" s="94"/>
+      <c r="T106" s="96"/>
       <c r="U106" s="34"/>
       <c r="V106" s="1"/>
       <c r="W106" s="2"/>
@@ -12447,7 +12447,7 @@
       <c r="AK106" s="67"/>
     </row>
     <row r="107" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="94"/>
+      <c r="A107" s="96"/>
       <c r="B107" s="46"/>
       <c r="C107" s="43"/>
       <c r="D107" s="44"/>
@@ -12466,7 +12466,7 @@
       <c r="Q107" s="28"/>
       <c r="R107" s="67"/>
       <c r="S107" s="41"/>
-      <c r="T107" s="94"/>
+      <c r="T107" s="96"/>
       <c r="U107" s="34"/>
       <c r="V107" s="1"/>
       <c r="W107" s="2"/>
@@ -12486,7 +12486,7 @@
       <c r="AK107" s="67"/>
     </row>
     <row r="108" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="94"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
       <c r="D108" s="44"/>
@@ -12505,7 +12505,7 @@
       <c r="Q108" s="28"/>
       <c r="R108" s="67"/>
       <c r="S108" s="41"/>
-      <c r="T108" s="98"/>
+      <c r="T108" s="100"/>
       <c r="U108" s="34"/>
       <c r="V108" s="1"/>
       <c r="W108" s="2"/>
@@ -12571,21 +12571,21 @@
       <c r="V111" s="22"/>
       <c r="W111" s="22"/>
       <c r="X111" s="22"/>
-      <c r="Y111" s="79" t="s">
+      <c r="Y111" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Z111" s="79"/>
-      <c r="AA111" s="79"/>
-      <c r="AB111" s="80" t="s">
+      <c r="Z111" s="83"/>
+      <c r="AA111" s="83"/>
+      <c r="AB111" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AC111" s="80"/>
-      <c r="AD111" s="80"/>
-      <c r="AE111" s="81" t="s">
+      <c r="AC111" s="84"/>
+      <c r="AD111" s="84"/>
+      <c r="AE111" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AF111" s="81"/>
-      <c r="AG111" s="81"/>
+      <c r="AF111" s="85"/>
+      <c r="AG111" s="85"/>
       <c r="AH111" s="82" t="s">
         <v>19</v>
       </c>
@@ -12599,21 +12599,21 @@
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="13"/>
-      <c r="F112" s="79" t="s">
+      <c r="F112" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G112" s="79"/>
-      <c r="H112" s="79"/>
-      <c r="I112" s="80" t="s">
+      <c r="G112" s="83"/>
+      <c r="H112" s="83"/>
+      <c r="I112" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J112" s="80"/>
-      <c r="K112" s="80"/>
-      <c r="L112" s="81" t="s">
+      <c r="J112" s="84"/>
+      <c r="K112" s="84"/>
+      <c r="L112" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M112" s="81"/>
-      <c r="N112" s="81"/>
+      <c r="M112" s="85"/>
+      <c r="N112" s="85"/>
       <c r="O112" s="82" t="s">
         <v>19</v>
       </c>
@@ -12622,26 +12622,26 @@
       <c r="R112" s="35"/>
       <c r="S112" s="36"/>
       <c r="U112" s="18"/>
-      <c r="Y112" s="83" t="s">
+      <c r="Y112" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Z112" s="84"/>
-      <c r="AA112" s="85"/>
-      <c r="AB112" s="83" t="s">
+      <c r="Z112" s="80"/>
+      <c r="AA112" s="81"/>
+      <c r="AB112" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AC112" s="84"/>
-      <c r="AD112" s="85"/>
-      <c r="AE112" s="83" t="s">
+      <c r="AC112" s="80"/>
+      <c r="AD112" s="81"/>
+      <c r="AE112" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AF112" s="84"/>
-      <c r="AG112" s="85"/>
-      <c r="AH112" s="83" t="s">
+      <c r="AF112" s="80"/>
+      <c r="AG112" s="81"/>
+      <c r="AH112" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AI112" s="84"/>
-      <c r="AJ112" s="85"/>
+      <c r="AI112" s="80"/>
+      <c r="AJ112" s="81"/>
       <c r="AK112" s="35"/>
     </row>
     <row r="113" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12651,26 +12651,26 @@
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
-      <c r="F113" s="83" t="s">
+      <c r="F113" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G113" s="84"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="83" t="s">
+      <c r="G113" s="80"/>
+      <c r="H113" s="81"/>
+      <c r="I113" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J113" s="84"/>
-      <c r="K113" s="85"/>
-      <c r="L113" s="83" t="s">
+      <c r="J113" s="80"/>
+      <c r="K113" s="81"/>
+      <c r="L113" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M113" s="84"/>
-      <c r="N113" s="85"/>
-      <c r="O113" s="83" t="s">
+      <c r="M113" s="80"/>
+      <c r="N113" s="81"/>
+      <c r="O113" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="P113" s="84"/>
-      <c r="Q113" s="85"/>
+      <c r="P113" s="80"/>
+      <c r="Q113" s="81"/>
       <c r="R113" s="35"/>
       <c r="S113" s="37"/>
       <c r="T113" s="17" t="s">
@@ -12729,7 +12729,7 @@
       </c>
     </row>
     <row r="114" spans="1:37" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="86" t="s">
+      <c r="A114" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B114" s="17" t="s">
@@ -12784,7 +12784,7 @@
         <v>20</v>
       </c>
       <c r="S114" s="41"/>
-      <c r="T114" s="86" t="s">
+      <c r="T114" s="103" t="s">
         <v>30</v>
       </c>
       <c r="U114" s="43"/>
@@ -12806,7 +12806,7 @@
       <c r="AK114" s="77"/>
     </row>
     <row r="115" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="87"/>
+      <c r="A115" s="104"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
       <c r="D115" s="44"/>
@@ -12825,7 +12825,7 @@
       <c r="Q115" s="28"/>
       <c r="R115" s="77"/>
       <c r="S115" s="41"/>
-      <c r="T115" s="87"/>
+      <c r="T115" s="104"/>
       <c r="U115" s="43"/>
       <c r="V115" s="43"/>
       <c r="W115" s="44"/>
@@ -12845,7 +12845,7 @@
       <c r="AK115" s="67"/>
     </row>
     <row r="116" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="87"/>
+      <c r="A116" s="104"/>
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
       <c r="D116" s="44"/>
@@ -12864,7 +12864,7 @@
       <c r="Q116" s="28"/>
       <c r="R116" s="67"/>
       <c r="S116" s="41"/>
-      <c r="T116" s="87"/>
+      <c r="T116" s="104"/>
       <c r="U116" s="53"/>
       <c r="V116" s="51"/>
       <c r="W116" s="51"/>
@@ -12884,7 +12884,7 @@
       <c r="AK116" s="67"/>
     </row>
     <row r="117" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="87"/>
+      <c r="A117" s="104"/>
       <c r="B117" s="52"/>
       <c r="C117" s="52"/>
       <c r="D117" s="64"/>
@@ -12903,7 +12903,7 @@
       <c r="Q117" s="28"/>
       <c r="R117" s="67"/>
       <c r="S117" s="41"/>
-      <c r="T117" s="87"/>
+      <c r="T117" s="104"/>
       <c r="U117" s="43"/>
       <c r="V117" s="43"/>
       <c r="W117" s="44"/>
@@ -12923,7 +12923,7 @@
       <c r="AK117" s="67"/>
     </row>
     <row r="118" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="87"/>
+      <c r="A118" s="104"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
       <c r="D118" s="43"/>
@@ -12942,7 +12942,7 @@
       <c r="Q118" s="28"/>
       <c r="R118" s="67"/>
       <c r="S118" s="42"/>
-      <c r="T118" s="87"/>
+      <c r="T118" s="104"/>
       <c r="U118" s="43"/>
       <c r="V118" s="43"/>
       <c r="W118" s="44"/>
@@ -12962,7 +12962,7 @@
       <c r="AK118" s="68"/>
     </row>
     <row r="119" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="87"/>
+      <c r="A119" s="104"/>
       <c r="B119" s="46"/>
       <c r="C119" s="43"/>
       <c r="D119" s="44"/>
@@ -12981,7 +12981,7 @@
       <c r="Q119" s="28"/>
       <c r="R119" s="68"/>
       <c r="S119" s="41"/>
-      <c r="T119" s="87"/>
+      <c r="T119" s="104"/>
       <c r="U119" s="53"/>
       <c r="V119" s="51"/>
       <c r="W119" s="51"/>
@@ -13001,7 +13001,7 @@
       <c r="AK119" s="67"/>
     </row>
     <row r="120" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="87"/>
+      <c r="A120" s="104"/>
       <c r="B120" s="43"/>
       <c r="C120" s="43"/>
       <c r="D120" s="44"/>
@@ -13020,7 +13020,7 @@
       <c r="Q120" s="28"/>
       <c r="R120" s="67"/>
       <c r="S120" s="41"/>
-      <c r="T120" s="87"/>
+      <c r="T120" s="104"/>
       <c r="U120" s="43"/>
       <c r="V120" s="43"/>
       <c r="W120" s="44"/>
@@ -13040,7 +13040,7 @@
       <c r="AK120" s="67"/>
     </row>
     <row r="121" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="87"/>
+      <c r="A121" s="104"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="2"/>
@@ -13059,7 +13059,7 @@
       <c r="Q121" s="28"/>
       <c r="R121" s="67"/>
       <c r="S121" s="41"/>
-      <c r="T121" s="87"/>
+      <c r="T121" s="104"/>
       <c r="U121" s="34"/>
       <c r="V121" s="1"/>
       <c r="W121" s="2"/>
@@ -13079,7 +13079,7 @@
       <c r="AK121" s="67"/>
     </row>
     <row r="122" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="87"/>
+      <c r="A122" s="104"/>
       <c r="B122" s="43"/>
       <c r="C122" s="43"/>
       <c r="D122" s="43"/>
@@ -13098,7 +13098,7 @@
       <c r="Q122" s="28"/>
       <c r="R122" s="67"/>
       <c r="S122" s="41"/>
-      <c r="T122" s="87"/>
+      <c r="T122" s="104"/>
       <c r="U122" s="34"/>
       <c r="V122" s="1"/>
       <c r="W122" s="2"/>
@@ -13118,7 +13118,7 @@
       <c r="AK122" s="67"/>
     </row>
     <row r="123" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="87"/>
+      <c r="A123" s="104"/>
       <c r="B123" s="43"/>
       <c r="C123" s="43"/>
       <c r="D123" s="44"/>
@@ -13137,7 +13137,7 @@
       <c r="Q123" s="28"/>
       <c r="R123" s="67"/>
       <c r="S123" s="41"/>
-      <c r="T123" s="87"/>
+      <c r="T123" s="104"/>
       <c r="U123" s="34"/>
       <c r="V123" s="1"/>
       <c r="W123" s="2"/>
@@ -13157,7 +13157,7 @@
       <c r="AK123" s="67"/>
     </row>
     <row r="124" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="87"/>
+      <c r="A124" s="104"/>
       <c r="B124" s="47"/>
       <c r="C124" s="48"/>
       <c r="D124" s="48"/>
@@ -13176,7 +13176,7 @@
       <c r="Q124" s="28"/>
       <c r="R124" s="67"/>
       <c r="S124" s="41"/>
-      <c r="T124" s="87"/>
+      <c r="T124" s="104"/>
       <c r="U124" s="34"/>
       <c r="V124" s="1"/>
       <c r="W124" s="2"/>
@@ -13196,7 +13196,7 @@
       <c r="AK124" s="67"/>
     </row>
     <row r="125" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="87"/>
+      <c r="A125" s="104"/>
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
       <c r="D125" s="43"/>
@@ -13215,7 +13215,7 @@
       <c r="Q125" s="28"/>
       <c r="R125" s="67"/>
       <c r="S125" s="41"/>
-      <c r="T125" s="87"/>
+      <c r="T125" s="104"/>
       <c r="U125" s="34"/>
       <c r="V125" s="1"/>
       <c r="W125" s="2"/>
@@ -13235,7 +13235,7 @@
       <c r="AK125" s="67"/>
     </row>
     <row r="126" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="87"/>
+      <c r="A126" s="104"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
       <c r="D126" s="43"/>
@@ -13254,7 +13254,7 @@
       <c r="Q126" s="28"/>
       <c r="R126" s="67"/>
       <c r="S126" s="41"/>
-      <c r="T126" s="87"/>
+      <c r="T126" s="104"/>
       <c r="U126" s="34"/>
       <c r="V126" s="1"/>
       <c r="W126" s="2"/>
@@ -13274,7 +13274,7 @@
       <c r="AK126" s="67"/>
     </row>
     <row r="127" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="87"/>
+      <c r="A127" s="104"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
       <c r="D127" s="43"/>
@@ -13293,7 +13293,7 @@
       <c r="Q127" s="28"/>
       <c r="R127" s="67"/>
       <c r="S127" s="41"/>
-      <c r="T127" s="87"/>
+      <c r="T127" s="104"/>
       <c r="U127" s="34"/>
       <c r="V127" s="1"/>
       <c r="W127" s="2"/>
@@ -13313,7 +13313,7 @@
       <c r="AK127" s="67"/>
     </row>
     <row r="128" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="87"/>
+      <c r="A128" s="104"/>
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
       <c r="D128" s="43"/>
@@ -13332,7 +13332,7 @@
       <c r="Q128" s="28"/>
       <c r="R128" s="67"/>
       <c r="S128" s="41"/>
-      <c r="T128" s="87"/>
+      <c r="T128" s="104"/>
       <c r="U128" s="34"/>
       <c r="V128" s="1"/>
       <c r="W128" s="2"/>
@@ -13352,7 +13352,7 @@
       <c r="AK128" s="67"/>
     </row>
     <row r="129" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="87"/>
+      <c r="A129" s="104"/>
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
       <c r="D129" s="43"/>
@@ -13371,7 +13371,7 @@
       <c r="Q129" s="28"/>
       <c r="R129" s="67"/>
       <c r="S129" s="41"/>
-      <c r="T129" s="87"/>
+      <c r="T129" s="104"/>
       <c r="U129" s="34"/>
       <c r="V129" s="1"/>
       <c r="W129" s="2"/>
@@ -13391,7 +13391,7 @@
       <c r="AK129" s="67"/>
     </row>
     <row r="130" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="87"/>
+      <c r="A130" s="104"/>
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
       <c r="D130" s="43"/>
@@ -13410,7 +13410,7 @@
       <c r="Q130" s="28"/>
       <c r="R130" s="67"/>
       <c r="S130" s="41"/>
-      <c r="T130" s="87"/>
+      <c r="T130" s="104"/>
       <c r="U130" s="34"/>
       <c r="V130" s="1"/>
       <c r="W130" s="2"/>
@@ -13430,7 +13430,7 @@
       <c r="AK130" s="67"/>
     </row>
     <row r="131" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="87"/>
+      <c r="A131" s="104"/>
       <c r="B131" s="43"/>
       <c r="C131" s="43"/>
       <c r="D131" s="43"/>
@@ -13449,7 +13449,7 @@
       <c r="Q131" s="28"/>
       <c r="R131" s="67"/>
       <c r="S131" s="41"/>
-      <c r="T131" s="87"/>
+      <c r="T131" s="104"/>
       <c r="U131" s="34"/>
       <c r="V131" s="1"/>
       <c r="W131" s="2"/>
@@ -13469,7 +13469,7 @@
       <c r="AK131" s="67"/>
     </row>
     <row r="132" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="87"/>
+      <c r="A132" s="104"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -13488,7 +13488,7 @@
       <c r="Q132" s="28"/>
       <c r="R132" s="67"/>
       <c r="S132" s="41"/>
-      <c r="T132" s="87"/>
+      <c r="T132" s="104"/>
       <c r="U132" s="34"/>
       <c r="V132" s="1"/>
       <c r="W132" s="2"/>
@@ -13508,7 +13508,7 @@
       <c r="AK132" s="67"/>
     </row>
     <row r="133" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="87"/>
+      <c r="A133" s="104"/>
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
       <c r="D133" s="44"/>
@@ -13527,7 +13527,7 @@
       <c r="Q133" s="28"/>
       <c r="R133" s="67"/>
       <c r="S133" s="41"/>
-      <c r="T133" s="87"/>
+      <c r="T133" s="104"/>
       <c r="U133" s="34"/>
       <c r="V133" s="1"/>
       <c r="W133" s="2"/>
@@ -13547,7 +13547,7 @@
       <c r="AK133" s="67"/>
     </row>
     <row r="134" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="87"/>
+      <c r="A134" s="104"/>
       <c r="B134" s="43"/>
       <c r="C134" s="43"/>
       <c r="D134" s="44"/>
@@ -13566,7 +13566,7 @@
       <c r="Q134" s="28"/>
       <c r="R134" s="67"/>
       <c r="S134" s="41"/>
-      <c r="T134" s="87"/>
+      <c r="T134" s="104"/>
       <c r="U134" s="34"/>
       <c r="V134" s="1"/>
       <c r="W134" s="2"/>
@@ -13586,7 +13586,7 @@
       <c r="AK134" s="67"/>
     </row>
     <row r="135" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="87"/>
+      <c r="A135" s="104"/>
       <c r="B135" s="46"/>
       <c r="C135" s="43"/>
       <c r="D135" s="44"/>
@@ -13605,7 +13605,7 @@
       <c r="Q135" s="28"/>
       <c r="R135" s="67"/>
       <c r="S135" s="41"/>
-      <c r="T135" s="87"/>
+      <c r="T135" s="104"/>
       <c r="U135" s="34"/>
       <c r="V135" s="1"/>
       <c r="W135" s="2"/>
@@ -13625,7 +13625,7 @@
       <c r="AK135" s="67"/>
     </row>
     <row r="136" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="87"/>
+      <c r="A136" s="104"/>
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
       <c r="D136" s="44"/>
@@ -13644,7 +13644,7 @@
       <c r="Q136" s="28"/>
       <c r="R136" s="67"/>
       <c r="S136" s="41"/>
-      <c r="T136" s="87"/>
+      <c r="T136" s="104"/>
       <c r="U136" s="34"/>
       <c r="V136" s="1"/>
       <c r="W136" s="2"/>
@@ -13690,21 +13690,21 @@
       <c r="V141" s="22"/>
       <c r="W141" s="22"/>
       <c r="X141" s="22"/>
-      <c r="Y141" s="79" t="s">
+      <c r="Y141" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Z141" s="79"/>
-      <c r="AA141" s="79"/>
-      <c r="AB141" s="80" t="s">
+      <c r="Z141" s="83"/>
+      <c r="AA141" s="83"/>
+      <c r="AB141" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AC141" s="80"/>
-      <c r="AD141" s="80"/>
-      <c r="AE141" s="81" t="s">
+      <c r="AC141" s="84"/>
+      <c r="AD141" s="84"/>
+      <c r="AE141" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AF141" s="81"/>
-      <c r="AG141" s="81"/>
+      <c r="AF141" s="85"/>
+      <c r="AG141" s="85"/>
       <c r="AH141" s="82" t="s">
         <v>19</v>
       </c>
@@ -13718,21 +13718,21 @@
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="79" t="s">
+      <c r="F142" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G142" s="79"/>
-      <c r="H142" s="79"/>
-      <c r="I142" s="80" t="s">
+      <c r="G142" s="83"/>
+      <c r="H142" s="83"/>
+      <c r="I142" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J142" s="80"/>
-      <c r="K142" s="80"/>
-      <c r="L142" s="81" t="s">
+      <c r="J142" s="84"/>
+      <c r="K142" s="84"/>
+      <c r="L142" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M142" s="81"/>
-      <c r="N142" s="81"/>
+      <c r="M142" s="85"/>
+      <c r="N142" s="85"/>
       <c r="O142" s="82" t="s">
         <v>19</v>
       </c>
@@ -13745,26 +13745,26 @@
       <c r="V142" s="16"/>
       <c r="W142" s="16"/>
       <c r="X142" s="16"/>
-      <c r="Y142" s="83" t="s">
+      <c r="Y142" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Z142" s="84"/>
-      <c r="AA142" s="85"/>
-      <c r="AB142" s="83" t="s">
+      <c r="Z142" s="80"/>
+      <c r="AA142" s="81"/>
+      <c r="AB142" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AC142" s="84"/>
-      <c r="AD142" s="85"/>
-      <c r="AE142" s="83" t="s">
+      <c r="AC142" s="80"/>
+      <c r="AD142" s="81"/>
+      <c r="AE142" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AF142" s="84"/>
-      <c r="AG142" s="85"/>
-      <c r="AH142" s="83" t="s">
+      <c r="AF142" s="80"/>
+      <c r="AG142" s="81"/>
+      <c r="AH142" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AI142" s="84"/>
-      <c r="AJ142" s="85"/>
+      <c r="AI142" s="80"/>
+      <c r="AJ142" s="81"/>
       <c r="AK142" s="35"/>
     </row>
     <row r="143" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13775,26 +13775,26 @@
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
       <c r="E143" s="16"/>
-      <c r="F143" s="83" t="s">
+      <c r="F143" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="84"/>
-      <c r="H143" s="85"/>
-      <c r="I143" s="83" t="s">
+      <c r="G143" s="80"/>
+      <c r="H143" s="81"/>
+      <c r="I143" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J143" s="84"/>
-      <c r="K143" s="85"/>
-      <c r="L143" s="83" t="s">
+      <c r="J143" s="80"/>
+      <c r="K143" s="81"/>
+      <c r="L143" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="M143" s="84"/>
-      <c r="N143" s="85"/>
-      <c r="O143" s="83" t="s">
+      <c r="M143" s="80"/>
+      <c r="N143" s="81"/>
+      <c r="O143" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="P143" s="84"/>
-      <c r="Q143" s="85"/>
+      <c r="P143" s="80"/>
+      <c r="Q143" s="81"/>
       <c r="R143" s="35"/>
       <c r="S143" s="37"/>
       <c r="T143" s="17" t="s">
@@ -13853,7 +13853,7 @@
       </c>
     </row>
     <row r="144" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="88" t="s">
+      <c r="A144" s="101" t="s">
         <v>32</v>
       </c>
       <c r="B144" s="17" t="s">
@@ -13908,7 +13908,7 @@
         <v>20</v>
       </c>
       <c r="S144" s="41"/>
-      <c r="T144" s="88" t="s">
+      <c r="T144" s="101" t="s">
         <v>32</v>
       </c>
       <c r="U144" s="43"/>
@@ -13930,7 +13930,7 @@
       <c r="AK144" s="77"/>
     </row>
     <row r="145" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="89"/>
+      <c r="A145" s="102"/>
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
       <c r="D145" s="44"/>
@@ -13949,7 +13949,7 @@
       <c r="Q145" s="28"/>
       <c r="R145" s="77"/>
       <c r="S145" s="41"/>
-      <c r="T145" s="89"/>
+      <c r="T145" s="102"/>
       <c r="U145" s="43"/>
       <c r="V145" s="43"/>
       <c r="W145" s="44"/>
@@ -13969,7 +13969,7 @@
       <c r="AK145" s="67"/>
     </row>
     <row r="146" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="89"/>
+      <c r="A146" s="102"/>
       <c r="B146" s="43"/>
       <c r="C146" s="43"/>
       <c r="D146" s="44"/>
@@ -13988,7 +13988,7 @@
       <c r="Q146" s="28"/>
       <c r="R146" s="67"/>
       <c r="S146" s="41"/>
-      <c r="T146" s="89"/>
+      <c r="T146" s="102"/>
       <c r="U146" s="53"/>
       <c r="V146" s="51"/>
       <c r="W146" s="51"/>
@@ -14008,7 +14008,7 @@
       <c r="AK146" s="67"/>
     </row>
     <row r="147" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="89"/>
+      <c r="A147" s="102"/>
       <c r="B147" s="52"/>
       <c r="C147" s="52"/>
       <c r="D147" s="64"/>
@@ -14027,7 +14027,7 @@
       <c r="Q147" s="28"/>
       <c r="R147" s="67"/>
       <c r="S147" s="41"/>
-      <c r="T147" s="89"/>
+      <c r="T147" s="102"/>
       <c r="U147" s="43"/>
       <c r="V147" s="43"/>
       <c r="W147" s="44"/>
@@ -14047,7 +14047,7 @@
       <c r="AK147" s="67"/>
     </row>
     <row r="148" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="89"/>
+      <c r="A148" s="102"/>
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="43"/>
@@ -14066,7 +14066,7 @@
       <c r="Q148" s="28"/>
       <c r="R148" s="67"/>
       <c r="S148" s="42"/>
-      <c r="T148" s="89"/>
+      <c r="T148" s="102"/>
       <c r="U148" s="43"/>
       <c r="V148" s="43"/>
       <c r="W148" s="44"/>
@@ -14086,7 +14086,7 @@
       <c r="AK148" s="68"/>
     </row>
     <row r="149" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="89"/>
+      <c r="A149" s="102"/>
       <c r="B149" s="46"/>
       <c r="C149" s="43"/>
       <c r="D149" s="44"/>
@@ -14105,7 +14105,7 @@
       <c r="Q149" s="28"/>
       <c r="R149" s="68"/>
       <c r="S149" s="41"/>
-      <c r="T149" s="89"/>
+      <c r="T149" s="102"/>
       <c r="U149" s="53"/>
       <c r="V149" s="51"/>
       <c r="W149" s="51"/>
@@ -14125,7 +14125,7 @@
       <c r="AK149" s="67"/>
     </row>
     <row r="150" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="89"/>
+      <c r="A150" s="102"/>
       <c r="B150" s="43"/>
       <c r="C150" s="43"/>
       <c r="D150" s="44"/>
@@ -14144,7 +14144,7 @@
       <c r="Q150" s="28"/>
       <c r="R150" s="67"/>
       <c r="S150" s="41"/>
-      <c r="T150" s="89"/>
+      <c r="T150" s="102"/>
       <c r="U150" s="43"/>
       <c r="V150" s="43"/>
       <c r="W150" s="44"/>
@@ -14164,7 +14164,7 @@
       <c r="AK150" s="67"/>
     </row>
     <row r="151" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="89"/>
+      <c r="A151" s="102"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="2"/>
@@ -14183,7 +14183,7 @@
       <c r="Q151" s="28"/>
       <c r="R151" s="67"/>
       <c r="S151" s="41"/>
-      <c r="T151" s="89"/>
+      <c r="T151" s="102"/>
       <c r="U151" s="34"/>
       <c r="V151" s="1"/>
       <c r="W151" s="2"/>
@@ -14203,7 +14203,7 @@
       <c r="AK151" s="67"/>
     </row>
     <row r="152" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="89"/>
+      <c r="A152" s="102"/>
       <c r="B152" s="43"/>
       <c r="C152" s="43"/>
       <c r="D152" s="43"/>
@@ -14222,7 +14222,7 @@
       <c r="Q152" s="28"/>
       <c r="R152" s="67"/>
       <c r="S152" s="41"/>
-      <c r="T152" s="89"/>
+      <c r="T152" s="102"/>
       <c r="U152" s="34"/>
       <c r="V152" s="1"/>
       <c r="W152" s="2"/>
@@ -14242,7 +14242,7 @@
       <c r="AK152" s="67"/>
     </row>
     <row r="153" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="89"/>
+      <c r="A153" s="102"/>
       <c r="B153" s="43"/>
       <c r="C153" s="43"/>
       <c r="D153" s="44"/>
@@ -14261,7 +14261,7 @@
       <c r="Q153" s="28"/>
       <c r="R153" s="67"/>
       <c r="S153" s="41"/>
-      <c r="T153" s="89"/>
+      <c r="T153" s="102"/>
       <c r="U153" s="34"/>
       <c r="V153" s="1"/>
       <c r="W153" s="2"/>
@@ -14281,7 +14281,7 @@
       <c r="AK153" s="67"/>
     </row>
     <row r="154" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="89"/>
+      <c r="A154" s="102"/>
       <c r="B154" s="47"/>
       <c r="C154" s="48"/>
       <c r="D154" s="48"/>
@@ -14300,7 +14300,7 @@
       <c r="Q154" s="28"/>
       <c r="R154" s="67"/>
       <c r="S154" s="41"/>
-      <c r="T154" s="89"/>
+      <c r="T154" s="102"/>
       <c r="U154" s="34"/>
       <c r="V154" s="1"/>
       <c r="W154" s="2"/>
@@ -14320,7 +14320,7 @@
       <c r="AK154" s="67"/>
     </row>
     <row r="155" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="89"/>
+      <c r="A155" s="102"/>
       <c r="B155" s="43"/>
       <c r="C155" s="43"/>
       <c r="D155" s="43"/>
@@ -14339,7 +14339,7 @@
       <c r="Q155" s="28"/>
       <c r="R155" s="67"/>
       <c r="S155" s="41"/>
-      <c r="T155" s="89"/>
+      <c r="T155" s="102"/>
       <c r="U155" s="34"/>
       <c r="V155" s="1"/>
       <c r="W155" s="2"/>
@@ -14359,7 +14359,7 @@
       <c r="AK155" s="67"/>
     </row>
     <row r="156" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="89"/>
+      <c r="A156" s="102"/>
       <c r="B156" s="43"/>
       <c r="C156" s="43"/>
       <c r="D156" s="43"/>
@@ -14378,7 +14378,7 @@
       <c r="Q156" s="28"/>
       <c r="R156" s="67"/>
       <c r="S156" s="41"/>
-      <c r="T156" s="89"/>
+      <c r="T156" s="102"/>
       <c r="U156" s="34"/>
       <c r="V156" s="1"/>
       <c r="W156" s="2"/>
@@ -14398,7 +14398,7 @@
       <c r="AK156" s="67"/>
     </row>
     <row r="157" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="89"/>
+      <c r="A157" s="102"/>
       <c r="B157" s="43"/>
       <c r="C157" s="43"/>
       <c r="D157" s="43"/>
@@ -14417,7 +14417,7 @@
       <c r="Q157" s="28"/>
       <c r="R157" s="67"/>
       <c r="S157" s="41"/>
-      <c r="T157" s="89"/>
+      <c r="T157" s="102"/>
       <c r="U157" s="34"/>
       <c r="V157" s="1"/>
       <c r="W157" s="2"/>
@@ -14437,7 +14437,7 @@
       <c r="AK157" s="67"/>
     </row>
     <row r="158" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="89"/>
+      <c r="A158" s="102"/>
       <c r="B158" s="43"/>
       <c r="C158" s="43"/>
       <c r="D158" s="43"/>
@@ -14456,7 +14456,7 @@
       <c r="Q158" s="28"/>
       <c r="R158" s="67"/>
       <c r="S158" s="41"/>
-      <c r="T158" s="89"/>
+      <c r="T158" s="102"/>
       <c r="U158" s="34"/>
       <c r="V158" s="1"/>
       <c r="W158" s="2"/>
@@ -14476,7 +14476,7 @@
       <c r="AK158" s="67"/>
     </row>
     <row r="159" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="89"/>
+      <c r="A159" s="102"/>
       <c r="B159" s="43"/>
       <c r="C159" s="43"/>
       <c r="D159" s="43"/>
@@ -14495,7 +14495,7 @@
       <c r="Q159" s="28"/>
       <c r="R159" s="67"/>
       <c r="S159" s="41"/>
-      <c r="T159" s="89"/>
+      <c r="T159" s="102"/>
       <c r="U159" s="34"/>
       <c r="V159" s="1"/>
       <c r="W159" s="2"/>
@@ -14515,7 +14515,7 @@
       <c r="AK159" s="67"/>
     </row>
     <row r="160" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="89"/>
+      <c r="A160" s="102"/>
       <c r="B160" s="43"/>
       <c r="C160" s="43"/>
       <c r="D160" s="43"/>
@@ -14534,7 +14534,7 @@
       <c r="Q160" s="28"/>
       <c r="R160" s="67"/>
       <c r="S160" s="41"/>
-      <c r="T160" s="89"/>
+      <c r="T160" s="102"/>
       <c r="U160" s="34"/>
       <c r="V160" s="1"/>
       <c r="W160" s="2"/>
@@ -14554,7 +14554,7 @@
       <c r="AK160" s="67"/>
     </row>
     <row r="161" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="89"/>
+      <c r="A161" s="102"/>
       <c r="B161" s="43"/>
       <c r="C161" s="43"/>
       <c r="D161" s="43"/>
@@ -14573,7 +14573,7 @@
       <c r="Q161" s="28"/>
       <c r="R161" s="67"/>
       <c r="S161" s="41"/>
-      <c r="T161" s="89"/>
+      <c r="T161" s="102"/>
       <c r="U161" s="34"/>
       <c r="V161" s="1"/>
       <c r="W161" s="2"/>
@@ -14593,7 +14593,7 @@
       <c r="AK161" s="67"/>
     </row>
     <row r="162" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="89"/>
+      <c r="A162" s="102"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -14612,7 +14612,7 @@
       <c r="Q162" s="28"/>
       <c r="R162" s="67"/>
       <c r="S162" s="41"/>
-      <c r="T162" s="89"/>
+      <c r="T162" s="102"/>
       <c r="U162" s="34"/>
       <c r="V162" s="1"/>
       <c r="W162" s="2"/>
@@ -14632,7 +14632,7 @@
       <c r="AK162" s="67"/>
     </row>
     <row r="163" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="89"/>
+      <c r="A163" s="102"/>
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
       <c r="D163" s="44"/>
@@ -14651,7 +14651,7 @@
       <c r="Q163" s="28"/>
       <c r="R163" s="67"/>
       <c r="S163" s="41"/>
-      <c r="T163" s="89"/>
+      <c r="T163" s="102"/>
       <c r="U163" s="34"/>
       <c r="V163" s="1"/>
       <c r="W163" s="2"/>
@@ -14671,7 +14671,7 @@
       <c r="AK163" s="67"/>
     </row>
     <row r="164" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="89"/>
+      <c r="A164" s="102"/>
       <c r="B164" s="43"/>
       <c r="C164" s="43"/>
       <c r="D164" s="44"/>
@@ -14690,7 +14690,7 @@
       <c r="Q164" s="28"/>
       <c r="R164" s="67"/>
       <c r="S164" s="41"/>
-      <c r="T164" s="89"/>
+      <c r="T164" s="102"/>
       <c r="U164" s="34"/>
       <c r="V164" s="1"/>
       <c r="W164" s="2"/>
@@ -14710,7 +14710,7 @@
       <c r="AK164" s="67"/>
     </row>
     <row r="165" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="89"/>
+      <c r="A165" s="102"/>
       <c r="B165" s="46"/>
       <c r="C165" s="43"/>
       <c r="D165" s="44"/>
@@ -14729,7 +14729,7 @@
       <c r="Q165" s="28"/>
       <c r="R165" s="67"/>
       <c r="S165" s="41"/>
-      <c r="T165" s="89"/>
+      <c r="T165" s="102"/>
       <c r="U165" s="34"/>
       <c r="V165" s="1"/>
       <c r="W165" s="2"/>
@@ -14749,7 +14749,7 @@
       <c r="AK165" s="67"/>
     </row>
     <row r="166" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="89"/>
+      <c r="A166" s="102"/>
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
       <c r="D166" s="44"/>
@@ -14768,7 +14768,7 @@
       <c r="Q166" s="28"/>
       <c r="R166" s="67"/>
       <c r="S166" s="41"/>
-      <c r="T166" s="89"/>
+      <c r="T166" s="102"/>
       <c r="U166" s="34"/>
       <c r="V166" s="1"/>
       <c r="W166" s="2"/>
@@ -14808,24 +14808,66 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="AH73:AJ73"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AH72:AJ72"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="Y141:AA141"/>
+    <mergeCell ref="AB141:AD141"/>
+    <mergeCell ref="AE141:AG141"/>
+    <mergeCell ref="AH141:AJ141"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="L143:N143"/>
+    <mergeCell ref="O143:Q143"/>
+    <mergeCell ref="Y142:AA142"/>
+    <mergeCell ref="AB142:AD142"/>
+    <mergeCell ref="AE142:AG142"/>
+    <mergeCell ref="AH142:AJ142"/>
+    <mergeCell ref="A114:A136"/>
+    <mergeCell ref="T114:T136"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="I142:K142"/>
+    <mergeCell ref="L142:N142"/>
+    <mergeCell ref="O142:Q142"/>
+    <mergeCell ref="A144:A166"/>
+    <mergeCell ref="T144:T166"/>
+    <mergeCell ref="AB111:AD111"/>
+    <mergeCell ref="AE111:AG111"/>
+    <mergeCell ref="AH111:AJ111"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="I113:K113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="Y112:AA112"/>
+    <mergeCell ref="AB112:AD112"/>
+    <mergeCell ref="AE112:AG112"/>
+    <mergeCell ref="AH112:AJ112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="I112:K112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="O112:Q112"/>
+    <mergeCell ref="Y111:AA111"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A75:A108"/>
+    <mergeCell ref="T46:T70"/>
+    <mergeCell ref="T75:T108"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE43:AG43"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="T5:T41"/>
     <mergeCell ref="AB72:AD72"/>
     <mergeCell ref="AE72:AG72"/>
     <mergeCell ref="AB73:AD73"/>
@@ -14842,744 +14884,702 @@
     <mergeCell ref="Y44:AA44"/>
     <mergeCell ref="Y72:AA72"/>
     <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE43:AG43"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="T5:T41"/>
-    <mergeCell ref="O112:Q112"/>
-    <mergeCell ref="Y111:AA111"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A75:A108"/>
-    <mergeCell ref="T46:T70"/>
-    <mergeCell ref="T75:T108"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A144:A166"/>
-    <mergeCell ref="T144:T166"/>
-    <mergeCell ref="AB111:AD111"/>
-    <mergeCell ref="AE111:AG111"/>
-    <mergeCell ref="AH111:AJ111"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="I113:K113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="O113:Q113"/>
-    <mergeCell ref="Y112:AA112"/>
-    <mergeCell ref="AB112:AD112"/>
-    <mergeCell ref="AE112:AG112"/>
-    <mergeCell ref="AH112:AJ112"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="I112:K112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="A114:A136"/>
-    <mergeCell ref="T114:T136"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="I142:K142"/>
-    <mergeCell ref="L142:N142"/>
-    <mergeCell ref="O142:Q142"/>
-    <mergeCell ref="Y141:AA141"/>
-    <mergeCell ref="AB141:AD141"/>
-    <mergeCell ref="AE141:AG141"/>
-    <mergeCell ref="AH141:AJ141"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="L143:N143"/>
-    <mergeCell ref="O143:Q143"/>
-    <mergeCell ref="Y142:AA142"/>
-    <mergeCell ref="AB142:AD142"/>
-    <mergeCell ref="AE142:AG142"/>
-    <mergeCell ref="AH142:AJ142"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="AH73:AJ73"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AH43:AJ43"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AH72:AJ72"/>
   </mergeCells>
   <conditionalFormatting sqref="AB75:AG83 AB5:AG15 I76:N76 I50:L50 N50 I51:N72 I5:N42 I79:N79 I81:N84 I86:N104 I107:N109 I120:N132 AB119:AG136 O115:Q136 AH114:AJ135 F115:H137 Y114:AA136 Y46:AG70 O46:Q61 F46:H71 I46:N49 AH46:AJ60">
-    <cfRule type="containsText" dxfId="177" priority="936" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="377" priority="936" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="937" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="376" priority="937" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB75:AG83 AB5:AG15 I76:N76 I50:L50 N50 I51:N72 I5:N42 I79:N79 I81:N84 I86:N104 I107:N109 I120:N132 AB119:AG136 O115:Q136 AH114:AJ135 F115:H137 Y114:AA136 Y46:AG70 O46:Q61 F46:H71 I46:N49 AH46:AJ60">
-    <cfRule type="cellIs" dxfId="175" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="933" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="934" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="934" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="935" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="373" priority="935" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50">
-    <cfRule type="containsText" dxfId="172" priority="706" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="372" priority="706" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",M50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50">
-    <cfRule type="cellIs" dxfId="171" priority="705" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="705" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16:AG41">
-    <cfRule type="containsText" dxfId="170" priority="451" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="370" priority="451" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AB16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="452" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="369" priority="452" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",AB16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16:AG41">
-    <cfRule type="cellIs" dxfId="168" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="448" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="449" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="450" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="366" priority="450" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB84:AG108">
-    <cfRule type="containsText" dxfId="165" priority="428" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="365" priority="428" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AB84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="429" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="364" priority="429" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",AB84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB84:AG108">
-    <cfRule type="cellIs" dxfId="163" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="425" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="426" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="427" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="361" priority="427" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46 T46 A75 T75">
-    <cfRule type="containsText" dxfId="160" priority="215" operator="containsText" text="Bud">
+    <cfRule type="containsText" dxfId="360" priority="215" operator="containsText" text="Bud">
       <formula>NOT(ISERROR(SEARCH("Bud",A46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="216" operator="containsText" text="Blue">
+    <cfRule type="containsText" dxfId="359" priority="216" operator="containsText" text="Blue">
       <formula>NOT(ISERROR(SEARCH("Blue",A46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:N77">
-    <cfRule type="containsText" dxfId="158" priority="213" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="358" priority="213" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="214" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="357" priority="214" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77:N77">
-    <cfRule type="cellIs" dxfId="156" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="210" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="211" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="212" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="354" priority="212" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:N78">
-    <cfRule type="containsText" dxfId="153" priority="208" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="353" priority="208" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="209" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="352" priority="209" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:N78">
-    <cfRule type="cellIs" dxfId="151" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="205" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="206" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="207" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="349" priority="207" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:N80">
-    <cfRule type="containsText" dxfId="148" priority="203" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="348" priority="203" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="204" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="347" priority="204" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:N80">
-    <cfRule type="cellIs" dxfId="146" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="200" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="201" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="202" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="344" priority="202" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:N85">
-    <cfRule type="containsText" dxfId="143" priority="198" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="343" priority="198" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="199" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="342" priority="199" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:N85">
-    <cfRule type="cellIs" dxfId="141" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="195" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="196" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="197" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="197" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105:N105">
-    <cfRule type="containsText" dxfId="138" priority="193" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="338" priority="193" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="194" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="337" priority="194" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105:N105">
-    <cfRule type="cellIs" dxfId="136" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="190" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="191" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="192" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="334" priority="192" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106:N106">
-    <cfRule type="containsText" dxfId="133" priority="188" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="333" priority="188" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="189" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="332" priority="189" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106:N106">
-    <cfRule type="cellIs" dxfId="131" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="185" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="186" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="187" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="187" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:Q41">
-    <cfRule type="containsText" dxfId="128" priority="183" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="328" priority="183" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="184" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="327" priority="184" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:Q41">
-    <cfRule type="cellIs" dxfId="126" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="180" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="181" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="182" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="182" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O62:Q71">
-    <cfRule type="containsText" dxfId="123" priority="173" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="323" priority="173" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",O62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="174" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="322" priority="174" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",O62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O62:Q71">
-    <cfRule type="cellIs" dxfId="121" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="170" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="171" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="172" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="319" priority="172" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O109:Q109">
-    <cfRule type="containsText" dxfId="118" priority="168" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="318" priority="168" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",O109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="169" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="317" priority="169" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",O109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O109:Q109">
-    <cfRule type="cellIs" dxfId="116" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="165" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="166" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="167" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="167" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O76:Q108">
-    <cfRule type="containsText" dxfId="113" priority="163" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="313" priority="163" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",O76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="164" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="312" priority="164" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",O76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O76:Q108">
-    <cfRule type="cellIs" dxfId="111" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="160" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="161" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="162" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="162" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AJ41">
-    <cfRule type="containsText" dxfId="108" priority="158" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="308" priority="158" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AH5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="159" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="307" priority="159" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",AH5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AJ41">
-    <cfRule type="cellIs" dxfId="106" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="155" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="156" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="157" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="157" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH75:AJ107">
-    <cfRule type="containsText" dxfId="103" priority="148" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="303" priority="148" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AH75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="149" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="302" priority="149" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",AH75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH75:AJ107">
-    <cfRule type="cellIs" dxfId="101" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="145" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="146" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="147" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="299" priority="147" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AA41">
-    <cfRule type="containsText" dxfId="98" priority="138" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="298" priority="138" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",Y5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="139" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="297" priority="139" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",Y5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AA41">
-    <cfRule type="cellIs" dxfId="96" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="135" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="136" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="137" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:H41">
-    <cfRule type="containsText" dxfId="93" priority="133" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="293" priority="133" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="134" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="292" priority="134" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:H41">
-    <cfRule type="cellIs" dxfId="91" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="130" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="131" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="132" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:H109">
-    <cfRule type="containsText" dxfId="88" priority="118" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="288" priority="118" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",F76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="119" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="287" priority="119" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:H109">
-    <cfRule type="cellIs" dxfId="86" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="115" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="116" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="117" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y75:AA108">
-    <cfRule type="containsText" dxfId="83" priority="113" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="283" priority="113" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",Y75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="114" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="282" priority="114" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",Y75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y75:AA108">
-    <cfRule type="cellIs" dxfId="81" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="110" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="111" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="112" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB114:AG118 I115:N115 I118:N118 I135:N137">
-    <cfRule type="containsText" dxfId="78" priority="108" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="278" priority="108" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="109" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="277" priority="109" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB114:AG118 I115:N115 I118:N118 I135:N137">
-    <cfRule type="cellIs" dxfId="76" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="105" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="106" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="274" priority="107" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114 T114">
-    <cfRule type="containsText" dxfId="73" priority="98" operator="containsText" text="Bud">
+    <cfRule type="containsText" dxfId="273" priority="98" operator="containsText" text="Bud">
       <formula>NOT(ISERROR(SEARCH("Bud",A114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="99" operator="containsText" text="Blue">
+    <cfRule type="containsText" dxfId="272" priority="99" operator="containsText" text="Blue">
       <formula>NOT(ISERROR(SEARCH("Blue",A114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116:N116">
-    <cfRule type="containsText" dxfId="71" priority="96" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="271" priority="96" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="97" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="270" priority="97" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116:N116">
-    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="93" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="94" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="95" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117:N117">
-    <cfRule type="containsText" dxfId="66" priority="91" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="266" priority="91" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="92" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="265" priority="92" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117:N117">
-    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="88" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="89" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119:N119">
-    <cfRule type="containsText" dxfId="61" priority="86" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="261" priority="86" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="87" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="260" priority="87" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119:N119">
-    <cfRule type="cellIs" dxfId="59" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="83" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="84" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="85" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133:N133">
-    <cfRule type="containsText" dxfId="56" priority="76" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="256" priority="76" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I133)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="77" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="255" priority="77" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133:N133">
-    <cfRule type="cellIs" dxfId="54" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="73" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="74" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="75" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:N134">
-    <cfRule type="containsText" dxfId="51" priority="71" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="251" priority="71" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="72" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="250" priority="72" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134:N134">
-    <cfRule type="cellIs" dxfId="49" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="68" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O137:Q137">
-    <cfRule type="containsText" dxfId="46" priority="66" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="246" priority="66" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",O137)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="67" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="245" priority="67" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",O137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O137:Q137">
-    <cfRule type="cellIs" dxfId="44" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="63" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="64" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="65" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I150:N162 AB149:AG166 O145:Q166 AH144:AJ165 F145:H167 Y144:AA166">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="241" priority="41" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",F144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="240" priority="42" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",F144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I150:N162 AB149:AG166 O145:Q166 AH144:AJ165 F145:H167 Y144:AA166">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB144:AG148 I145:N145 I148:N148 I165:N167">
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="236" priority="36" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="235" priority="37" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB144:AG148 I145:N145 I148:N148 I165:N167">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="33" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144 T144">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Bud">
+    <cfRule type="containsText" dxfId="231" priority="31" operator="containsText" text="Bud">
       <formula>NOT(ISERROR(SEARCH("Bud",A144)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Blue">
+    <cfRule type="containsText" dxfId="230" priority="32" operator="containsText" text="Blue">
       <formula>NOT(ISERROR(SEARCH("Blue",A144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I146:N146">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="229" priority="29" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="228" priority="30" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I146:N146">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I147:N147">
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="224" priority="24" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="223" priority="25" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I147:N147">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="21" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149:N149">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="219" priority="19" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="218" priority="20" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149:N149">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I163:N163">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="214" priority="14" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="213" priority="15" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I163:N163">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="11" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I164:N164">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="209" priority="9" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",I164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="208" priority="10" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",I164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I164:N164">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O167:Q167">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="204" priority="4" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",O167)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="203" priority="5" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",O167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O167:Q167">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wknd_Sched_Builder/SampPoll.xlsx
+++ b/Wknd_Sched_Builder/SampPoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9232D467-6019-4078-9B46-1C3845FA2474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8DE069-ED45-45B2-9906-D3DF3C7225FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="23790" windowHeight="14085" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30675" yWindow="1875" windowWidth="21600" windowHeight="11235" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="38">
   <si>
     <t xml:space="preserve">Please indicate 4, 8 or 12 hour preference       </t>
   </si>
@@ -690,6 +690,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,43 +711,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,16 +750,22 @@
     <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -7907,7 +7907,7 @@
   <dimension ref="A1:BH167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7940,12 +7940,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
@@ -8003,28 +8003,28 @@
       <c r="BG1" s="16"/>
     </row>
     <row r="2" spans="1:59" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
       <c r="O2" s="82" t="s">
         <v>19</v>
       </c>
@@ -8037,21 +8037,21 @@
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
-      <c r="Y2" s="83" t="s">
+      <c r="Y2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="84" t="s">
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85" t="s">
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
       <c r="AH2" s="82" t="s">
         <v>19</v>
       </c>
@@ -8089,26 +8089,26 @@
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="79" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="79" t="s">
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="79" t="s">
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="81"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="85"/>
       <c r="R3" s="35"/>
       <c r="S3" s="36"/>
       <c r="T3" s="92" t="s">
@@ -8118,26 +8118,26 @@
       <c r="V3" s="92"/>
       <c r="W3" s="92"/>
       <c r="X3" s="23"/>
-      <c r="Y3" s="79" t="s">
+      <c r="Y3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="79" t="s">
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="79" t="s">
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="79" t="s">
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="81"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="85"/>
       <c r="AK3" s="35"/>
     </row>
     <row r="4" spans="1:59" s="16" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8252,7 +8252,7 @@
       </c>
     </row>
     <row r="5" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="99" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="52"/>
@@ -8273,7 +8273,7 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="70"/>
       <c r="S5" s="10"/>
-      <c r="T5" s="86" t="s">
+      <c r="T5" s="99" t="s">
         <v>2</v>
       </c>
       <c r="U5" s="52"/>
@@ -8295,7 +8295,7 @@
       <c r="AK5" s="72"/>
     </row>
     <row r="6" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -8314,7 +8314,7 @@
       <c r="Q6" s="28"/>
       <c r="R6" s="65"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="87"/>
+      <c r="T6" s="100"/>
       <c r="U6" s="43"/>
       <c r="V6" s="43"/>
       <c r="W6" s="44"/>
@@ -8334,7 +8334,7 @@
       <c r="AK6" s="65"/>
     </row>
     <row r="7" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -8353,7 +8353,7 @@
       <c r="Q7" s="28"/>
       <c r="R7" s="30"/>
       <c r="S7" s="38"/>
-      <c r="T7" s="87"/>
+      <c r="T7" s="100"/>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
       <c r="W7" s="44"/>
@@ -8373,7 +8373,7 @@
       <c r="AK7" s="30"/>
     </row>
     <row r="8" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -8392,7 +8392,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="65"/>
       <c r="S8" s="38"/>
-      <c r="T8" s="87"/>
+      <c r="T8" s="100"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
       <c r="W8" s="44"/>
@@ -8412,7 +8412,7 @@
       <c r="AK8" s="65"/>
     </row>
     <row r="9" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
@@ -8431,7 +8431,7 @@
       <c r="Q9" s="28"/>
       <c r="R9" s="30"/>
       <c r="S9" s="38"/>
-      <c r="T9" s="87"/>
+      <c r="T9" s="100"/>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
       <c r="W9" s="44"/>
@@ -8451,7 +8451,7 @@
       <c r="AK9" s="30"/>
     </row>
     <row r="10" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -8470,7 +8470,7 @@
       <c r="Q10" s="28"/>
       <c r="R10" s="30"/>
       <c r="S10" s="38"/>
-      <c r="T10" s="87"/>
+      <c r="T10" s="100"/>
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
       <c r="W10" s="44"/>
@@ -8490,7 +8490,7 @@
       <c r="AK10" s="30"/>
     </row>
     <row r="11" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="47"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
@@ -8509,7 +8509,7 @@
       <c r="Q11" s="28"/>
       <c r="R11" s="30"/>
       <c r="S11" s="38"/>
-      <c r="T11" s="87"/>
+      <c r="T11" s="100"/>
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
       <c r="W11" s="44"/>
@@ -8529,7 +8529,7 @@
       <c r="AK11" s="30"/>
     </row>
     <row r="12" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="46"/>
       <c r="C12" s="43"/>
       <c r="D12" s="44"/>
@@ -8548,7 +8548,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="30"/>
       <c r="S12" s="38"/>
-      <c r="T12" s="87"/>
+      <c r="T12" s="100"/>
       <c r="U12" s="46"/>
       <c r="V12" s="43"/>
       <c r="W12" s="44"/>
@@ -8568,7 +8568,7 @@
       <c r="AK12" s="30"/>
     </row>
     <row r="13" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8587,7 +8587,7 @@
       <c r="Q13" s="28"/>
       <c r="R13" s="30"/>
       <c r="S13" s="38"/>
-      <c r="T13" s="87"/>
+      <c r="T13" s="100"/>
       <c r="U13" s="53"/>
       <c r="V13" s="51"/>
       <c r="W13" s="51"/>
@@ -8607,7 +8607,7 @@
       <c r="AK13" s="30"/>
     </row>
     <row r="14" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="44"/>
@@ -8626,7 +8626,7 @@
       <c r="Q14" s="28"/>
       <c r="R14" s="30"/>
       <c r="S14" s="38"/>
-      <c r="T14" s="87"/>
+      <c r="T14" s="100"/>
       <c r="U14" s="53"/>
       <c r="V14" s="51"/>
       <c r="W14" s="51"/>
@@ -8646,7 +8646,7 @@
       <c r="AK14" s="30"/>
     </row>
     <row r="15" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="47"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -8665,7 +8665,7 @@
       <c r="Q15" s="28"/>
       <c r="R15" s="30"/>
       <c r="S15" s="38"/>
-      <c r="T15" s="87"/>
+      <c r="T15" s="100"/>
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
       <c r="W15" s="44"/>
@@ -8685,7 +8685,7 @@
       <c r="AK15" s="30"/>
     </row>
     <row r="16" spans="1:59" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -8704,7 +8704,7 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="30"/>
       <c r="S16" s="38"/>
-      <c r="T16" s="87"/>
+      <c r="T16" s="100"/>
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
       <c r="W16" s="44"/>
@@ -8724,7 +8724,7 @@
       <c r="AK16" s="30"/>
     </row>
     <row r="17" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="53"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -8743,7 +8743,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="30"/>
       <c r="S17" s="38"/>
-      <c r="T17" s="87"/>
+      <c r="T17" s="100"/>
       <c r="U17" s="53"/>
       <c r="V17" s="51"/>
       <c r="W17" s="51"/>
@@ -8763,7 +8763,7 @@
       <c r="AK17" s="30"/>
     </row>
     <row r="18" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="53"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
@@ -8782,7 +8782,7 @@
       <c r="Q18" s="28"/>
       <c r="R18" s="30"/>
       <c r="S18" s="38"/>
-      <c r="T18" s="87"/>
+      <c r="T18" s="100"/>
       <c r="U18" s="54"/>
       <c r="V18" s="43"/>
       <c r="W18" s="44"/>
@@ -8802,7 +8802,7 @@
       <c r="AK18" s="30"/>
     </row>
     <row r="19" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="87"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -8821,7 +8821,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="30"/>
       <c r="S19" s="38"/>
-      <c r="T19" s="87"/>
+      <c r="T19" s="100"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="44"/>
@@ -8841,7 +8841,7 @@
       <c r="AK19" s="30"/>
     </row>
     <row r="20" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="54"/>
       <c r="C20" s="43"/>
       <c r="D20" s="44"/>
@@ -8860,7 +8860,7 @@
       <c r="Q20" s="28"/>
       <c r="R20" s="30"/>
       <c r="S20" s="38"/>
-      <c r="T20" s="87"/>
+      <c r="T20" s="100"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="44"/>
@@ -8880,7 +8880,7 @@
       <c r="AK20" s="30"/>
     </row>
     <row r="21" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="44"/>
@@ -8899,7 +8899,7 @@
       <c r="Q21" s="28"/>
       <c r="R21" s="30"/>
       <c r="S21" s="38"/>
-      <c r="T21" s="87"/>
+      <c r="T21" s="100"/>
       <c r="U21" s="54"/>
       <c r="V21" s="43"/>
       <c r="W21" s="44"/>
@@ -8919,7 +8919,7 @@
       <c r="AK21" s="30"/>
     </row>
     <row r="22" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
@@ -8938,7 +8938,7 @@
       <c r="Q22" s="28"/>
       <c r="R22" s="30"/>
       <c r="S22" s="38"/>
-      <c r="T22" s="87"/>
+      <c r="T22" s="100"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
       <c r="W22" s="44"/>
@@ -8958,7 +8958,7 @@
       <c r="AK22" s="30"/>
     </row>
     <row r="23" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="54"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
@@ -8977,7 +8977,7 @@
       <c r="Q23" s="28"/>
       <c r="R23" s="30"/>
       <c r="S23" s="38"/>
-      <c r="T23" s="87"/>
+      <c r="T23" s="100"/>
       <c r="U23" s="31"/>
       <c r="V23" s="1"/>
       <c r="W23" s="2"/>
@@ -8997,7 +8997,7 @@
       <c r="AK23" s="30"/>
     </row>
     <row r="24" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -9016,7 +9016,7 @@
       <c r="Q24" s="28"/>
       <c r="R24" s="30"/>
       <c r="S24" s="38"/>
-      <c r="T24" s="87"/>
+      <c r="T24" s="100"/>
       <c r="U24" s="31"/>
       <c r="V24" s="1"/>
       <c r="W24" s="2"/>
@@ -9036,7 +9036,7 @@
       <c r="AK24" s="30"/>
     </row>
     <row r="25" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
@@ -9055,7 +9055,7 @@
       <c r="Q25" s="28"/>
       <c r="R25" s="30"/>
       <c r="S25" s="38"/>
-      <c r="T25" s="87"/>
+      <c r="T25" s="100"/>
       <c r="U25" s="31"/>
       <c r="V25" s="1"/>
       <c r="W25" s="2"/>
@@ -9075,7 +9075,7 @@
       <c r="AK25" s="30"/>
     </row>
     <row r="26" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -9094,7 +9094,7 @@
       <c r="Q26" s="28"/>
       <c r="R26" s="30"/>
       <c r="S26" s="38"/>
-      <c r="T26" s="87"/>
+      <c r="T26" s="100"/>
       <c r="U26" s="31"/>
       <c r="V26" s="1"/>
       <c r="W26" s="2"/>
@@ -9114,7 +9114,7 @@
       <c r="AK26" s="30"/>
     </row>
     <row r="27" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -9133,7 +9133,7 @@
       <c r="Q27" s="28"/>
       <c r="R27" s="30"/>
       <c r="S27" s="38"/>
-      <c r="T27" s="87"/>
+      <c r="T27" s="100"/>
       <c r="U27" s="31"/>
       <c r="V27" s="1"/>
       <c r="W27" s="2"/>
@@ -9153,7 +9153,7 @@
       <c r="AK27" s="30"/>
     </row>
     <row r="28" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -9172,7 +9172,7 @@
       <c r="Q28" s="28"/>
       <c r="R28" s="30"/>
       <c r="S28" s="38"/>
-      <c r="T28" s="87"/>
+      <c r="T28" s="100"/>
       <c r="U28" s="31"/>
       <c r="V28" s="1"/>
       <c r="W28" s="2"/>
@@ -9192,7 +9192,7 @@
       <c r="AK28" s="30"/>
     </row>
     <row r="29" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -9211,7 +9211,7 @@
       <c r="Q29" s="28"/>
       <c r="R29" s="30"/>
       <c r="S29" s="38"/>
-      <c r="T29" s="87"/>
+      <c r="T29" s="100"/>
       <c r="U29" s="31"/>
       <c r="V29" s="1"/>
       <c r="W29" s="2"/>
@@ -9231,7 +9231,7 @@
       <c r="AK29" s="30"/>
     </row>
     <row r="30" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -9250,7 +9250,7 @@
       <c r="Q30" s="28"/>
       <c r="R30" s="30"/>
       <c r="S30" s="38"/>
-      <c r="T30" s="87"/>
+      <c r="T30" s="100"/>
       <c r="U30" s="31"/>
       <c r="V30" s="1"/>
       <c r="W30" s="2"/>
@@ -9270,7 +9270,7 @@
       <c r="AK30" s="30"/>
     </row>
     <row r="31" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -9289,7 +9289,7 @@
       <c r="Q31" s="28"/>
       <c r="R31" s="30"/>
       <c r="S31" s="38"/>
-      <c r="T31" s="87"/>
+      <c r="T31" s="100"/>
       <c r="U31" s="31"/>
       <c r="V31" s="1"/>
       <c r="W31" s="2"/>
@@ -9309,7 +9309,7 @@
       <c r="AK31" s="30"/>
     </row>
     <row r="32" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -9328,7 +9328,7 @@
       <c r="Q32" s="28"/>
       <c r="R32" s="30"/>
       <c r="S32" s="38"/>
-      <c r="T32" s="87"/>
+      <c r="T32" s="100"/>
       <c r="U32" s="31"/>
       <c r="V32" s="1"/>
       <c r="W32" s="2"/>
@@ -9348,7 +9348,7 @@
       <c r="AK32" s="30"/>
     </row>
     <row r="33" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -9367,7 +9367,7 @@
       <c r="Q33" s="28"/>
       <c r="R33" s="30"/>
       <c r="S33" s="38"/>
-      <c r="T33" s="87"/>
+      <c r="T33" s="100"/>
       <c r="U33" s="31"/>
       <c r="V33" s="1"/>
       <c r="W33" s="2"/>
@@ -9387,7 +9387,7 @@
       <c r="AK33" s="30"/>
     </row>
     <row r="34" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -9406,7 +9406,7 @@
       <c r="Q34" s="28"/>
       <c r="R34" s="30"/>
       <c r="S34" s="38"/>
-      <c r="T34" s="87"/>
+      <c r="T34" s="100"/>
       <c r="U34" s="31"/>
       <c r="V34" s="1"/>
       <c r="W34" s="2"/>
@@ -9426,7 +9426,7 @@
       <c r="AK34" s="30"/>
     </row>
     <row r="35" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -9445,7 +9445,7 @@
       <c r="Q35" s="28"/>
       <c r="R35" s="30"/>
       <c r="S35" s="38"/>
-      <c r="T35" s="87"/>
+      <c r="T35" s="100"/>
       <c r="U35" s="31"/>
       <c r="V35" s="1"/>
       <c r="W35" s="2"/>
@@ -9465,7 +9465,7 @@
       <c r="AK35" s="30"/>
     </row>
     <row r="36" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="87"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -9484,7 +9484,7 @@
       <c r="Q36" s="28"/>
       <c r="R36" s="30"/>
       <c r="S36" s="38"/>
-      <c r="T36" s="87"/>
+      <c r="T36" s="100"/>
       <c r="U36" s="31"/>
       <c r="V36" s="1"/>
       <c r="W36" s="2"/>
@@ -9504,7 +9504,7 @@
       <c r="AK36" s="30"/>
     </row>
     <row r="37" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
@@ -9523,7 +9523,7 @@
       <c r="Q37" s="28"/>
       <c r="R37" s="30"/>
       <c r="S37" s="38"/>
-      <c r="T37" s="87"/>
+      <c r="T37" s="100"/>
       <c r="U37" s="31"/>
       <c r="V37" s="1"/>
       <c r="W37" s="2"/>
@@ -9543,7 +9543,7 @@
       <c r="AK37" s="30"/>
     </row>
     <row r="38" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="53"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
@@ -9562,7 +9562,7 @@
       <c r="Q38" s="28"/>
       <c r="R38" s="30"/>
       <c r="S38" s="38"/>
-      <c r="T38" s="87"/>
+      <c r="T38" s="100"/>
       <c r="U38" s="31"/>
       <c r="V38" s="1"/>
       <c r="W38" s="2"/>
@@ -9582,7 +9582,7 @@
       <c r="AK38" s="30"/>
     </row>
     <row r="39" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="53"/>
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
@@ -9601,7 +9601,7 @@
       <c r="Q39" s="28"/>
       <c r="R39" s="30"/>
       <c r="S39" s="38"/>
-      <c r="T39" s="87"/>
+      <c r="T39" s="100"/>
       <c r="U39" s="31"/>
       <c r="V39" s="1"/>
       <c r="W39" s="2"/>
@@ -9621,7 +9621,7 @@
       <c r="AK39" s="30"/>
     </row>
     <row r="40" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="54"/>
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
@@ -9640,7 +9640,7 @@
       <c r="Q40" s="28"/>
       <c r="R40" s="30"/>
       <c r="S40" s="38"/>
-      <c r="T40" s="87"/>
+      <c r="T40" s="100"/>
       <c r="U40" s="31"/>
       <c r="V40" s="1"/>
       <c r="W40" s="2"/>
@@ -9660,7 +9660,7 @@
       <c r="AK40" s="30"/>
     </row>
     <row r="41" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="88"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -9679,7 +9679,7 @@
       <c r="Q41" s="28"/>
       <c r="R41" s="30"/>
       <c r="S41" s="39"/>
-      <c r="T41" s="88"/>
+      <c r="T41" s="101"/>
       <c r="U41" s="31"/>
       <c r="V41" s="1"/>
       <c r="W41" s="2"/>
@@ -9725,21 +9725,21 @@
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="83" t="s">
+      <c r="F43" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84" t="s">
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="85" t="s">
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
       <c r="O43" s="82" t="s">
         <v>19</v>
       </c>
@@ -9752,21 +9752,21 @@
       <c r="V43" s="22"/>
       <c r="W43" s="22"/>
       <c r="X43" s="22"/>
-      <c r="Y43" s="83" t="s">
+      <c r="Y43" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="Z43" s="83"/>
-      <c r="AA43" s="83"/>
-      <c r="AB43" s="84" t="s">
+      <c r="Z43" s="79"/>
+      <c r="AA43" s="79"/>
+      <c r="AB43" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AC43" s="84"/>
-      <c r="AD43" s="84"/>
-      <c r="AE43" s="85" t="s">
+      <c r="AC43" s="80"/>
+      <c r="AD43" s="80"/>
+      <c r="AE43" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AF43" s="85"/>
-      <c r="AG43" s="85"/>
+      <c r="AF43" s="81"/>
+      <c r="AG43" s="81"/>
       <c r="AH43" s="82" t="s">
         <v>19</v>
       </c>
@@ -9798,49 +9798,49 @@
       <c r="BH43" s="16"/>
     </row>
     <row r="44" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="80"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="79" t="s">
+      <c r="G44" s="84"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="80"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="79" t="s">
+      <c r="J44" s="84"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="80"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="79" t="s">
+      <c r="M44" s="84"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="81"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="85"/>
       <c r="R44" s="35"/>
       <c r="S44" s="36"/>
       <c r="U44" s="18"/>
-      <c r="Y44" s="79" t="s">
+      <c r="Y44" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="Z44" s="80"/>
-      <c r="AA44" s="81"/>
-      <c r="AB44" s="79" t="s">
+      <c r="Z44" s="84"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AC44" s="80"/>
-      <c r="AD44" s="81"/>
-      <c r="AE44" s="79" t="s">
+      <c r="AC44" s="84"/>
+      <c r="AD44" s="85"/>
+      <c r="AE44" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AF44" s="80"/>
-      <c r="AG44" s="81"/>
-      <c r="AH44" s="79" t="s">
+      <c r="AF44" s="84"/>
+      <c r="AG44" s="85"/>
+      <c r="AH44" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AI44" s="80"/>
-      <c r="AJ44" s="81"/>
+      <c r="AI44" s="84"/>
+      <c r="AJ44" s="85"/>
       <c r="AK44" s="35"/>
     </row>
     <row r="45" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9955,7 +9955,7 @@
       </c>
     </row>
     <row r="46" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="102" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="46">
@@ -9979,8 +9979,8 @@
       <c r="J46" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="56">
-        <v>8</v>
+      <c r="K46" s="56" t="s">
+        <v>36</v>
       </c>
       <c r="L46" s="56">
         <v>4</v>
@@ -9996,7 +9996,7 @@
       <c r="Q46" s="56"/>
       <c r="R46" s="73"/>
       <c r="S46" s="11"/>
-      <c r="T46" s="97" t="s">
+      <c r="T46" s="95" t="s">
         <v>4</v>
       </c>
       <c r="U46" s="74"/>
@@ -10018,7 +10018,7 @@
       <c r="AK46" s="73"/>
     </row>
     <row r="47" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="90"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
       <c r="D47" s="44"/>
@@ -10037,7 +10037,7 @@
       <c r="Q47" s="28"/>
       <c r="R47" s="30"/>
       <c r="S47" s="40"/>
-      <c r="T47" s="98"/>
+      <c r="T47" s="96"/>
       <c r="U47" s="43"/>
       <c r="V47" s="43"/>
       <c r="W47" s="44"/>
@@ -10057,7 +10057,7 @@
       <c r="AK47" s="30"/>
     </row>
     <row r="48" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="90"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
       <c r="D48" s="44"/>
@@ -10076,7 +10076,7 @@
       <c r="Q48" s="28"/>
       <c r="R48" s="30"/>
       <c r="S48" s="40"/>
-      <c r="T48" s="98"/>
+      <c r="T48" s="96"/>
       <c r="U48" s="43"/>
       <c r="V48" s="43"/>
       <c r="W48" s="44"/>
@@ -10096,7 +10096,7 @@
       <c r="AK48" s="30"/>
     </row>
     <row r="49" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="90"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
       <c r="D49" s="44"/>
@@ -10115,7 +10115,7 @@
       <c r="Q49" s="28"/>
       <c r="R49" s="30"/>
       <c r="S49" s="40"/>
-      <c r="T49" s="98"/>
+      <c r="T49" s="96"/>
       <c r="U49" s="54"/>
       <c r="V49" s="43"/>
       <c r="W49" s="44"/>
@@ -10135,7 +10135,7 @@
       <c r="AK49" s="30"/>
     </row>
     <row r="50" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="90"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="53"/>
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
@@ -10154,7 +10154,7 @@
       <c r="Q50" s="28"/>
       <c r="R50" s="30"/>
       <c r="S50" s="40"/>
-      <c r="T50" s="98"/>
+      <c r="T50" s="96"/>
       <c r="U50" s="53"/>
       <c r="V50" s="51"/>
       <c r="W50" s="51"/>
@@ -10174,7 +10174,7 @@
       <c r="AK50" s="30"/>
     </row>
     <row r="51" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="90"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="46"/>
       <c r="C51" s="43"/>
       <c r="D51" s="44"/>
@@ -10193,7 +10193,7 @@
       <c r="Q51" s="28"/>
       <c r="R51" s="30"/>
       <c r="S51" s="40"/>
-      <c r="T51" s="98"/>
+      <c r="T51" s="96"/>
       <c r="U51" s="53"/>
       <c r="V51" s="51"/>
       <c r="W51" s="51"/>
@@ -10213,7 +10213,7 @@
       <c r="AK51" s="30"/>
     </row>
     <row r="52" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -10232,7 +10232,7 @@
       <c r="Q52" s="28"/>
       <c r="R52" s="30"/>
       <c r="S52" s="40"/>
-      <c r="T52" s="98"/>
+      <c r="T52" s="96"/>
       <c r="U52" s="46"/>
       <c r="V52" s="46"/>
       <c r="W52" s="46"/>
@@ -10252,7 +10252,7 @@
       <c r="AK52" s="30"/>
     </row>
     <row r="53" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="90"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
       <c r="D53" s="43"/>
@@ -10271,7 +10271,7 @@
       <c r="Q53" s="28"/>
       <c r="R53" s="30"/>
       <c r="S53" s="40"/>
-      <c r="T53" s="98"/>
+      <c r="T53" s="96"/>
       <c r="U53" s="43"/>
       <c r="V53" s="43"/>
       <c r="W53" s="44"/>
@@ -10291,7 +10291,7 @@
       <c r="AK53" s="30"/>
     </row>
     <row r="54" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="90"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="54"/>
       <c r="C54" s="43"/>
       <c r="D54" s="44"/>
@@ -10310,7 +10310,7 @@
       <c r="Q54" s="28"/>
       <c r="R54" s="30"/>
       <c r="S54" s="40"/>
-      <c r="T54" s="98"/>
+      <c r="T54" s="96"/>
       <c r="U54" s="43"/>
       <c r="V54" s="43"/>
       <c r="W54" s="44"/>
@@ -10330,7 +10330,7 @@
       <c r="AK54" s="30"/>
     </row>
     <row r="55" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="90"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
       <c r="D55" s="44"/>
@@ -10349,7 +10349,7 @@
       <c r="Q55" s="28"/>
       <c r="R55" s="30"/>
       <c r="S55" s="40"/>
-      <c r="T55" s="98"/>
+      <c r="T55" s="96"/>
       <c r="U55" s="54"/>
       <c r="V55" s="43"/>
       <c r="W55" s="44"/>
@@ -10369,7 +10369,7 @@
       <c r="AK55" s="30"/>
     </row>
     <row r="56" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="90"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="46"/>
       <c r="C56" s="43"/>
       <c r="D56" s="44"/>
@@ -10388,7 +10388,7 @@
       <c r="Q56" s="28"/>
       <c r="R56" s="30"/>
       <c r="S56" s="40"/>
-      <c r="T56" s="98"/>
+      <c r="T56" s="96"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="2"/>
@@ -10408,7 +10408,7 @@
       <c r="AK56" s="30"/>
     </row>
     <row r="57" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="90"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -10427,7 +10427,7 @@
       <c r="Q57" s="28"/>
       <c r="R57" s="30"/>
       <c r="S57" s="40"/>
-      <c r="T57" s="98"/>
+      <c r="T57" s="96"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="2"/>
@@ -10447,7 +10447,7 @@
       <c r="AK57" s="30"/>
     </row>
     <row r="58" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="90"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="53"/>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
@@ -10466,7 +10466,7 @@
       <c r="Q58" s="28"/>
       <c r="R58" s="30"/>
       <c r="S58" s="40"/>
-      <c r="T58" s="98"/>
+      <c r="T58" s="96"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="2"/>
@@ -10486,7 +10486,7 @@
       <c r="AK58" s="30"/>
     </row>
     <row r="59" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="90"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
@@ -10505,7 +10505,7 @@
       <c r="Q59" s="28"/>
       <c r="R59" s="30"/>
       <c r="S59" s="40"/>
-      <c r="T59" s="98"/>
+      <c r="T59" s="96"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="2"/>
@@ -10525,7 +10525,7 @@
       <c r="AK59" s="30"/>
     </row>
     <row r="60" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="90"/>
+      <c r="A60" s="103"/>
       <c r="B60" s="46"/>
       <c r="C60" s="43"/>
       <c r="D60" s="44"/>
@@ -10544,7 +10544,7 @@
       <c r="Q60" s="28"/>
       <c r="R60" s="30"/>
       <c r="S60" s="40"/>
-      <c r="T60" s="98"/>
+      <c r="T60" s="96"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="2"/>
@@ -10564,7 +10564,7 @@
       <c r="AK60" s="30"/>
     </row>
     <row r="61" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="90"/>
+      <c r="A61" s="103"/>
       <c r="B61" s="47"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
@@ -10583,7 +10583,7 @@
       <c r="Q61" s="28"/>
       <c r="R61" s="30"/>
       <c r="S61" s="40"/>
-      <c r="T61" s="98"/>
+      <c r="T61" s="96"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="2"/>
@@ -10601,7 +10601,7 @@
       <c r="AK61" s="30"/>
     </row>
     <row r="62" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="90"/>
+      <c r="A62" s="103"/>
       <c r="B62" s="46"/>
       <c r="C62" s="43"/>
       <c r="D62" s="44"/>
@@ -10620,7 +10620,7 @@
       <c r="Q62" s="28"/>
       <c r="R62" s="30"/>
       <c r="S62" s="40"/>
-      <c r="T62" s="98"/>
+      <c r="T62" s="96"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="2"/>
@@ -10638,7 +10638,7 @@
       <c r="AK62" s="30"/>
     </row>
     <row r="63" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="90"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -10657,7 +10657,7 @@
       <c r="Q63" s="28"/>
       <c r="R63" s="30"/>
       <c r="S63" s="40"/>
-      <c r="T63" s="98"/>
+      <c r="T63" s="96"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="2"/>
@@ -10675,7 +10675,7 @@
       <c r="AK63" s="30"/>
     </row>
     <row r="64" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="90"/>
+      <c r="A64" s="103"/>
       <c r="B64" s="46"/>
       <c r="C64" s="43"/>
       <c r="D64" s="44"/>
@@ -10694,7 +10694,7 @@
       <c r="Q64" s="28"/>
       <c r="R64" s="30"/>
       <c r="S64" s="40"/>
-      <c r="T64" s="98"/>
+      <c r="T64" s="96"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="2"/>
@@ -10712,7 +10712,7 @@
       <c r="AK64" s="30"/>
     </row>
     <row r="65" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="90"/>
+      <c r="A65" s="103"/>
       <c r="B65" s="54"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44"/>
@@ -10731,7 +10731,7 @@
       <c r="Q65" s="28"/>
       <c r="R65" s="30"/>
       <c r="S65" s="40"/>
-      <c r="T65" s="98"/>
+      <c r="T65" s="96"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="2"/>
@@ -10749,7 +10749,7 @@
       <c r="AK65" s="30"/>
     </row>
     <row r="66" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="90"/>
+      <c r="A66" s="103"/>
       <c r="B66" s="53"/>
       <c r="C66" s="48"/>
       <c r="D66" s="48"/>
@@ -10768,7 +10768,7 @@
       <c r="Q66" s="28"/>
       <c r="R66" s="30"/>
       <c r="S66" s="40"/>
-      <c r="T66" s="98"/>
+      <c r="T66" s="96"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="2"/>
@@ -10786,7 +10786,7 @@
       <c r="AK66" s="30"/>
     </row>
     <row r="67" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="90"/>
+      <c r="A67" s="103"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
       <c r="D67" s="44"/>
@@ -10805,7 +10805,7 @@
       <c r="Q67" s="28"/>
       <c r="R67" s="30"/>
       <c r="S67" s="40"/>
-      <c r="T67" s="98"/>
+      <c r="T67" s="96"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="2"/>
@@ -10823,7 +10823,7 @@
       <c r="AK67" s="30"/>
     </row>
     <row r="68" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="90"/>
+      <c r="A68" s="103"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
@@ -10842,7 +10842,7 @@
       <c r="Q68" s="28"/>
       <c r="R68" s="30"/>
       <c r="S68" s="40"/>
-      <c r="T68" s="98"/>
+      <c r="T68" s="96"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="2"/>
@@ -10860,7 +10860,7 @@
       <c r="AK68" s="30"/>
     </row>
     <row r="69" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="90"/>
+      <c r="A69" s="103"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
       <c r="D69" s="44"/>
@@ -10879,7 +10879,7 @@
       <c r="Q69" s="28"/>
       <c r="R69" s="30"/>
       <c r="S69" s="40"/>
-      <c r="T69" s="98"/>
+      <c r="T69" s="96"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="2"/>
@@ -10897,7 +10897,7 @@
       <c r="AK69" s="30"/>
     </row>
     <row r="70" spans="1:60" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="91"/>
+      <c r="A70" s="104"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -10916,7 +10916,7 @@
       <c r="Q70" s="28"/>
       <c r="R70" s="30"/>
       <c r="S70" s="40"/>
-      <c r="T70" s="99"/>
+      <c r="T70" s="97"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="2"/>
@@ -10980,21 +10980,21 @@
       <c r="V72" s="22"/>
       <c r="W72" s="22"/>
       <c r="X72" s="22"/>
-      <c r="Y72" s="83" t="s">
+      <c r="Y72" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="Z72" s="83"/>
-      <c r="AA72" s="83"/>
-      <c r="AB72" s="84" t="s">
+      <c r="Z72" s="79"/>
+      <c r="AA72" s="79"/>
+      <c r="AB72" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AC72" s="84"/>
-      <c r="AD72" s="84"/>
-      <c r="AE72" s="85" t="s">
+      <c r="AC72" s="80"/>
+      <c r="AD72" s="80"/>
+      <c r="AE72" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AF72" s="85"/>
-      <c r="AG72" s="85"/>
+      <c r="AF72" s="81"/>
+      <c r="AG72" s="81"/>
       <c r="AH72" s="82" t="s">
         <v>19</v>
       </c>
@@ -11031,21 +11031,21 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="13"/>
-      <c r="F73" s="83" t="s">
+      <c r="F73" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="84" t="s">
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="84"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="85" t="s">
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="81"/>
       <c r="O73" s="82" t="s">
         <v>19</v>
       </c>
@@ -11054,26 +11054,26 @@
       <c r="R73" s="35"/>
       <c r="S73" s="36"/>
       <c r="U73" s="18"/>
-      <c r="Y73" s="79" t="s">
+      <c r="Y73" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="Z73" s="80"/>
-      <c r="AA73" s="81"/>
-      <c r="AB73" s="79" t="s">
+      <c r="Z73" s="84"/>
+      <c r="AA73" s="85"/>
+      <c r="AB73" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AC73" s="80"/>
-      <c r="AD73" s="81"/>
-      <c r="AE73" s="79" t="s">
+      <c r="AC73" s="84"/>
+      <c r="AD73" s="85"/>
+      <c r="AE73" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AF73" s="80"/>
-      <c r="AG73" s="81"/>
-      <c r="AH73" s="79" t="s">
+      <c r="AF73" s="84"/>
+      <c r="AG73" s="85"/>
+      <c r="AH73" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AI73" s="80"/>
-      <c r="AJ73" s="81"/>
+      <c r="AI73" s="84"/>
+      <c r="AJ73" s="85"/>
       <c r="AK73" s="35"/>
     </row>
     <row r="74" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11083,26 +11083,26 @@
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
-      <c r="F74" s="79" t="s">
+      <c r="F74" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="80"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="79" t="s">
+      <c r="G74" s="84"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="J74" s="80"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="79" t="s">
+      <c r="J74" s="84"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="M74" s="80"/>
-      <c r="N74" s="81"/>
-      <c r="O74" s="79" t="s">
+      <c r="M74" s="84"/>
+      <c r="N74" s="85"/>
+      <c r="O74" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="P74" s="80"/>
-      <c r="Q74" s="81"/>
+      <c r="P74" s="84"/>
+      <c r="Q74" s="85"/>
       <c r="R74" s="35"/>
       <c r="S74" s="37"/>
       <c r="T74" s="17" t="s">
@@ -11161,7 +11161,7 @@
       </c>
     </row>
     <row r="75" spans="1:60" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="95" t="s">
+      <c r="A75" s="93" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="17" t="s">
@@ -11216,7 +11216,7 @@
         <v>20</v>
       </c>
       <c r="S75" s="41"/>
-      <c r="T75" s="95" t="s">
+      <c r="T75" s="93" t="s">
         <v>3</v>
       </c>
       <c r="U75" s="43"/>
@@ -11238,7 +11238,7 @@
       <c r="AK75" s="77"/>
     </row>
     <row r="76" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="96"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
       <c r="D76" s="44"/>
@@ -11257,7 +11257,7 @@
       <c r="Q76" s="28"/>
       <c r="R76" s="77"/>
       <c r="S76" s="41"/>
-      <c r="T76" s="96"/>
+      <c r="T76" s="94"/>
       <c r="U76" s="43"/>
       <c r="V76" s="43"/>
       <c r="W76" s="44"/>
@@ -11277,7 +11277,7 @@
       <c r="AK76" s="67"/>
     </row>
     <row r="77" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="96"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
       <c r="D77" s="44"/>
@@ -11296,7 +11296,7 @@
       <c r="Q77" s="28"/>
       <c r="R77" s="67"/>
       <c r="S77" s="41"/>
-      <c r="T77" s="96"/>
+      <c r="T77" s="94"/>
       <c r="U77" s="53"/>
       <c r="V77" s="51"/>
       <c r="W77" s="51"/>
@@ -11316,7 +11316,7 @@
       <c r="AK77" s="67"/>
     </row>
     <row r="78" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="96"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
       <c r="D78" s="64"/>
@@ -11335,7 +11335,7 @@
       <c r="Q78" s="28"/>
       <c r="R78" s="67"/>
       <c r="S78" s="41"/>
-      <c r="T78" s="96"/>
+      <c r="T78" s="94"/>
       <c r="U78" s="43"/>
       <c r="V78" s="43"/>
       <c r="W78" s="44"/>
@@ -11355,7 +11355,7 @@
       <c r="AK78" s="67"/>
     </row>
     <row r="79" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="96"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
       <c r="D79" s="43"/>
@@ -11374,7 +11374,7 @@
       <c r="Q79" s="28"/>
       <c r="R79" s="67"/>
       <c r="S79" s="42"/>
-      <c r="T79" s="96"/>
+      <c r="T79" s="94"/>
       <c r="U79" s="43"/>
       <c r="V79" s="43"/>
       <c r="W79" s="44"/>
@@ -11394,7 +11394,7 @@
       <c r="AK79" s="68"/>
     </row>
     <row r="80" spans="1:60" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="96"/>
+      <c r="A80" s="94"/>
       <c r="B80" s="46"/>
       <c r="C80" s="43"/>
       <c r="D80" s="44"/>
@@ -11413,7 +11413,7 @@
       <c r="Q80" s="28"/>
       <c r="R80" s="68"/>
       <c r="S80" s="41"/>
-      <c r="T80" s="96"/>
+      <c r="T80" s="94"/>
       <c r="U80" s="53"/>
       <c r="V80" s="51"/>
       <c r="W80" s="51"/>
@@ -11433,7 +11433,7 @@
       <c r="AK80" s="67"/>
     </row>
     <row r="81" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="96"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="53"/>
       <c r="C81" s="51"/>
       <c r="D81" s="51"/>
@@ -11452,7 +11452,7 @@
       <c r="Q81" s="28"/>
       <c r="R81" s="67"/>
       <c r="S81" s="41"/>
-      <c r="T81" s="96"/>
+      <c r="T81" s="94"/>
       <c r="U81" s="43"/>
       <c r="V81" s="43"/>
       <c r="W81" s="44"/>
@@ -11472,7 +11472,7 @@
       <c r="AK81" s="67"/>
     </row>
     <row r="82" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="96"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="53"/>
       <c r="C82" s="48"/>
       <c r="D82" s="48"/>
@@ -11491,7 +11491,7 @@
       <c r="Q82" s="28"/>
       <c r="R82" s="67"/>
       <c r="S82" s="41"/>
-      <c r="T82" s="96"/>
+      <c r="T82" s="94"/>
       <c r="U82" s="43"/>
       <c r="V82" s="43"/>
       <c r="W82" s="44"/>
@@ -11511,7 +11511,7 @@
       <c r="AK82" s="67"/>
     </row>
     <row r="83" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="96"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
       <c r="D83" s="44"/>
@@ -11530,7 +11530,7 @@
       <c r="Q83" s="28"/>
       <c r="R83" s="67"/>
       <c r="S83" s="41"/>
-      <c r="T83" s="96"/>
+      <c r="T83" s="94"/>
       <c r="U83" s="53"/>
       <c r="V83" s="51"/>
       <c r="W83" s="51"/>
@@ -11550,7 +11550,7 @@
       <c r="AK83" s="67"/>
     </row>
     <row r="84" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="96"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="54"/>
       <c r="C84" s="43"/>
       <c r="D84" s="44"/>
@@ -11569,7 +11569,7 @@
       <c r="Q84" s="28"/>
       <c r="R84" s="67"/>
       <c r="S84" s="41"/>
-      <c r="T84" s="96"/>
+      <c r="T84" s="94"/>
       <c r="U84" s="53"/>
       <c r="V84" s="51"/>
       <c r="W84" s="51"/>
@@ -11589,7 +11589,7 @@
       <c r="AK84" s="67"/>
     </row>
     <row r="85" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="96"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
       <c r="D85" s="44"/>
@@ -11608,7 +11608,7 @@
       <c r="Q85" s="28"/>
       <c r="R85" s="67"/>
       <c r="S85" s="42"/>
-      <c r="T85" s="96"/>
+      <c r="T85" s="94"/>
       <c r="U85" s="46"/>
       <c r="V85" s="43"/>
       <c r="W85" s="44"/>
@@ -11628,7 +11628,7 @@
       <c r="AK85" s="68"/>
     </row>
     <row r="86" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="96"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
       <c r="D86" s="43"/>
@@ -11647,7 +11647,7 @@
       <c r="Q86" s="28"/>
       <c r="R86" s="68"/>
       <c r="S86" s="41"/>
-      <c r="T86" s="96"/>
+      <c r="T86" s="94"/>
       <c r="U86" s="43"/>
       <c r="V86" s="43"/>
       <c r="W86" s="44"/>
@@ -11667,7 +11667,7 @@
       <c r="AK86" s="67"/>
     </row>
     <row r="87" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="96"/>
+      <c r="A87" s="94"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
@@ -11686,7 +11686,7 @@
       <c r="Q87" s="28"/>
       <c r="R87" s="67"/>
       <c r="S87" s="41"/>
-      <c r="T87" s="96"/>
+      <c r="T87" s="94"/>
       <c r="U87" s="43"/>
       <c r="V87" s="43"/>
       <c r="W87" s="44"/>
@@ -11706,7 +11706,7 @@
       <c r="AK87" s="67"/>
     </row>
     <row r="88" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="96"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="54"/>
       <c r="C88" s="43"/>
       <c r="D88" s="44"/>
@@ -11725,7 +11725,7 @@
       <c r="Q88" s="28"/>
       <c r="R88" s="67"/>
       <c r="S88" s="41"/>
-      <c r="T88" s="96"/>
+      <c r="T88" s="94"/>
       <c r="U88" s="43"/>
       <c r="V88" s="43"/>
       <c r="W88" s="44"/>
@@ -11745,7 +11745,7 @@
       <c r="AK88" s="67"/>
     </row>
     <row r="89" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="96"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="54"/>
       <c r="C89" s="43"/>
       <c r="D89" s="44"/>
@@ -11764,7 +11764,7 @@
       <c r="Q89" s="28"/>
       <c r="R89" s="67"/>
       <c r="S89" s="41"/>
-      <c r="T89" s="96"/>
+      <c r="T89" s="94"/>
       <c r="U89" s="43"/>
       <c r="V89" s="43"/>
       <c r="W89" s="44"/>
@@ -11784,7 +11784,7 @@
       <c r="AK89" s="67"/>
     </row>
     <row r="90" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="96"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
       <c r="D90" s="44"/>
@@ -11803,7 +11803,7 @@
       <c r="Q90" s="28"/>
       <c r="R90" s="67"/>
       <c r="S90" s="41"/>
-      <c r="T90" s="96"/>
+      <c r="T90" s="94"/>
       <c r="U90" s="43"/>
       <c r="V90" s="43"/>
       <c r="W90" s="44"/>
@@ -11823,7 +11823,7 @@
       <c r="AK90" s="67"/>
     </row>
     <row r="91" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="96"/>
+      <c r="A91" s="94"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
       <c r="D91" s="44"/>
@@ -11842,7 +11842,7 @@
       <c r="Q91" s="28"/>
       <c r="R91" s="67"/>
       <c r="S91" s="41"/>
-      <c r="T91" s="96"/>
+      <c r="T91" s="94"/>
       <c r="U91" s="53"/>
       <c r="V91" s="51"/>
       <c r="W91" s="51"/>
@@ -11862,7 +11862,7 @@
       <c r="AK91" s="67"/>
     </row>
     <row r="92" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="96"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
       <c r="D92" s="44"/>
@@ -11881,7 +11881,7 @@
       <c r="Q92" s="28"/>
       <c r="R92" s="67"/>
       <c r="S92" s="41"/>
-      <c r="T92" s="96"/>
+      <c r="T92" s="94"/>
       <c r="U92" s="43"/>
       <c r="V92" s="43"/>
       <c r="W92" s="44"/>
@@ -11901,7 +11901,7 @@
       <c r="AK92" s="67"/>
     </row>
     <row r="93" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="96"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="2"/>
@@ -11920,7 +11920,7 @@
       <c r="Q93" s="28"/>
       <c r="R93" s="67"/>
       <c r="S93" s="41"/>
-      <c r="T93" s="96"/>
+      <c r="T93" s="94"/>
       <c r="U93" s="34"/>
       <c r="V93" s="1"/>
       <c r="W93" s="2"/>
@@ -11940,7 +11940,7 @@
       <c r="AK93" s="67"/>
     </row>
     <row r="94" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="96"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
       <c r="D94" s="43"/>
@@ -11959,7 +11959,7 @@
       <c r="Q94" s="28"/>
       <c r="R94" s="67"/>
       <c r="S94" s="41"/>
-      <c r="T94" s="96"/>
+      <c r="T94" s="94"/>
       <c r="U94" s="34"/>
       <c r="V94" s="1"/>
       <c r="W94" s="2"/>
@@ -11979,7 +11979,7 @@
       <c r="AK94" s="67"/>
     </row>
     <row r="95" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="96"/>
+      <c r="A95" s="94"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
       <c r="D95" s="44"/>
@@ -11998,7 +11998,7 @@
       <c r="Q95" s="28"/>
       <c r="R95" s="67"/>
       <c r="S95" s="41"/>
-      <c r="T95" s="96"/>
+      <c r="T95" s="94"/>
       <c r="U95" s="34"/>
       <c r="V95" s="1"/>
       <c r="W95" s="2"/>
@@ -12018,7 +12018,7 @@
       <c r="AK95" s="67"/>
     </row>
     <row r="96" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="96"/>
+      <c r="A96" s="94"/>
       <c r="B96" s="47"/>
       <c r="C96" s="48"/>
       <c r="D96" s="48"/>
@@ -12037,7 +12037,7 @@
       <c r="Q96" s="28"/>
       <c r="R96" s="67"/>
       <c r="S96" s="41"/>
-      <c r="T96" s="96"/>
+      <c r="T96" s="94"/>
       <c r="U96" s="34"/>
       <c r="V96" s="1"/>
       <c r="W96" s="2"/>
@@ -12057,7 +12057,7 @@
       <c r="AK96" s="67"/>
     </row>
     <row r="97" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="96"/>
+      <c r="A97" s="94"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
       <c r="D97" s="43"/>
@@ -12076,7 +12076,7 @@
       <c r="Q97" s="28"/>
       <c r="R97" s="67"/>
       <c r="S97" s="41"/>
-      <c r="T97" s="96"/>
+      <c r="T97" s="94"/>
       <c r="U97" s="34"/>
       <c r="V97" s="1"/>
       <c r="W97" s="2"/>
@@ -12096,7 +12096,7 @@
       <c r="AK97" s="67"/>
     </row>
     <row r="98" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="96"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
       <c r="D98" s="43"/>
@@ -12115,7 +12115,7 @@
       <c r="Q98" s="28"/>
       <c r="R98" s="67"/>
       <c r="S98" s="41"/>
-      <c r="T98" s="96"/>
+      <c r="T98" s="94"/>
       <c r="U98" s="34"/>
       <c r="V98" s="1"/>
       <c r="W98" s="2"/>
@@ -12135,7 +12135,7 @@
       <c r="AK98" s="67"/>
     </row>
     <row r="99" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="96"/>
+      <c r="A99" s="94"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
       <c r="D99" s="43"/>
@@ -12154,7 +12154,7 @@
       <c r="Q99" s="28"/>
       <c r="R99" s="67"/>
       <c r="S99" s="41"/>
-      <c r="T99" s="96"/>
+      <c r="T99" s="94"/>
       <c r="U99" s="34"/>
       <c r="V99" s="1"/>
       <c r="W99" s="2"/>
@@ -12174,7 +12174,7 @@
       <c r="AK99" s="67"/>
     </row>
     <row r="100" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="96"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
@@ -12193,7 +12193,7 @@
       <c r="Q100" s="28"/>
       <c r="R100" s="67"/>
       <c r="S100" s="41"/>
-      <c r="T100" s="96"/>
+      <c r="T100" s="94"/>
       <c r="U100" s="34"/>
       <c r="V100" s="1"/>
       <c r="W100" s="2"/>
@@ -12213,7 +12213,7 @@
       <c r="AK100" s="67"/>
     </row>
     <row r="101" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="96"/>
+      <c r="A101" s="94"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
       <c r="D101" s="43"/>
@@ -12232,7 +12232,7 @@
       <c r="Q101" s="28"/>
       <c r="R101" s="67"/>
       <c r="S101" s="41"/>
-      <c r="T101" s="96"/>
+      <c r="T101" s="94"/>
       <c r="U101" s="34"/>
       <c r="V101" s="1"/>
       <c r="W101" s="2"/>
@@ -12252,7 +12252,7 @@
       <c r="AK101" s="67"/>
     </row>
     <row r="102" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="96"/>
+      <c r="A102" s="94"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
@@ -12271,7 +12271,7 @@
       <c r="Q102" s="28"/>
       <c r="R102" s="67"/>
       <c r="S102" s="41"/>
-      <c r="T102" s="96"/>
+      <c r="T102" s="94"/>
       <c r="U102" s="34"/>
       <c r="V102" s="1"/>
       <c r="W102" s="2"/>
@@ -12291,7 +12291,7 @@
       <c r="AK102" s="67"/>
     </row>
     <row r="103" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="96"/>
+      <c r="A103" s="94"/>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="43"/>
@@ -12310,7 +12310,7 @@
       <c r="Q103" s="28"/>
       <c r="R103" s="67"/>
       <c r="S103" s="41"/>
-      <c r="T103" s="96"/>
+      <c r="T103" s="94"/>
       <c r="U103" s="34"/>
       <c r="V103" s="1"/>
       <c r="W103" s="2"/>
@@ -12330,7 +12330,7 @@
       <c r="AK103" s="67"/>
     </row>
     <row r="104" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="96"/>
+      <c r="A104" s="94"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -12349,7 +12349,7 @@
       <c r="Q104" s="28"/>
       <c r="R104" s="67"/>
       <c r="S104" s="41"/>
-      <c r="T104" s="96"/>
+      <c r="T104" s="94"/>
       <c r="U104" s="34"/>
       <c r="V104" s="1"/>
       <c r="W104" s="2"/>
@@ -12369,7 +12369,7 @@
       <c r="AK104" s="67"/>
     </row>
     <row r="105" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="96"/>
+      <c r="A105" s="94"/>
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="44"/>
@@ -12388,7 +12388,7 @@
       <c r="Q105" s="28"/>
       <c r="R105" s="67"/>
       <c r="S105" s="41"/>
-      <c r="T105" s="96"/>
+      <c r="T105" s="94"/>
       <c r="U105" s="34"/>
       <c r="V105" s="1"/>
       <c r="W105" s="2"/>
@@ -12408,7 +12408,7 @@
       <c r="AK105" s="67"/>
     </row>
     <row r="106" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="96"/>
+      <c r="A106" s="94"/>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="44"/>
@@ -12427,7 +12427,7 @@
       <c r="Q106" s="28"/>
       <c r="R106" s="67"/>
       <c r="S106" s="41"/>
-      <c r="T106" s="96"/>
+      <c r="T106" s="94"/>
       <c r="U106" s="34"/>
       <c r="V106" s="1"/>
       <c r="W106" s="2"/>
@@ -12447,7 +12447,7 @@
       <c r="AK106" s="67"/>
     </row>
     <row r="107" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="96"/>
+      <c r="A107" s="94"/>
       <c r="B107" s="46"/>
       <c r="C107" s="43"/>
       <c r="D107" s="44"/>
@@ -12466,7 +12466,7 @@
       <c r="Q107" s="28"/>
       <c r="R107" s="67"/>
       <c r="S107" s="41"/>
-      <c r="T107" s="96"/>
+      <c r="T107" s="94"/>
       <c r="U107" s="34"/>
       <c r="V107" s="1"/>
       <c r="W107" s="2"/>
@@ -12486,7 +12486,7 @@
       <c r="AK107" s="67"/>
     </row>
     <row r="108" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="96"/>
+      <c r="A108" s="94"/>
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
       <c r="D108" s="44"/>
@@ -12505,7 +12505,7 @@
       <c r="Q108" s="28"/>
       <c r="R108" s="67"/>
       <c r="S108" s="41"/>
-      <c r="T108" s="100"/>
+      <c r="T108" s="98"/>
       <c r="U108" s="34"/>
       <c r="V108" s="1"/>
       <c r="W108" s="2"/>
@@ -12571,21 +12571,21 @@
       <c r="V111" s="22"/>
       <c r="W111" s="22"/>
       <c r="X111" s="22"/>
-      <c r="Y111" s="83" t="s">
+      <c r="Y111" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="Z111" s="83"/>
-      <c r="AA111" s="83"/>
-      <c r="AB111" s="84" t="s">
+      <c r="Z111" s="79"/>
+      <c r="AA111" s="79"/>
+      <c r="AB111" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AC111" s="84"/>
-      <c r="AD111" s="84"/>
-      <c r="AE111" s="85" t="s">
+      <c r="AC111" s="80"/>
+      <c r="AD111" s="80"/>
+      <c r="AE111" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AF111" s="85"/>
-      <c r="AG111" s="85"/>
+      <c r="AF111" s="81"/>
+      <c r="AG111" s="81"/>
       <c r="AH111" s="82" t="s">
         <v>19</v>
       </c>
@@ -12599,21 +12599,21 @@
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="13"/>
-      <c r="F112" s="83" t="s">
+      <c r="F112" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G112" s="83"/>
-      <c r="H112" s="83"/>
-      <c r="I112" s="84" t="s">
+      <c r="G112" s="79"/>
+      <c r="H112" s="79"/>
+      <c r="I112" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J112" s="84"/>
-      <c r="K112" s="84"/>
-      <c r="L112" s="85" t="s">
+      <c r="J112" s="80"/>
+      <c r="K112" s="80"/>
+      <c r="L112" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="M112" s="85"/>
-      <c r="N112" s="85"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
       <c r="O112" s="82" t="s">
         <v>19</v>
       </c>
@@ -12622,26 +12622,26 @@
       <c r="R112" s="35"/>
       <c r="S112" s="36"/>
       <c r="U112" s="18"/>
-      <c r="Y112" s="79" t="s">
+      <c r="Y112" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="Z112" s="80"/>
-      <c r="AA112" s="81"/>
-      <c r="AB112" s="79" t="s">
+      <c r="Z112" s="84"/>
+      <c r="AA112" s="85"/>
+      <c r="AB112" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AC112" s="80"/>
-      <c r="AD112" s="81"/>
-      <c r="AE112" s="79" t="s">
+      <c r="AC112" s="84"/>
+      <c r="AD112" s="85"/>
+      <c r="AE112" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AF112" s="80"/>
-      <c r="AG112" s="81"/>
-      <c r="AH112" s="79" t="s">
+      <c r="AF112" s="84"/>
+      <c r="AG112" s="85"/>
+      <c r="AH112" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AI112" s="80"/>
-      <c r="AJ112" s="81"/>
+      <c r="AI112" s="84"/>
+      <c r="AJ112" s="85"/>
       <c r="AK112" s="35"/>
     </row>
     <row r="113" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12651,26 +12651,26 @@
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
-      <c r="F113" s="79" t="s">
+      <c r="F113" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G113" s="80"/>
-      <c r="H113" s="81"/>
-      <c r="I113" s="79" t="s">
+      <c r="G113" s="84"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="J113" s="80"/>
-      <c r="K113" s="81"/>
-      <c r="L113" s="79" t="s">
+      <c r="J113" s="84"/>
+      <c r="K113" s="85"/>
+      <c r="L113" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="M113" s="80"/>
-      <c r="N113" s="81"/>
-      <c r="O113" s="79" t="s">
+      <c r="M113" s="84"/>
+      <c r="N113" s="85"/>
+      <c r="O113" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="P113" s="80"/>
-      <c r="Q113" s="81"/>
+      <c r="P113" s="84"/>
+      <c r="Q113" s="85"/>
       <c r="R113" s="35"/>
       <c r="S113" s="37"/>
       <c r="T113" s="17" t="s">
@@ -12729,7 +12729,7 @@
       </c>
     </row>
     <row r="114" spans="1:37" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="103" t="s">
+      <c r="A114" s="86" t="s">
         <v>30</v>
       </c>
       <c r="B114" s="17" t="s">
@@ -12784,7 +12784,7 @@
         <v>20</v>
       </c>
       <c r="S114" s="41"/>
-      <c r="T114" s="103" t="s">
+      <c r="T114" s="86" t="s">
         <v>30</v>
       </c>
       <c r="U114" s="43"/>
@@ -12806,7 +12806,7 @@
       <c r="AK114" s="77"/>
     </row>
     <row r="115" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="104"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
       <c r="D115" s="44"/>
@@ -12825,7 +12825,7 @@
       <c r="Q115" s="28"/>
       <c r="R115" s="77"/>
       <c r="S115" s="41"/>
-      <c r="T115" s="104"/>
+      <c r="T115" s="87"/>
       <c r="U115" s="43"/>
       <c r="V115" s="43"/>
       <c r="W115" s="44"/>
@@ -12845,7 +12845,7 @@
       <c r="AK115" s="67"/>
     </row>
     <row r="116" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="104"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
       <c r="D116" s="44"/>
@@ -12864,7 +12864,7 @@
       <c r="Q116" s="28"/>
       <c r="R116" s="67"/>
       <c r="S116" s="41"/>
-      <c r="T116" s="104"/>
+      <c r="T116" s="87"/>
       <c r="U116" s="53"/>
       <c r="V116" s="51"/>
       <c r="W116" s="51"/>
@@ -12884,7 +12884,7 @@
       <c r="AK116" s="67"/>
     </row>
     <row r="117" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="104"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="52"/>
       <c r="C117" s="52"/>
       <c r="D117" s="64"/>
@@ -12903,7 +12903,7 @@
       <c r="Q117" s="28"/>
       <c r="R117" s="67"/>
       <c r="S117" s="41"/>
-      <c r="T117" s="104"/>
+      <c r="T117" s="87"/>
       <c r="U117" s="43"/>
       <c r="V117" s="43"/>
       <c r="W117" s="44"/>
@@ -12923,7 +12923,7 @@
       <c r="AK117" s="67"/>
     </row>
     <row r="118" spans="1:37" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="104"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
       <c r="D118" s="43"/>
@@ -12942,7 +12942,7 @@
       <c r="Q118" s="28"/>
       <c r="R118" s="67"/>
       <c r="S118" s="42"/>
-      <c r="T118" s="104"/>
+      <c r="T118" s="87"/>
       <c r="U118" s="43"/>
       <c r="V118" s="43"/>
       <c r="W118" s="44"/>
@@ -12962,7 +12962,7 @@
       <c r="AK118" s="68"/>
     </row>
     <row r="119" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="104"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="46"/>
       <c r="C119" s="43"/>
       <c r="D119" s="44"/>
@@ -12981,7 +12981,7 @@
       <c r="Q119" s="28"/>
       <c r="R119" s="68"/>
       <c r="S119" s="41"/>
-      <c r="T119" s="104"/>
+      <c r="T119" s="87"/>
       <c r="U119" s="53"/>
       <c r="V119" s="51"/>
       <c r="W119" s="51"/>
@@ -13001,7 +13001,7 @@
       <c r="AK119" s="67"/>
     </row>
     <row r="120" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="104"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="43"/>
       <c r="C120" s="43"/>
       <c r="D120" s="44"/>
@@ -13020,7 +13020,7 @@
       <c r="Q120" s="28"/>
       <c r="R120" s="67"/>
       <c r="S120" s="41"/>
-      <c r="T120" s="104"/>
+      <c r="T120" s="87"/>
       <c r="U120" s="43"/>
       <c r="V120" s="43"/>
       <c r="W120" s="44"/>
@@ -13040,7 +13040,7 @@
       <c r="AK120" s="67"/>
     </row>
     <row r="121" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="104"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="2"/>
@@ -13059,7 +13059,7 @@
       <c r="Q121" s="28"/>
       <c r="R121" s="67"/>
       <c r="S121" s="41"/>
-      <c r="T121" s="104"/>
+      <c r="T121" s="87"/>
       <c r="U121" s="34"/>
       <c r="V121" s="1"/>
       <c r="W121" s="2"/>
@@ -13079,7 +13079,7 @@
       <c r="AK121" s="67"/>
     </row>
     <row r="122" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="104"/>
+      <c r="A122" s="87"/>
       <c r="B122" s="43"/>
       <c r="C122" s="43"/>
       <c r="D122" s="43"/>
@@ -13098,7 +13098,7 @@
       <c r="Q122" s="28"/>
       <c r="R122" s="67"/>
       <c r="S122" s="41"/>
-      <c r="T122" s="104"/>
+      <c r="T122" s="87"/>
       <c r="U122" s="34"/>
       <c r="V122" s="1"/>
       <c r="W122" s="2"/>
@@ -13118,7 +13118,7 @@
       <c r="AK122" s="67"/>
     </row>
     <row r="123" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="104"/>
+      <c r="A123" s="87"/>
       <c r="B123" s="43"/>
       <c r="C123" s="43"/>
       <c r="D123" s="44"/>
@@ -13137,7 +13137,7 @@
       <c r="Q123" s="28"/>
       <c r="R123" s="67"/>
       <c r="S123" s="41"/>
-      <c r="T123" s="104"/>
+      <c r="T123" s="87"/>
       <c r="U123" s="34"/>
       <c r="V123" s="1"/>
       <c r="W123" s="2"/>
@@ -13157,7 +13157,7 @@
       <c r="AK123" s="67"/>
     </row>
     <row r="124" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="104"/>
+      <c r="A124" s="87"/>
       <c r="B124" s="47"/>
       <c r="C124" s="48"/>
       <c r="D124" s="48"/>
@@ -13176,7 +13176,7 @@
       <c r="Q124" s="28"/>
       <c r="R124" s="67"/>
       <c r="S124" s="41"/>
-      <c r="T124" s="104"/>
+      <c r="T124" s="87"/>
       <c r="U124" s="34"/>
       <c r="V124" s="1"/>
       <c r="W124" s="2"/>
@@ -13196,7 +13196,7 @@
       <c r="AK124" s="67"/>
     </row>
     <row r="125" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="104"/>
+      <c r="A125" s="87"/>
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
       <c r="D125" s="43"/>
@@ -13215,7 +13215,7 @@
       <c r="Q125" s="28"/>
       <c r="R125" s="67"/>
       <c r="S125" s="41"/>
-      <c r="T125" s="104"/>
+      <c r="T125" s="87"/>
       <c r="U125" s="34"/>
       <c r="V125" s="1"/>
       <c r="W125" s="2"/>
@@ -13235,7 +13235,7 @@
       <c r="AK125" s="67"/>
     </row>
     <row r="126" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="104"/>
+      <c r="A126" s="87"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
       <c r="D126" s="43"/>
@@ -13254,7 +13254,7 @@
       <c r="Q126" s="28"/>
       <c r="R126" s="67"/>
       <c r="S126" s="41"/>
-      <c r="T126" s="104"/>
+      <c r="T126" s="87"/>
       <c r="U126" s="34"/>
       <c r="V126" s="1"/>
       <c r="W126" s="2"/>
@@ -13274,7 +13274,7 @@
       <c r="AK126" s="67"/>
     </row>
     <row r="127" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="104"/>
+      <c r="A127" s="87"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
       <c r="D127" s="43"/>
@@ -13293,7 +13293,7 @@
       <c r="Q127" s="28"/>
       <c r="R127" s="67"/>
       <c r="S127" s="41"/>
-      <c r="T127" s="104"/>
+      <c r="T127" s="87"/>
       <c r="U127" s="34"/>
       <c r="V127" s="1"/>
       <c r="W127" s="2"/>
@@ -13313,7 +13313,7 @@
       <c r="AK127" s="67"/>
     </row>
     <row r="128" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="104"/>
+      <c r="A128" s="87"/>
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
       <c r="D128" s="43"/>
@@ -13332,7 +13332,7 @@
       <c r="Q128" s="28"/>
       <c r="R128" s="67"/>
       <c r="S128" s="41"/>
-      <c r="T128" s="104"/>
+      <c r="T128" s="87"/>
       <c r="U128" s="34"/>
       <c r="V128" s="1"/>
       <c r="W128" s="2"/>
@@ -13352,7 +13352,7 @@
       <c r="AK128" s="67"/>
     </row>
     <row r="129" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="104"/>
+      <c r="A129" s="87"/>
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
       <c r="D129" s="43"/>
@@ -13371,7 +13371,7 @@
       <c r="Q129" s="28"/>
       <c r="R129" s="67"/>
       <c r="S129" s="41"/>
-      <c r="T129" s="104"/>
+      <c r="T129" s="87"/>
       <c r="U129" s="34"/>
       <c r="V129" s="1"/>
       <c r="W129" s="2"/>
@@ -13391,7 +13391,7 @@
       <c r="AK129" s="67"/>
     </row>
     <row r="130" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="104"/>
+      <c r="A130" s="87"/>
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
       <c r="D130" s="43"/>
@@ -13410,7 +13410,7 @@
       <c r="Q130" s="28"/>
       <c r="R130" s="67"/>
       <c r="S130" s="41"/>
-      <c r="T130" s="104"/>
+      <c r="T130" s="87"/>
       <c r="U130" s="34"/>
       <c r="V130" s="1"/>
       <c r="W130" s="2"/>
@@ -13430,7 +13430,7 @@
       <c r="AK130" s="67"/>
     </row>
     <row r="131" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="104"/>
+      <c r="A131" s="87"/>
       <c r="B131" s="43"/>
       <c r="C131" s="43"/>
       <c r="D131" s="43"/>
@@ -13449,7 +13449,7 @@
       <c r="Q131" s="28"/>
       <c r="R131" s="67"/>
       <c r="S131" s="41"/>
-      <c r="T131" s="104"/>
+      <c r="T131" s="87"/>
       <c r="U131" s="34"/>
       <c r="V131" s="1"/>
       <c r="W131" s="2"/>
@@ -13469,7 +13469,7 @@
       <c r="AK131" s="67"/>
     </row>
     <row r="132" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="104"/>
+      <c r="A132" s="87"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -13488,7 +13488,7 @@
       <c r="Q132" s="28"/>
       <c r="R132" s="67"/>
       <c r="S132" s="41"/>
-      <c r="T132" s="104"/>
+      <c r="T132" s="87"/>
       <c r="U132" s="34"/>
       <c r="V132" s="1"/>
       <c r="W132" s="2"/>
@@ -13508,7 +13508,7 @@
       <c r="AK132" s="67"/>
     </row>
     <row r="133" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="104"/>
+      <c r="A133" s="87"/>
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
       <c r="D133" s="44"/>
@@ -13527,7 +13527,7 @@
       <c r="Q133" s="28"/>
       <c r="R133" s="67"/>
       <c r="S133" s="41"/>
-      <c r="T133" s="104"/>
+      <c r="T133" s="87"/>
       <c r="U133" s="34"/>
       <c r="V133" s="1"/>
       <c r="W133" s="2"/>
@@ -13547,7 +13547,7 @@
       <c r="AK133" s="67"/>
     </row>
     <row r="134" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="104"/>
+      <c r="A134" s="87"/>
       <c r="B134" s="43"/>
       <c r="C134" s="43"/>
       <c r="D134" s="44"/>
@@ -13566,7 +13566,7 @@
       <c r="Q134" s="28"/>
       <c r="R134" s="67"/>
       <c r="S134" s="41"/>
-      <c r="T134" s="104"/>
+      <c r="T134" s="87"/>
       <c r="U134" s="34"/>
       <c r="V134" s="1"/>
       <c r="W134" s="2"/>
@@ -13586,7 +13586,7 @@
       <c r="AK134" s="67"/>
     </row>
     <row r="135" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="104"/>
+      <c r="A135" s="87"/>
       <c r="B135" s="46"/>
       <c r="C135" s="43"/>
       <c r="D135" s="44"/>
@@ -13605,7 +13605,7 @@
       <c r="Q135" s="28"/>
       <c r="R135" s="67"/>
       <c r="S135" s="41"/>
-      <c r="T135" s="104"/>
+      <c r="T135" s="87"/>
       <c r="U135" s="34"/>
       <c r="V135" s="1"/>
       <c r="W135" s="2"/>
@@ -13625,7 +13625,7 @@
       <c r="AK135" s="67"/>
     </row>
     <row r="136" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="104"/>
+      <c r="A136" s="87"/>
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
       <c r="D136" s="44"/>
@@ -13644,7 +13644,7 @@
       <c r="Q136" s="28"/>
       <c r="R136" s="67"/>
       <c r="S136" s="41"/>
-      <c r="T136" s="104"/>
+      <c r="T136" s="87"/>
       <c r="U136" s="34"/>
       <c r="V136" s="1"/>
       <c r="W136" s="2"/>
@@ -13690,21 +13690,21 @@
       <c r="V141" s="22"/>
       <c r="W141" s="22"/>
       <c r="X141" s="22"/>
-      <c r="Y141" s="83" t="s">
+      <c r="Y141" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="Z141" s="83"/>
-      <c r="AA141" s="83"/>
-      <c r="AB141" s="84" t="s">
+      <c r="Z141" s="79"/>
+      <c r="AA141" s="79"/>
+      <c r="AB141" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AC141" s="84"/>
-      <c r="AD141" s="84"/>
-      <c r="AE141" s="85" t="s">
+      <c r="AC141" s="80"/>
+      <c r="AD141" s="80"/>
+      <c r="AE141" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AF141" s="85"/>
-      <c r="AG141" s="85"/>
+      <c r="AF141" s="81"/>
+      <c r="AG141" s="81"/>
       <c r="AH141" s="82" t="s">
         <v>19</v>
       </c>
@@ -13718,21 +13718,21 @@
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="83" t="s">
+      <c r="F142" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G142" s="83"/>
-      <c r="H142" s="83"/>
-      <c r="I142" s="84" t="s">
+      <c r="G142" s="79"/>
+      <c r="H142" s="79"/>
+      <c r="I142" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J142" s="84"/>
-      <c r="K142" s="84"/>
-      <c r="L142" s="85" t="s">
+      <c r="J142" s="80"/>
+      <c r="K142" s="80"/>
+      <c r="L142" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="M142" s="85"/>
-      <c r="N142" s="85"/>
+      <c r="M142" s="81"/>
+      <c r="N142" s="81"/>
       <c r="O142" s="82" t="s">
         <v>19</v>
       </c>
@@ -13745,26 +13745,26 @@
       <c r="V142" s="16"/>
       <c r="W142" s="16"/>
       <c r="X142" s="16"/>
-      <c r="Y142" s="79" t="s">
+      <c r="Y142" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="Z142" s="80"/>
-      <c r="AA142" s="81"/>
-      <c r="AB142" s="79" t="s">
+      <c r="Z142" s="84"/>
+      <c r="AA142" s="85"/>
+      <c r="AB142" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AC142" s="80"/>
-      <c r="AD142" s="81"/>
-      <c r="AE142" s="79" t="s">
+      <c r="AC142" s="84"/>
+      <c r="AD142" s="85"/>
+      <c r="AE142" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AF142" s="80"/>
-      <c r="AG142" s="81"/>
-      <c r="AH142" s="79" t="s">
+      <c r="AF142" s="84"/>
+      <c r="AG142" s="85"/>
+      <c r="AH142" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AI142" s="80"/>
-      <c r="AJ142" s="81"/>
+      <c r="AI142" s="84"/>
+      <c r="AJ142" s="85"/>
       <c r="AK142" s="35"/>
     </row>
     <row r="143" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13775,26 +13775,26 @@
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
       <c r="E143" s="16"/>
-      <c r="F143" s="79" t="s">
+      <c r="F143" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="80"/>
-      <c r="H143" s="81"/>
-      <c r="I143" s="79" t="s">
+      <c r="G143" s="84"/>
+      <c r="H143" s="85"/>
+      <c r="I143" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="J143" s="80"/>
-      <c r="K143" s="81"/>
-      <c r="L143" s="79" t="s">
+      <c r="J143" s="84"/>
+      <c r="K143" s="85"/>
+      <c r="L143" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="M143" s="80"/>
-      <c r="N143" s="81"/>
-      <c r="O143" s="79" t="s">
+      <c r="M143" s="84"/>
+      <c r="N143" s="85"/>
+      <c r="O143" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="P143" s="80"/>
-      <c r="Q143" s="81"/>
+      <c r="P143" s="84"/>
+      <c r="Q143" s="85"/>
       <c r="R143" s="35"/>
       <c r="S143" s="37"/>
       <c r="T143" s="17" t="s">
@@ -13853,7 +13853,7 @@
       </c>
     </row>
     <row r="144" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="101" t="s">
+      <c r="A144" s="88" t="s">
         <v>32</v>
       </c>
       <c r="B144" s="17" t="s">
@@ -13908,7 +13908,7 @@
         <v>20</v>
       </c>
       <c r="S144" s="41"/>
-      <c r="T144" s="101" t="s">
+      <c r="T144" s="88" t="s">
         <v>32</v>
       </c>
       <c r="U144" s="43"/>
@@ -13930,7 +13930,7 @@
       <c r="AK144" s="77"/>
     </row>
     <row r="145" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="102"/>
+      <c r="A145" s="89"/>
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
       <c r="D145" s="44"/>
@@ -13949,7 +13949,7 @@
       <c r="Q145" s="28"/>
       <c r="R145" s="77"/>
       <c r="S145" s="41"/>
-      <c r="T145" s="102"/>
+      <c r="T145" s="89"/>
       <c r="U145" s="43"/>
       <c r="V145" s="43"/>
       <c r="W145" s="44"/>
@@ -13969,7 +13969,7 @@
       <c r="AK145" s="67"/>
     </row>
     <row r="146" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="102"/>
+      <c r="A146" s="89"/>
       <c r="B146" s="43"/>
       <c r="C146" s="43"/>
       <c r="D146" s="44"/>
@@ -13988,7 +13988,7 @@
       <c r="Q146" s="28"/>
       <c r="R146" s="67"/>
       <c r="S146" s="41"/>
-      <c r="T146" s="102"/>
+      <c r="T146" s="89"/>
       <c r="U146" s="53"/>
       <c r="V146" s="51"/>
       <c r="W146" s="51"/>
@@ -14008,7 +14008,7 @@
       <c r="AK146" s="67"/>
     </row>
     <row r="147" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="102"/>
+      <c r="A147" s="89"/>
       <c r="B147" s="52"/>
       <c r="C147" s="52"/>
       <c r="D147" s="64"/>
@@ -14027,7 +14027,7 @@
       <c r="Q147" s="28"/>
       <c r="R147" s="67"/>
       <c r="S147" s="41"/>
-      <c r="T147" s="102"/>
+      <c r="T147" s="89"/>
       <c r="U147" s="43"/>
       <c r="V147" s="43"/>
       <c r="W147" s="44"/>
@@ -14047,7 +14047,7 @@
       <c r="AK147" s="67"/>
     </row>
     <row r="148" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="102"/>
+      <c r="A148" s="89"/>
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="43"/>
@@ -14066,7 +14066,7 @@
       <c r="Q148" s="28"/>
       <c r="R148" s="67"/>
       <c r="S148" s="42"/>
-      <c r="T148" s="102"/>
+      <c r="T148" s="89"/>
       <c r="U148" s="43"/>
       <c r="V148" s="43"/>
       <c r="W148" s="44"/>
@@ -14086,7 +14086,7 @@
       <c r="AK148" s="68"/>
     </row>
     <row r="149" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="102"/>
+      <c r="A149" s="89"/>
       <c r="B149" s="46"/>
       <c r="C149" s="43"/>
       <c r="D149" s="44"/>
@@ -14105,7 +14105,7 @@
       <c r="Q149" s="28"/>
       <c r="R149" s="68"/>
       <c r="S149" s="41"/>
-      <c r="T149" s="102"/>
+      <c r="T149" s="89"/>
       <c r="U149" s="53"/>
       <c r="V149" s="51"/>
       <c r="W149" s="51"/>
@@ -14125,7 +14125,7 @@
       <c r="AK149" s="67"/>
     </row>
     <row r="150" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="102"/>
+      <c r="A150" s="89"/>
       <c r="B150" s="43"/>
       <c r="C150" s="43"/>
       <c r="D150" s="44"/>
@@ -14144,7 +14144,7 @@
       <c r="Q150" s="28"/>
       <c r="R150" s="67"/>
       <c r="S150" s="41"/>
-      <c r="T150" s="102"/>
+      <c r="T150" s="89"/>
       <c r="U150" s="43"/>
       <c r="V150" s="43"/>
       <c r="W150" s="44"/>
@@ -14164,7 +14164,7 @@
       <c r="AK150" s="67"/>
     </row>
     <row r="151" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="102"/>
+      <c r="A151" s="89"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="2"/>
@@ -14183,7 +14183,7 @@
       <c r="Q151" s="28"/>
       <c r="R151" s="67"/>
       <c r="S151" s="41"/>
-      <c r="T151" s="102"/>
+      <c r="T151" s="89"/>
       <c r="U151" s="34"/>
       <c r="V151" s="1"/>
       <c r="W151" s="2"/>
@@ -14203,7 +14203,7 @@
       <c r="AK151" s="67"/>
     </row>
     <row r="152" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="102"/>
+      <c r="A152" s="89"/>
       <c r="B152" s="43"/>
       <c r="C152" s="43"/>
       <c r="D152" s="43"/>
@@ -14222,7 +14222,7 @@
       <c r="Q152" s="28"/>
       <c r="R152" s="67"/>
       <c r="S152" s="41"/>
-      <c r="T152" s="102"/>
+      <c r="T152" s="89"/>
       <c r="U152" s="34"/>
       <c r="V152" s="1"/>
       <c r="W152" s="2"/>
@@ -14242,7 +14242,7 @@
       <c r="AK152" s="67"/>
     </row>
     <row r="153" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="102"/>
+      <c r="A153" s="89"/>
       <c r="B153" s="43"/>
       <c r="C153" s="43"/>
       <c r="D153" s="44"/>
@@ -14261,7 +14261,7 @@
       <c r="Q153" s="28"/>
       <c r="R153" s="67"/>
       <c r="S153" s="41"/>
-      <c r="T153" s="102"/>
+      <c r="T153" s="89"/>
       <c r="U153" s="34"/>
       <c r="V153" s="1"/>
       <c r="W153" s="2"/>
@@ -14281,7 +14281,7 @@
       <c r="AK153" s="67"/>
     </row>
     <row r="154" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="102"/>
+      <c r="A154" s="89"/>
       <c r="B154" s="47"/>
       <c r="C154" s="48"/>
       <c r="D154" s="48"/>
@@ -14300,7 +14300,7 @@
       <c r="Q154" s="28"/>
       <c r="R154" s="67"/>
       <c r="S154" s="41"/>
-      <c r="T154" s="102"/>
+      <c r="T154" s="89"/>
       <c r="U154" s="34"/>
       <c r="V154" s="1"/>
       <c r="W154" s="2"/>
@@ -14320,7 +14320,7 @@
       <c r="AK154" s="67"/>
     </row>
     <row r="155" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="102"/>
+      <c r="A155" s="89"/>
       <c r="B155" s="43"/>
       <c r="C155" s="43"/>
       <c r="D155" s="43"/>
@@ -14339,7 +14339,7 @@
       <c r="Q155" s="28"/>
       <c r="R155" s="67"/>
       <c r="S155" s="41"/>
-      <c r="T155" s="102"/>
+      <c r="T155" s="89"/>
       <c r="U155" s="34"/>
       <c r="V155" s="1"/>
       <c r="W155" s="2"/>
@@ -14359,7 +14359,7 @@
       <c r="AK155" s="67"/>
     </row>
     <row r="156" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="102"/>
+      <c r="A156" s="89"/>
       <c r="B156" s="43"/>
       <c r="C156" s="43"/>
       <c r="D156" s="43"/>
@@ -14378,7 +14378,7 @@
       <c r="Q156" s="28"/>
       <c r="R156" s="67"/>
       <c r="S156" s="41"/>
-      <c r="T156" s="102"/>
+      <c r="T156" s="89"/>
       <c r="U156" s="34"/>
       <c r="V156" s="1"/>
       <c r="W156" s="2"/>
@@ -14398,7 +14398,7 @@
       <c r="AK156" s="67"/>
     </row>
     <row r="157" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="102"/>
+      <c r="A157" s="89"/>
       <c r="B157" s="43"/>
       <c r="C157" s="43"/>
       <c r="D157" s="43"/>
@@ -14417,7 +14417,7 @@
       <c r="Q157" s="28"/>
       <c r="R157" s="67"/>
       <c r="S157" s="41"/>
-      <c r="T157" s="102"/>
+      <c r="T157" s="89"/>
       <c r="U157" s="34"/>
       <c r="V157" s="1"/>
       <c r="W157" s="2"/>
@@ -14437,7 +14437,7 @@
       <c r="AK157" s="67"/>
     </row>
     <row r="158" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="102"/>
+      <c r="A158" s="89"/>
       <c r="B158" s="43"/>
       <c r="C158" s="43"/>
       <c r="D158" s="43"/>
@@ -14456,7 +14456,7 @@
       <c r="Q158" s="28"/>
       <c r="R158" s="67"/>
       <c r="S158" s="41"/>
-      <c r="T158" s="102"/>
+      <c r="T158" s="89"/>
       <c r="U158" s="34"/>
       <c r="V158" s="1"/>
       <c r="W158" s="2"/>
@@ -14476,7 +14476,7 @@
       <c r="AK158" s="67"/>
     </row>
     <row r="159" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="102"/>
+      <c r="A159" s="89"/>
       <c r="B159" s="43"/>
       <c r="C159" s="43"/>
       <c r="D159" s="43"/>
@@ -14495,7 +14495,7 @@
       <c r="Q159" s="28"/>
       <c r="R159" s="67"/>
       <c r="S159" s="41"/>
-      <c r="T159" s="102"/>
+      <c r="T159" s="89"/>
       <c r="U159" s="34"/>
       <c r="V159" s="1"/>
       <c r="W159" s="2"/>
@@ -14515,7 +14515,7 @@
       <c r="AK159" s="67"/>
     </row>
     <row r="160" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="102"/>
+      <c r="A160" s="89"/>
       <c r="B160" s="43"/>
       <c r="C160" s="43"/>
       <c r="D160" s="43"/>
@@ -14534,7 +14534,7 @@
       <c r="Q160" s="28"/>
       <c r="R160" s="67"/>
       <c r="S160" s="41"/>
-      <c r="T160" s="102"/>
+      <c r="T160" s="89"/>
       <c r="U160" s="34"/>
       <c r="V160" s="1"/>
       <c r="W160" s="2"/>
@@ -14554,7 +14554,7 @@
       <c r="AK160" s="67"/>
     </row>
     <row r="161" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="102"/>
+      <c r="A161" s="89"/>
       <c r="B161" s="43"/>
       <c r="C161" s="43"/>
       <c r="D161" s="43"/>
@@ -14573,7 +14573,7 @@
       <c r="Q161" s="28"/>
       <c r="R161" s="67"/>
       <c r="S161" s="41"/>
-      <c r="T161" s="102"/>
+      <c r="T161" s="89"/>
       <c r="U161" s="34"/>
       <c r="V161" s="1"/>
       <c r="W161" s="2"/>
@@ -14593,7 +14593,7 @@
       <c r="AK161" s="67"/>
     </row>
     <row r="162" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="102"/>
+      <c r="A162" s="89"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -14612,7 +14612,7 @@
       <c r="Q162" s="28"/>
       <c r="R162" s="67"/>
       <c r="S162" s="41"/>
-      <c r="T162" s="102"/>
+      <c r="T162" s="89"/>
       <c r="U162" s="34"/>
       <c r="V162" s="1"/>
       <c r="W162" s="2"/>
@@ -14632,7 +14632,7 @@
       <c r="AK162" s="67"/>
     </row>
     <row r="163" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="102"/>
+      <c r="A163" s="89"/>
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
       <c r="D163" s="44"/>
@@ -14651,7 +14651,7 @@
       <c r="Q163" s="28"/>
       <c r="R163" s="67"/>
       <c r="S163" s="41"/>
-      <c r="T163" s="102"/>
+      <c r="T163" s="89"/>
       <c r="U163" s="34"/>
       <c r="V163" s="1"/>
       <c r="W163" s="2"/>
@@ -14671,7 +14671,7 @@
       <c r="AK163" s="67"/>
     </row>
     <row r="164" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="102"/>
+      <c r="A164" s="89"/>
       <c r="B164" s="43"/>
       <c r="C164" s="43"/>
       <c r="D164" s="44"/>
@@ -14690,7 +14690,7 @@
       <c r="Q164" s="28"/>
       <c r="R164" s="67"/>
       <c r="S164" s="41"/>
-      <c r="T164" s="102"/>
+      <c r="T164" s="89"/>
       <c r="U164" s="34"/>
       <c r="V164" s="1"/>
       <c r="W164" s="2"/>
@@ -14710,7 +14710,7 @@
       <c r="AK164" s="67"/>
     </row>
     <row r="165" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="102"/>
+      <c r="A165" s="89"/>
       <c r="B165" s="46"/>
       <c r="C165" s="43"/>
       <c r="D165" s="44"/>
@@ -14729,7 +14729,7 @@
       <c r="Q165" s="28"/>
       <c r="R165" s="67"/>
       <c r="S165" s="41"/>
-      <c r="T165" s="102"/>
+      <c r="T165" s="89"/>
       <c r="U165" s="34"/>
       <c r="V165" s="1"/>
       <c r="W165" s="2"/>
@@ -14749,7 +14749,7 @@
       <c r="AK165" s="67"/>
     </row>
     <row r="166" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="102"/>
+      <c r="A166" s="89"/>
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
       <c r="D166" s="44"/>
@@ -14768,7 +14768,7 @@
       <c r="Q166" s="28"/>
       <c r="R166" s="67"/>
       <c r="S166" s="41"/>
-      <c r="T166" s="102"/>
+      <c r="T166" s="89"/>
       <c r="U166" s="34"/>
       <c r="V166" s="1"/>
       <c r="W166" s="2"/>
@@ -14808,24 +14808,66 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="Y141:AA141"/>
-    <mergeCell ref="AB141:AD141"/>
-    <mergeCell ref="AE141:AG141"/>
-    <mergeCell ref="AH141:AJ141"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="L143:N143"/>
-    <mergeCell ref="O143:Q143"/>
-    <mergeCell ref="Y142:AA142"/>
-    <mergeCell ref="AB142:AD142"/>
-    <mergeCell ref="AE142:AG142"/>
-    <mergeCell ref="AH142:AJ142"/>
-    <mergeCell ref="A114:A136"/>
-    <mergeCell ref="T114:T136"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="I142:K142"/>
-    <mergeCell ref="L142:N142"/>
-    <mergeCell ref="O142:Q142"/>
+    <mergeCell ref="AH73:AJ73"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AH43:AJ43"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AH72:AJ72"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="AB72:AD72"/>
+    <mergeCell ref="AE72:AG72"/>
+    <mergeCell ref="AB73:AD73"/>
+    <mergeCell ref="AE73:AG73"/>
+    <mergeCell ref="A5:A41"/>
+    <mergeCell ref="A46:A70"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="AE44:AG44"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE43:AG43"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="T5:T41"/>
+    <mergeCell ref="O112:Q112"/>
+    <mergeCell ref="Y111:AA111"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A75:A108"/>
+    <mergeCell ref="T46:T70"/>
+    <mergeCell ref="T75:T108"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="L73:N73"/>
     <mergeCell ref="A144:A166"/>
     <mergeCell ref="T144:T166"/>
     <mergeCell ref="AB111:AD111"/>
@@ -14842,66 +14884,24 @@
     <mergeCell ref="F112:H112"/>
     <mergeCell ref="I112:K112"/>
     <mergeCell ref="L112:N112"/>
-    <mergeCell ref="O112:Q112"/>
-    <mergeCell ref="Y111:AA111"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A75:A108"/>
-    <mergeCell ref="T46:T70"/>
-    <mergeCell ref="T75:T108"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE43:AG43"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="T5:T41"/>
-    <mergeCell ref="AB72:AD72"/>
-    <mergeCell ref="AE72:AG72"/>
-    <mergeCell ref="AB73:AD73"/>
-    <mergeCell ref="AE73:AG73"/>
-    <mergeCell ref="A5:A41"/>
-    <mergeCell ref="A46:A70"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="AE44:AG44"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="AH73:AJ73"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AH72:AJ72"/>
+    <mergeCell ref="A114:A136"/>
+    <mergeCell ref="T114:T136"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="I142:K142"/>
+    <mergeCell ref="L142:N142"/>
+    <mergeCell ref="O142:Q142"/>
+    <mergeCell ref="Y141:AA141"/>
+    <mergeCell ref="AB141:AD141"/>
+    <mergeCell ref="AE141:AG141"/>
+    <mergeCell ref="AH141:AJ141"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="L143:N143"/>
+    <mergeCell ref="O143:Q143"/>
+    <mergeCell ref="Y142:AA142"/>
+    <mergeCell ref="AB142:AD142"/>
+    <mergeCell ref="AE142:AG142"/>
+    <mergeCell ref="AH142:AJ142"/>
   </mergeCells>
   <conditionalFormatting sqref="AB75:AG83 AB5:AG15 I76:N76 I50:L50 N50 I51:N72 I5:N42 I79:N79 I81:N84 I86:N104 I107:N109 I120:N132 AB119:AG136 O115:Q136 AH114:AJ135 F115:H137 Y114:AA136 Y46:AG70 O46:Q61 F46:H71 I46:N49 AH46:AJ60">
     <cfRule type="containsText" dxfId="377" priority="936" operator="containsText" text="y">
